--- a/Documentation.xlsx
+++ b/Documentation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinzimmermann/nexio/3_R&amp;D/Projet Haag-Streit Phoroptère/POCv1.2/Json 0.1.2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinzimmermann/nexio/3_R&amp;D/Projet Haag-Streit Phoroptère/GitHub/refractive-JSON/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4612BCA-BE30-4646-A64A-DA4ACEAA23DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E26EA1A-5731-D84D-8AFF-9DDA7C995BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="500" windowWidth="51200" windowHeight="26880" xr2:uid="{97470A89-5A9D-474B-83A0-7CF02DF1D5C9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26880" xr2:uid="{97470A89-5A9D-474B-83A0-7CF02DF1D5C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="222">
   <si>
     <t>{</t>
   </si>
@@ -371,9 +371,6 @@
   </si>
   <si>
     <t>int</t>
-  </si>
-  <si>
-    <t>Patient’s date of birth</t>
   </si>
   <si>
     <t>Serial number</t>
@@ -522,9 +519,6 @@
   </si>
   <si>
     <t>Input Vector</t>
-  </si>
-  <si>
-    <t>RS-232 / SMB-TXT / SMB-XML ..</t>
   </si>
   <si>
     <t>Operator info</t>
@@ -695,15 +689,9 @@
     <t>Json entry point</t>
   </si>
   <si>
-    <t>RS-232 or API</t>
-  </si>
-  <si>
     <t>Json end point</t>
   </si>
   <si>
-    <t>COM1, API_device1, MQTT, ...</t>
-  </si>
-  <si>
     <t>in or out</t>
   </si>
   <si>
@@ -738,6 +726,66 @@
   </si>
   <si>
     <t>convergence:{</t>
+  </si>
+  <si>
+    <t>wild</t>
+  </si>
+  <si>
+    <t>nexio</t>
+  </si>
+  <si>
+    <t>nexio/wild</t>
+  </si>
+  <si>
+    <t>null, com1, api, mqtt, nfc, lora,…</t>
+  </si>
+  <si>
+    <t>Qui</t>
+  </si>
+  <si>
+    <t>hostName</t>
+  </si>
+  <si>
+    <t>defines the output path of the json, if value overwrites phorotpre settings</t>
+  </si>
+  <si>
+    <t>RS-232 / SMB-TXT / SMB-XML /EMR ..</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>P123456789012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient’s date of birth (YYYY-MM-DD) ISO 8601 UTC </t>
+  </si>
+  <si>
+    <t>0.5 / 0.25 / 0.125 /…</t>
+  </si>
+  <si>
+    <t>diopter unit (fixed value)</t>
+  </si>
+  <si>
+    <t>Cylinder axis unit (fixed value)</t>
+  </si>
+  <si>
+    <t>mm / cm / m /</t>
+  </si>
+  <si>
+    <t>-3.00 /null</t>
+  </si>
+  <si>
+    <t>-1.00 / null</t>
+  </si>
+  <si>
+    <t>180 / null</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>30.5</t>
   </si>
 </sst>
 </file>
@@ -776,7 +824,7 @@
       <family val="4"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -807,6 +855,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -835,7 +889,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -872,10 +926,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -895,7 +954,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1183,7 +1242,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1191,10 +1250,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35CFF79E-0D8B-AF4F-8800-07737C044728}">
-  <dimension ref="A1:Q384"/>
+  <dimension ref="A1:R384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A318" zoomScale="139" workbookViewId="0">
-      <selection activeCell="H325" sqref="H325"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="139" workbookViewId="0">
+      <selection activeCell="L81" sqref="L81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1"/>
@@ -1204,66 +1263,65 @@
     <col min="9" max="9" width="39.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="28.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="1"/>
+    <col min="13" max="13" width="10.83203125" style="1"/>
+    <col min="14" max="14" width="34.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18">
+      <c r="A1" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="18" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="M1" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="O2" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-    </row>
-    <row r="3" spans="1:17">
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-    </row>
-    <row r="4" spans="1:17">
+    </row>
+    <row r="4" spans="1:18">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="O4" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="P4" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+    </row>
+    <row r="5" spans="1:18">
       <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1276,8 +1334,19 @@
       <c r="K5" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="M5" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+    </row>
+    <row r="6" spans="1:18">
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1290,13 +1359,24 @@
       <c r="K6" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="M6" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+    </row>
+    <row r="7" spans="1:18">
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>91</v>
@@ -1304,62 +1384,74 @@
       <c r="K7" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="M7" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>91</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>205</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>91</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>205</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="N10" s="19" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:18">
       <c r="C12" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:18">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:18">
       <c r="D14" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:18">
       <c r="E15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1375,10 +1467,13 @@
       <c r="L15" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="M15" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="E16" s="1" t="s">
-        <v>12</v>
+        <v>207</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>94</v>
@@ -1392,8 +1487,11 @@
       <c r="L16" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="17" spans="5:12">
+      <c r="M16" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="5:13">
       <c r="E17" s="1" t="s">
         <v>13</v>
       </c>
@@ -1404,18 +1502,21 @@
         <v>91</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="18" spans="5:12">
+      <c r="M17" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="5:13">
       <c r="E18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>91</v>
@@ -1424,8 +1525,11 @@
         <v>92</v>
       </c>
       <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="5:12">
+      <c r="M18" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="5:13">
       <c r="E19" s="1" t="s">
         <v>15</v>
       </c>
@@ -1439,23 +1543,29 @@
         <v>92</v>
       </c>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="5:12">
+      <c r="M19" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="5:13">
       <c r="E20" s="1" t="s">
         <v>79</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>91</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="5:12">
+      <c r="M20" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="5:13">
       <c r="E21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1466,11 +1576,14 @@
         <v>91</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="5:12">
+      <c r="M21" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="5:13">
       <c r="E22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1478,16 +1591,19 @@
         <v>100</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>87</v>
       </c>
       <c r="L22" s="13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="23" spans="5:12">
+        <v>161</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="5:13">
       <c r="E23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1495,33 +1611,39 @@
         <v>101</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>87</v>
       </c>
       <c r="L23" s="13" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="24" spans="5:12">
+        <v>162</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="5:13">
       <c r="E24" s="1" t="s">
         <v>80</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>91</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="25" spans="5:12">
+        <v>209</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="5:13">
       <c r="E25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1535,8 +1657,11 @@
         <v>92</v>
       </c>
       <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="5:12">
+      <c r="M25" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26" spans="5:13">
       <c r="F26" s="1" t="s">
         <v>20</v>
       </c>
@@ -1544,16 +1669,19 @@
         <v>104</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="L26" s="3">
         <v>123456789</v>
       </c>
-    </row>
-    <row r="27" spans="5:12">
+      <c r="M26" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27" spans="5:13">
       <c r="F27" s="1" t="s">
         <v>21</v>
       </c>
@@ -1564,13 +1692,16 @@
         <v>91</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="L27" s="4">
-        <v>123456789012</v>
-      </c>
-    </row>
-    <row r="28" spans="5:12">
+        <v>92</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" spans="5:13">
       <c r="F28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1584,10 +1715,13 @@
         <v>92</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="29" spans="5:12">
+        <v>163</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="5:13">
       <c r="F29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1601,10 +1735,13 @@
         <v>92</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="30" spans="5:12">
+        <v>165</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30" spans="5:13">
       <c r="F30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,10 +1755,13 @@
         <v>92</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="31" spans="5:12">
+        <v>164</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="5:13">
       <c r="F31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1635,10 +1775,13 @@
         <v>92</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="32" spans="5:12">
+        <v>166</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="32" spans="5:13">
       <c r="F32" s="1" t="s">
         <v>26</v>
       </c>
@@ -1646,7 +1789,7 @@
         <v>110</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>111</v>
+        <v>210</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>92</v>
@@ -1654,60 +1797,72 @@
       <c r="L32" s="3">
         <v>40</v>
       </c>
-    </row>
-    <row r="33" spans="4:12">
+      <c r="M32" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="4:14">
       <c r="F33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>112</v>
+        <v>212</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>92</v>
       </c>
       <c r="L33" s="13" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="34" spans="4:12">
+        <v>167</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="4:14">
       <c r="E34" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="3" t="s">
         <v>92</v>
       </c>
       <c r="L34" s="2"/>
-    </row>
-    <row r="35" spans="4:12">
+      <c r="M34" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35" spans="4:14">
       <c r="F35" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="36" spans="4:12">
+      <c r="L35" s="3">
+        <v>123456789</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="36" spans="4:14">
       <c r="F36" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>91</v>
@@ -1716,252 +1871,298 @@
         <v>92</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="37" spans="4:12">
+        <v>168</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="37" spans="4:14">
       <c r="D37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="4:12">
+    <row r="38" spans="4:14">
       <c r="E38" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="4:12">
+    <row r="39" spans="4:14">
       <c r="F39" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="4:12">
+    <row r="40" spans="4:14">
       <c r="G40" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>116</v>
+        <v>214</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="K40" s="5" t="s">
+      <c r="K40" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L40" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="L40" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="41" spans="4:12">
+      <c r="M40" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="41" spans="4:14">
       <c r="G41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="42" spans="4:12">
+        <v>213</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="42" spans="4:14">
       <c r="F42" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="4:12">
+    <row r="43" spans="4:14">
       <c r="G43" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I43" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="L43" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J43" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="K43" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="44" spans="4:12">
+      <c r="M43" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="44" spans="4:14">
       <c r="G44" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>111</v>
+        <v>210</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L44" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="4:12">
+      <c r="M44" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="45" spans="4:14">
       <c r="F45" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J45" s="2"/>
       <c r="K45" s="3" t="s">
         <v>92</v>
       </c>
       <c r="L45" s="2"/>
-    </row>
-    <row r="46" spans="4:12">
+      <c r="M45" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="46" spans="4:14">
       <c r="G46" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>92</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="47" spans="4:12">
+        <v>216</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="N46" s="20"/>
+    </row>
+    <row r="47" spans="4:14">
       <c r="G47" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>92</v>
       </c>
       <c r="L47" s="2"/>
-    </row>
-    <row r="48" spans="4:12">
+      <c r="M47" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="N47" s="20"/>
+    </row>
+    <row r="48" spans="4:14">
       <c r="F48" s="1" t="s">
         <v>36</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J48" s="2"/>
       <c r="K48" s="3" t="s">
         <v>92</v>
       </c>
       <c r="L48" s="2"/>
-    </row>
-    <row r="49" spans="5:12">
+      <c r="M48" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="N48" s="20"/>
+    </row>
+    <row r="49" spans="5:14">
       <c r="G49" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I49" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="L49" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="J49" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="50" spans="5:12">
+      <c r="M49" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="N49" s="20"/>
+    </row>
+    <row r="50" spans="5:14">
       <c r="G50" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K50" s="3" t="s">
         <v>92</v>
       </c>
       <c r="L50" s="2"/>
-    </row>
-    <row r="51" spans="5:12">
+      <c r="M50" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="51" spans="5:14">
       <c r="F51" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="5:12">
+    <row r="52" spans="5:14">
       <c r="G52" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I52" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="L52" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="J52" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="L52" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="53" spans="5:12">
+      <c r="M52" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="53" spans="5:14">
       <c r="G53" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="K53" s="3" t="s">
         <v>92</v>
       </c>
       <c r="L53" s="2"/>
-    </row>
-    <row r="54" spans="5:12">
+      <c r="M53" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="54" spans="5:14">
       <c r="F54" s="1" t="s">
         <v>38</v>
       </c>
       <c r="I54" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="L54" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="J54" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="L54" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="55" spans="5:12">
+      <c r="M54" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="55" spans="5:14">
       <c r="E55" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="5:12">
+    <row r="56" spans="5:14">
       <c r="F56" s="1" t="s">
         <v>40</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>86</v>
@@ -1970,81 +2171,96 @@
         <v>92</v>
       </c>
       <c r="L56" s="2"/>
-    </row>
-    <row r="57" spans="5:12">
+      <c r="M56" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="57" spans="5:14">
       <c r="G57" s="1" t="s">
         <v>41</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="L57" s="6">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="58" spans="5:12">
+        <v>92</v>
+      </c>
+      <c r="L57" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="58" spans="5:14">
       <c r="G58" s="1" t="s">
         <v>42</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="L58" s="6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="59" spans="5:12">
+        <v>92</v>
+      </c>
+      <c r="L58" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="59" spans="5:14">
       <c r="G59" s="1" t="s">
         <v>43</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="L59" s="4">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="60" spans="5:12">
+        <v>92</v>
+      </c>
+      <c r="L59" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="60" spans="5:14">
       <c r="G60" s="1" t="s">
         <v>44</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="L60" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="5:12">
+      <c r="L60" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="61" spans="5:14">
       <c r="G61" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>91</v>
@@ -2053,13 +2269,16 @@
         <v>92</v>
       </c>
       <c r="L61" s="4"/>
-    </row>
-    <row r="62" spans="5:12">
+      <c r="M61" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="62" spans="5:14">
       <c r="G62" s="1" t="s">
         <v>46</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>91</v>
@@ -2068,13 +2287,16 @@
         <v>92</v>
       </c>
       <c r="L62" s="4"/>
-    </row>
-    <row r="63" spans="5:12">
+      <c r="M62" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="63" spans="5:14">
       <c r="G63" s="1" t="s">
         <v>47</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>91</v>
@@ -2083,13 +2305,16 @@
         <v>92</v>
       </c>
       <c r="L63" s="4"/>
-    </row>
-    <row r="64" spans="5:12">
+      <c r="M63" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="64" spans="5:14">
       <c r="G64" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>91</v>
@@ -2098,13 +2323,16 @@
         <v>92</v>
       </c>
       <c r="L64" s="4"/>
-    </row>
-    <row r="65" spans="6:12">
+      <c r="M64" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="65" spans="6:13">
       <c r="G65" s="1" t="s">
         <v>49</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>91</v>
@@ -2113,13 +2341,16 @@
         <v>92</v>
       </c>
       <c r="L65" s="4"/>
-    </row>
-    <row r="66" spans="6:12">
+      <c r="M65" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="66" spans="6:13">
       <c r="G66" s="1" t="s">
         <v>50</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>91</v>
@@ -2128,30 +2359,36 @@
         <v>92</v>
       </c>
       <c r="L66" s="4"/>
-    </row>
-    <row r="67" spans="6:12">
+      <c r="M66" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="67" spans="6:13">
       <c r="G67" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="J67" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="L67" s="9">
-        <v>31.5</v>
-      </c>
-    </row>
-    <row r="68" spans="6:12">
+        <v>116</v>
+      </c>
+      <c r="L67" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="68" spans="6:13">
       <c r="F68" s="1" t="s">
         <v>52</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>86</v>
@@ -2160,79 +2397,115 @@
         <v>92</v>
       </c>
       <c r="L68" s="2"/>
-    </row>
-    <row r="69" spans="6:12" hidden="1" outlineLevel="1">
+      <c r="M68" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="69" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G69" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="6:12" hidden="1" outlineLevel="1">
+      <c r="M69" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="70" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G70" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="6:12" hidden="1" outlineLevel="1">
+      <c r="M70" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="71" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G71" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="6:12" hidden="1" outlineLevel="1">
+      <c r="M71" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="72" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G72" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="6:12" hidden="1" outlineLevel="1">
+      <c r="M72" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="73" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G73" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="6:12" hidden="1" outlineLevel="1">
+      <c r="M73" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="74" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G74" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="6:12" hidden="1" outlineLevel="1">
+      <c r="M74" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="75" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G75" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="6:12" hidden="1" outlineLevel="1">
+      <c r="M75" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="76" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G76" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="6:12" hidden="1" outlineLevel="1">
+      <c r="M76" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="77" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G77" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K77" s="3"/>
-    </row>
-    <row r="78" spans="6:12" hidden="1" outlineLevel="1">
+      <c r="M77" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="78" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G78" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K78" s="3"/>
-    </row>
-    <row r="79" spans="6:12" hidden="1" outlineLevel="1">
+      <c r="M78" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="79" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G79" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K79" s="3"/>
-    </row>
-    <row r="80" spans="6:12" collapsed="1">
+      <c r="M79" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="80" spans="6:13" collapsed="1">
       <c r="F80" s="1" t="s">
         <v>53</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>86</v>
@@ -2241,13 +2514,16 @@
         <v>92</v>
       </c>
       <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12">
+      <c r="M80" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13">
       <c r="G81" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J81" s="2" t="s">
         <v>91</v>
@@ -2256,13 +2532,16 @@
         <v>92</v>
       </c>
       <c r="L81" s="4"/>
-    </row>
-    <row r="82" spans="3:12">
+      <c r="M81" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13">
       <c r="G82" s="1" t="s">
         <v>46</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>91</v>
@@ -2271,13 +2550,16 @@
         <v>92</v>
       </c>
       <c r="L82" s="4"/>
-    </row>
-    <row r="83" spans="3:12">
+      <c r="M82" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="83" spans="3:13">
       <c r="G83" s="1" t="s">
         <v>47</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>91</v>
@@ -2286,13 +2568,16 @@
         <v>92</v>
       </c>
       <c r="L83" s="4"/>
-    </row>
-    <row r="84" spans="3:12">
+      <c r="M83" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13">
       <c r="G84" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>91</v>
@@ -2301,13 +2586,16 @@
         <v>92</v>
       </c>
       <c r="L84" s="4"/>
-    </row>
-    <row r="85" spans="3:12">
+      <c r="M84" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13">
       <c r="G85" s="1" t="s">
         <v>49</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>91</v>
@@ -2316,13 +2604,16 @@
         <v>92</v>
       </c>
       <c r="L85" s="4"/>
-    </row>
-    <row r="86" spans="3:12">
+      <c r="M85" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13">
       <c r="G86" s="1" t="s">
         <v>50</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J86" s="2" t="s">
         <v>91</v>
@@ -2331,33 +2622,39 @@
         <v>92</v>
       </c>
       <c r="L86" s="4"/>
-    </row>
-    <row r="87" spans="3:12">
+      <c r="M86" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13">
       <c r="G87" s="1" t="s">
         <v>54</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J87" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L87" s="9">
         <v>31.5</v>
       </c>
-    </row>
-    <row r="88" spans="3:12">
+      <c r="M87" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13">
       <c r="G88" s="1" t="s">
         <v>55</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J88" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K88" s="3" t="s">
         <v>92</v>
@@ -2365,41 +2662,44 @@
       <c r="L88" s="9">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="90" spans="3:12">
+      <c r="M88" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13">
       <c r="C90" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="91" spans="3:12">
+    <row r="91" spans="3:13">
       <c r="D91" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="92" spans="3:12" hidden="1" outlineLevel="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" hidden="1" outlineLevel="1">
       <c r="E92" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="3:12" hidden="1" outlineLevel="1">
+    <row r="93" spans="3:13" hidden="1" outlineLevel="1">
       <c r="E93" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="3:12" hidden="1" outlineLevel="1">
+    <row r="94" spans="3:13" hidden="1" outlineLevel="1">
       <c r="E94" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="3:12" hidden="1" outlineLevel="1">
+    <row r="95" spans="3:13" hidden="1" outlineLevel="1">
       <c r="E95" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="3:12" hidden="1" outlineLevel="1">
+    <row r="96" spans="3:13" hidden="1" outlineLevel="1">
       <c r="E96" s="1" t="s">
         <v>15</v>
       </c>
@@ -2484,173 +2784,194 @@
         <v>20</v>
       </c>
     </row>
-    <row r="113" spans="4:12" hidden="1" outlineLevel="1">
+    <row r="113" spans="4:13" hidden="1" outlineLevel="1">
       <c r="F113" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="114" spans="4:12" collapsed="1">
+    <row r="114" spans="4:13" collapsed="1">
       <c r="D114" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="115" spans="4:12">
+    <row r="115" spans="4:13">
       <c r="E115" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="4:12">
+    <row r="116" spans="4:13">
       <c r="F116" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="117" spans="4:12">
+    <row r="117" spans="4:13">
       <c r="G117" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I117" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J117" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K117" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="J117" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K117" s="5" t="s">
+      <c r="L117" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="L117" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="118" spans="4:12">
+      <c r="M117" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="118" spans="4:13">
       <c r="G118" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J118" s="2" t="s">
         <v>91</v>
       </c>
       <c r="K118" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L118" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="119" spans="4:12">
+        <v>187</v>
+      </c>
+      <c r="M118" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="119" spans="4:13">
       <c r="F119" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="120" spans="4:12">
+    <row r="120" spans="4:13">
       <c r="G120" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I120" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J120" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K120" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="L120" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J120" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K120" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="L120" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="121" spans="4:12">
+      <c r="M120" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="121" spans="4:13">
       <c r="G121" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J121" s="2" t="s">
         <v>111</v>
       </c>
       <c r="K121" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L121" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="4:12">
+      <c r="M121" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="122" spans="4:13">
       <c r="F122" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="123" spans="4:12">
+    <row r="123" spans="4:13">
       <c r="G123" s="1" t="s">
         <v>58</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J123" s="2" t="s">
         <v>91</v>
       </c>
       <c r="K123" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L123" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="124" spans="4:12">
+        <v>159</v>
+      </c>
+      <c r="M123" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="124" spans="4:13">
       <c r="G124" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="J124" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="J124" s="16" t="s">
         <v>91</v>
       </c>
       <c r="K124" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L124" s="3">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="125" spans="4:12">
+      <c r="M124" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="125" spans="4:13">
       <c r="F125" s="1" t="s">
         <v>59</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J125" s="2" t="s">
         <v>91</v>
       </c>
       <c r="K125" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L125" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="126" spans="4:12">
+        <v>192</v>
+      </c>
+      <c r="M125" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="126" spans="4:13">
       <c r="E126" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="127" spans="4:12">
+    <row r="127" spans="4:13">
       <c r="F127" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="128" spans="4:12">
+    <row r="128" spans="4:13">
       <c r="G128" s="1" t="s">
         <v>41</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="J128" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="J128" s="16" t="s">
         <v>91</v>
       </c>
       <c r="K128" s="3" t="s">
@@ -2659,15 +2980,18 @@
       <c r="L128" s="6">
         <v>-3</v>
       </c>
-    </row>
-    <row r="129" spans="6:12">
+      <c r="M128" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="129" spans="6:13">
       <c r="G129" s="1" t="s">
         <v>42</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="J129" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="J129" s="16" t="s">
         <v>91</v>
       </c>
       <c r="K129" s="3" t="s">
@@ -2676,13 +3000,16 @@
       <c r="L129" s="6">
         <v>-1</v>
       </c>
-    </row>
-    <row r="130" spans="6:12">
+      <c r="M129" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="130" spans="6:13">
       <c r="G130" s="1" t="s">
         <v>43</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J130" s="2" t="s">
         <v>111</v>
@@ -2693,216 +3020,249 @@
       <c r="L130" s="4">
         <v>180</v>
       </c>
-    </row>
-    <row r="131" spans="6:12">
+      <c r="M130" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="131" spans="6:13">
       <c r="G131" s="1" t="s">
         <v>60</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="J131" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="J131" s="16" t="s">
         <v>91</v>
       </c>
       <c r="K131" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L131" s="6">
         <v>-3.5</v>
       </c>
-    </row>
-    <row r="132" spans="6:12">
+      <c r="M131" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="132" spans="6:13">
       <c r="G132" s="1" t="s">
         <v>61</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="J132" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="J132" s="16" t="s">
         <v>91</v>
       </c>
       <c r="K132" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L132" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="6:12">
+      <c r="M132" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="133" spans="6:13">
       <c r="G133" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="J133" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="J133" s="16" t="s">
         <v>91</v>
       </c>
       <c r="K133" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L133" s="6">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="134" spans="6:12">
+      <c r="M133" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="134" spans="6:13">
       <c r="G134" s="1" t="s">
         <v>63</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="J134" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="J134" s="16" t="s">
         <v>91</v>
       </c>
       <c r="K134" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L134" s="6">
         <v>-2</v>
       </c>
-    </row>
-    <row r="135" spans="6:12">
+      <c r="M134" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="135" spans="6:13">
       <c r="G135" s="1" t="s">
         <v>64</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="J135" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="J135" s="16" t="s">
         <v>91</v>
       </c>
       <c r="K135" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L135" s="6">
         <v>-1.5</v>
       </c>
-    </row>
-    <row r="136" spans="6:12">
+      <c r="M135" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="136" spans="6:13">
       <c r="G136" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="I136" s="14"/>
       <c r="J136" s="14"/>
       <c r="K136" s="15"/>
       <c r="L136" s="15"/>
     </row>
-    <row r="137" spans="6:12">
+    <row r="137" spans="6:13">
       <c r="H137" s="1" t="s">
         <v>68</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="J137" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="J137" s="16" t="s">
         <v>91</v>
       </c>
       <c r="K137" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L137" s="6">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="138" spans="6:12">
+      <c r="M137" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="138" spans="6:13">
       <c r="H138" s="1" t="s">
         <v>69</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="J138" s="8"/>
       <c r="K138" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L138" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="139" spans="6:12">
+        <v>196</v>
+      </c>
+      <c r="M138" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="139" spans="6:13">
       <c r="G139" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="I139" s="14"/>
       <c r="J139" s="14"/>
       <c r="K139" s="15"/>
       <c r="L139" s="15"/>
     </row>
-    <row r="140" spans="6:12">
+    <row r="140" spans="6:13">
       <c r="H140" s="1" t="s">
         <v>68</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="J140" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="J140" s="16" t="s">
         <v>91</v>
       </c>
       <c r="K140" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L140" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="6:12">
+      <c r="M140" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="141" spans="6:13">
       <c r="H141" s="1" t="s">
         <v>69</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="J141" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="J141" s="16" t="s">
         <v>91</v>
       </c>
       <c r="K141" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L141" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="142" spans="6:12">
+        <v>190</v>
+      </c>
+      <c r="M141" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="142" spans="6:13">
       <c r="G142" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="J142" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="J142" s="16" t="s">
         <v>91</v>
       </c>
       <c r="K142" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L142" s="9">
         <v>31.5</v>
       </c>
-    </row>
-    <row r="143" spans="6:12">
+      <c r="M142" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="143" spans="6:13">
       <c r="F143" s="1" t="s">
         <v>52</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J143" s="14"/>
       <c r="K143" s="15"/>
       <c r="L143" s="15"/>
     </row>
-    <row r="144" spans="6:12" hidden="1" outlineLevel="1">
+    <row r="144" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G144" s="1" t="s">
         <v>41</v>
       </c>
       <c r="I144" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J144" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="J144" s="8" t="s">
-        <v>146</v>
-      </c>
       <c r="K144" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L144" s="5">
         <v>31.5</v>
@@ -2988,275 +3348,296 @@
         <v>51</v>
       </c>
     </row>
-    <row r="161" spans="3:12" collapsed="1">
+    <row r="161" spans="3:13" collapsed="1">
       <c r="F161" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="162" spans="3:12">
+    <row r="162" spans="3:13">
       <c r="G162" s="1" t="s">
         <v>54</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J162" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K162" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L162" s="9">
         <v>63</v>
       </c>
-    </row>
-    <row r="163" spans="3:12">
+      <c r="M162" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="163" spans="3:13">
       <c r="G163" s="1" t="s">
         <v>71</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J163" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K163" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L163" s="9">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="165" spans="3:12">
+      <c r="M163" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="165" spans="3:13">
       <c r="C165" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="166" spans="3:12">
+    <row r="166" spans="3:13">
       <c r="D166" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="167" spans="3:12" hidden="1" outlineLevel="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="167" spans="3:13" hidden="1" outlineLevel="1">
       <c r="E167" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="168" spans="3:12" hidden="1" outlineLevel="1">
+    <row r="168" spans="3:13" hidden="1" outlineLevel="1">
       <c r="E168" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="169" spans="3:12" hidden="1" outlineLevel="1">
+    <row r="169" spans="3:13" hidden="1" outlineLevel="1">
       <c r="E169" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="3:12" hidden="1" outlineLevel="1">
+    <row r="170" spans="3:13" hidden="1" outlineLevel="1">
       <c r="E170" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="171" spans="3:12" hidden="1" outlineLevel="1">
+    <row r="171" spans="3:13" hidden="1" outlineLevel="1">
       <c r="E171" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="3:12" hidden="1" outlineLevel="1">
+    <row r="172" spans="3:13" hidden="1" outlineLevel="1">
       <c r="E172" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="173" spans="3:12" hidden="1" outlineLevel="1">
+    <row r="173" spans="3:13" hidden="1" outlineLevel="1">
       <c r="E173" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="174" spans="3:12" hidden="1" outlineLevel="1">
+    <row r="174" spans="3:13" hidden="1" outlineLevel="1">
       <c r="E174" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="175" spans="3:12" hidden="1" outlineLevel="1">
+    <row r="175" spans="3:13" hidden="1" outlineLevel="1">
       <c r="E175" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="176" spans="3:12" hidden="1" outlineLevel="1">
+    <row r="176" spans="3:13" hidden="1" outlineLevel="1">
       <c r="E176" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="177" spans="4:12" hidden="1" outlineLevel="1">
+    <row r="177" spans="4:13" hidden="1" outlineLevel="1">
       <c r="E177" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="178" spans="4:12" hidden="1" outlineLevel="1">
+    <row r="178" spans="4:13" hidden="1" outlineLevel="1">
       <c r="F178" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="179" spans="4:12" hidden="1" outlineLevel="1">
+    <row r="179" spans="4:13" hidden="1" outlineLevel="1">
       <c r="F179" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="180" spans="4:12" hidden="1" outlineLevel="1">
+    <row r="180" spans="4:13" hidden="1" outlineLevel="1">
       <c r="F180" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="181" spans="4:12" hidden="1" outlineLevel="1">
+    <row r="181" spans="4:13" hidden="1" outlineLevel="1">
       <c r="F181" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="182" spans="4:12" hidden="1" outlineLevel="1">
+    <row r="182" spans="4:13" hidden="1" outlineLevel="1">
       <c r="F182" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="183" spans="4:12" hidden="1" outlineLevel="1">
+    <row r="183" spans="4:13" hidden="1" outlineLevel="1">
       <c r="F183" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="184" spans="4:12" hidden="1" outlineLevel="1">
+    <row r="184" spans="4:13" hidden="1" outlineLevel="1">
       <c r="F184" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="185" spans="4:12" hidden="1" outlineLevel="1">
+    <row r="185" spans="4:13" hidden="1" outlineLevel="1">
       <c r="F185" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="186" spans="4:12" hidden="1" outlineLevel="1">
+    <row r="186" spans="4:13" hidden="1" outlineLevel="1">
       <c r="E186" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="187" spans="4:12" hidden="1" outlineLevel="1">
+    <row r="187" spans="4:13" hidden="1" outlineLevel="1">
       <c r="F187" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="188" spans="4:12" hidden="1" outlineLevel="1">
+    <row r="188" spans="4:13" hidden="1" outlineLevel="1">
       <c r="F188" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="189" spans="4:12" collapsed="1">
+    <row r="189" spans="4:13" collapsed="1">
       <c r="D189" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="190" spans="4:12">
+    <row r="190" spans="4:13">
       <c r="E190" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="4:12">
+    <row r="191" spans="4:13">
       <c r="F191" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="192" spans="4:12">
+    <row r="192" spans="4:13">
       <c r="G192" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I192" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J192" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K192" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="J192" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K192" s="5" t="s">
+      <c r="L192" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="L192" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="193" spans="6:12">
+      <c r="M192" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="193" spans="6:13">
       <c r="G193" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I193" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J193" s="2" t="s">
         <v>91</v>
       </c>
       <c r="K193" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L193" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="194" spans="6:12">
+        <v>187</v>
+      </c>
+      <c r="M193" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="194" spans="6:13">
       <c r="F194" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="195" spans="6:12">
+    <row r="195" spans="6:13">
       <c r="G195" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I195" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J195" s="2" t="s">
         <v>111</v>
       </c>
       <c r="K195" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L195" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="196" spans="6:12">
+        <v>120</v>
+      </c>
+      <c r="M195" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="196" spans="6:13">
       <c r="G196" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I196" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J196" s="2" t="s">
         <v>111</v>
       </c>
       <c r="K196" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L196" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="6:12">
+      <c r="M196" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="197" spans="6:13">
       <c r="F197" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I197" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J197" s="2"/>
       <c r="K197" s="3" t="s">
         <v>92</v>
       </c>
       <c r="L197" s="2"/>
-    </row>
-    <row r="198" spans="6:12">
+      <c r="M197" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="198" spans="6:13">
       <c r="G198" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I198" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J198" s="2" t="s">
         <v>111</v>
@@ -3265,15 +3646,18 @@
         <v>92</v>
       </c>
       <c r="L198" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="199" spans="6:12">
+        <v>124</v>
+      </c>
+      <c r="M198" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="199" spans="6:13">
       <c r="G199" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I199" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J199" s="2" t="s">
         <v>91</v>
@@ -3282,26 +3666,32 @@
         <v>92</v>
       </c>
       <c r="L199" s="2"/>
-    </row>
-    <row r="200" spans="6:12">
+      <c r="M199" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="200" spans="6:13">
       <c r="F200" s="1" t="s">
         <v>36</v>
       </c>
       <c r="I200" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J200" s="2"/>
       <c r="K200" s="3" t="s">
         <v>92</v>
       </c>
       <c r="L200" s="2"/>
-    </row>
-    <row r="201" spans="6:12">
+      <c r="M200" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="201" spans="6:13">
       <c r="G201" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I201" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J201" s="2" t="s">
         <v>111</v>
@@ -3310,15 +3700,18 @@
         <v>92</v>
       </c>
       <c r="L201" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="202" spans="6:12">
+        <v>124</v>
+      </c>
+      <c r="M201" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="202" spans="6:13">
       <c r="G202" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I202" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J202" s="2" t="s">
         <v>91</v>
@@ -3327,74 +3720,86 @@
         <v>92</v>
       </c>
       <c r="L202" s="2"/>
-    </row>
-    <row r="203" spans="6:12">
+      <c r="M202" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="203" spans="6:13">
       <c r="F203" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="204" spans="6:12">
+    <row r="204" spans="6:13">
       <c r="G204" s="1" t="s">
         <v>58</v>
       </c>
       <c r="I204" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J204" s="2" t="s">
         <v>91</v>
       </c>
       <c r="K204" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L204" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="205" spans="6:12">
+        <v>159</v>
+      </c>
+      <c r="M204" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="6:13">
       <c r="G205" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I205" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="J205" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="J205" s="16" t="s">
         <v>91</v>
       </c>
       <c r="K205" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L205" s="3">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="206" spans="6:12">
+      <c r="M205" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="206" spans="6:13">
       <c r="F206" s="1" t="s">
         <v>59</v>
       </c>
       <c r="I206" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J206" s="2" t="s">
         <v>91</v>
       </c>
       <c r="K206" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L206" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="207" spans="6:12">
+        <v>192</v>
+      </c>
+      <c r="M206" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="207" spans="6:13">
       <c r="F207" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="208" spans="6:12">
+    <row r="208" spans="6:13">
       <c r="G208" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I208" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J208" s="2" t="s">
         <v>111</v>
@@ -3403,52 +3808,61 @@
         <v>92</v>
       </c>
       <c r="L208" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="209" spans="5:12">
+        <v>128</v>
+      </c>
+      <c r="M208" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="209" spans="5:13">
       <c r="G209" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I209" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J209" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="J209" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="K209" s="3" t="s">
         <v>92</v>
       </c>
       <c r="L209" s="2"/>
-    </row>
-    <row r="210" spans="5:12">
+      <c r="M209" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="210" spans="5:13">
       <c r="F210" s="1" t="s">
         <v>38</v>
       </c>
       <c r="I210" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J210" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K210" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="L210" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="J210" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K210" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="L210" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="211" spans="5:12">
+      <c r="M210" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="211" spans="5:13">
       <c r="E211" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="212" spans="5:12">
+    <row r="212" spans="5:13">
       <c r="F212" s="1" t="s">
         <v>40</v>
       </c>
       <c r="I212" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J212" s="2" t="s">
         <v>86</v>
@@ -3457,13 +3871,16 @@
         <v>92</v>
       </c>
       <c r="L212" s="2"/>
-    </row>
-    <row r="213" spans="5:12">
+      <c r="M212" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="213" spans="5:13">
       <c r="G213" s="1" t="s">
         <v>41</v>
       </c>
       <c r="I213" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J213" s="2" t="s">
         <v>91</v>
@@ -3474,13 +3891,16 @@
       <c r="L213" s="6">
         <v>-3</v>
       </c>
-    </row>
-    <row r="214" spans="5:12">
+      <c r="M213" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="214" spans="5:13">
       <c r="G214" s="1" t="s">
         <v>42</v>
       </c>
       <c r="I214" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J214" s="2" t="s">
         <v>91</v>
@@ -3491,13 +3911,16 @@
       <c r="L214" s="6">
         <v>-1</v>
       </c>
-    </row>
-    <row r="215" spans="5:12">
+      <c r="M214" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="215" spans="5:13">
       <c r="G215" s="1" t="s">
         <v>43</v>
       </c>
       <c r="I215" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J215" s="2" t="s">
         <v>111</v>
@@ -3508,165 +3931,192 @@
       <c r="L215" s="4">
         <v>180</v>
       </c>
-    </row>
-    <row r="216" spans="5:12">
+      <c r="M215" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="216" spans="5:13">
       <c r="G216" s="1" t="s">
         <v>61</v>
       </c>
       <c r="I216" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J216" s="2" t="s">
         <v>91</v>
       </c>
       <c r="K216" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L216" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="217" spans="5:12">
+      <c r="M216" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="217" spans="5:13">
       <c r="G217" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I217" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J217" s="2" t="s">
         <v>91</v>
       </c>
       <c r="K217" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L217" s="6">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="218" spans="5:12">
+      <c r="M217" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="218" spans="5:13">
       <c r="G218" s="1" t="s">
         <v>63</v>
       </c>
       <c r="I218" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J218" s="2" t="s">
         <v>91</v>
       </c>
       <c r="K218" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L218" s="6">
         <v>-2</v>
       </c>
-    </row>
-    <row r="219" spans="5:12">
+      <c r="M218" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="219" spans="5:13">
       <c r="G219" s="1" t="s">
         <v>64</v>
       </c>
       <c r="I219" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J219" s="2" t="s">
         <v>91</v>
       </c>
       <c r="K219" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L219" s="6">
         <v>-1.5</v>
       </c>
-    </row>
-    <row r="220" spans="5:12">
+      <c r="M219" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="220" spans="5:13">
       <c r="G220" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="I220" s="14"/>
       <c r="J220" s="14"/>
       <c r="K220" s="15"/>
       <c r="L220" s="15"/>
     </row>
-    <row r="221" spans="5:12">
+    <row r="221" spans="5:13">
       <c r="H221" s="1" t="s">
         <v>68</v>
       </c>
       <c r="I221" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="J221" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="J221" s="16" t="s">
         <v>91</v>
       </c>
       <c r="K221" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L221" s="6">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="222" spans="5:12">
+      <c r="M221" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="222" spans="5:13">
       <c r="H222" s="1" t="s">
         <v>69</v>
       </c>
       <c r="I222" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="J222" s="8"/>
       <c r="K222" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L222" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="223" spans="5:12">
+        <v>196</v>
+      </c>
+      <c r="M222" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="223" spans="5:13">
       <c r="G223" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="I223" s="14"/>
       <c r="J223" s="14"/>
       <c r="K223" s="15"/>
       <c r="L223" s="15"/>
     </row>
-    <row r="224" spans="5:12">
+    <row r="224" spans="5:13">
       <c r="H224" s="1" t="s">
         <v>68</v>
       </c>
       <c r="I224" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="J224" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="J224" s="16" t="s">
         <v>91</v>
       </c>
       <c r="K224" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L224" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="6:12">
+      <c r="M224" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="225" spans="6:13">
       <c r="H225" s="1" t="s">
         <v>69</v>
       </c>
       <c r="I225" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="J225" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="J225" s="16" t="s">
         <v>91</v>
       </c>
       <c r="K225" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L225" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="226" spans="6:12">
+        <v>190</v>
+      </c>
+      <c r="M225" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="226" spans="6:13">
       <c r="G226" s="1" t="s">
         <v>44</v>
       </c>
       <c r="I226" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J226" s="2" t="s">
         <v>91</v>
@@ -3677,13 +4127,16 @@
       <c r="L226" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="227" spans="6:12">
+      <c r="M226" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="227" spans="6:13">
       <c r="G227" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I227" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J227" s="2" t="s">
         <v>91</v>
@@ -3692,13 +4145,16 @@
         <v>92</v>
       </c>
       <c r="L227" s="4"/>
-    </row>
-    <row r="228" spans="6:12">
+      <c r="M227" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="228" spans="6:13">
       <c r="G228" s="1" t="s">
         <v>46</v>
       </c>
       <c r="I228" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J228" s="2" t="s">
         <v>91</v>
@@ -3707,13 +4163,16 @@
         <v>92</v>
       </c>
       <c r="L228" s="4"/>
-    </row>
-    <row r="229" spans="6:12">
+      <c r="M228" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="229" spans="6:13">
       <c r="G229" s="1" t="s">
         <v>47</v>
       </c>
       <c r="I229" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J229" s="2" t="s">
         <v>91</v>
@@ -3722,13 +4181,16 @@
         <v>92</v>
       </c>
       <c r="L229" s="4"/>
-    </row>
-    <row r="230" spans="6:12">
+      <c r="M229" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="230" spans="6:13">
       <c r="G230" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I230" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J230" s="2" t="s">
         <v>91</v>
@@ -3737,13 +4199,16 @@
         <v>92</v>
       </c>
       <c r="L230" s="4"/>
-    </row>
-    <row r="231" spans="6:12">
+      <c r="M230" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="231" spans="6:13">
       <c r="G231" s="1" t="s">
         <v>49</v>
       </c>
       <c r="I231" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J231" s="2" t="s">
         <v>91</v>
@@ -3752,13 +4217,16 @@
         <v>92</v>
       </c>
       <c r="L231" s="4"/>
-    </row>
-    <row r="232" spans="6:12">
+      <c r="M231" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="232" spans="6:13">
       <c r="G232" s="1" t="s">
         <v>50</v>
       </c>
       <c r="I232" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J232" s="2" t="s">
         <v>91</v>
@@ -3767,30 +4235,36 @@
         <v>92</v>
       </c>
       <c r="L232" s="4"/>
-    </row>
-    <row r="233" spans="6:12">
+      <c r="M232" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="233" spans="6:13">
       <c r="G233" s="1" t="s">
         <v>54</v>
       </c>
       <c r="I233" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J233" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="J233" s="8" t="s">
-        <v>146</v>
-      </c>
       <c r="K233" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L233" s="9">
         <v>31.5</v>
       </c>
-    </row>
-    <row r="234" spans="6:12">
+      <c r="M233" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="234" spans="6:13">
       <c r="F234" s="1" t="s">
         <v>52</v>
       </c>
       <c r="I234" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J234" s="2" t="s">
         <v>86</v>
@@ -3799,128 +4273,200 @@
         <v>92</v>
       </c>
       <c r="L234" s="2"/>
-    </row>
-    <row r="235" spans="6:12" hidden="1" outlineLevel="1">
+      <c r="M234" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="235" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G235" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="236" spans="6:12" hidden="1" outlineLevel="1">
+      <c r="M235" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="236" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G236" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="237" spans="6:12" hidden="1" outlineLevel="1">
+      <c r="M236" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="237" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G237" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="238" spans="6:12" hidden="1" outlineLevel="1">
+      <c r="M237" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="238" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G238" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="239" spans="6:12" hidden="1" outlineLevel="1">
+      <c r="M238" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="239" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G239" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="240" spans="6:12" hidden="1" outlineLevel="1">
+      <c r="M239" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="240" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G240" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="241" spans="7:8" hidden="1" outlineLevel="1">
+      <c r="M240" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="241" spans="7:13" hidden="1" outlineLevel="1">
       <c r="G241" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="242" spans="7:8" hidden="1" outlineLevel="1">
+      <c r="M241" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="242" spans="7:13" hidden="1" outlineLevel="1">
       <c r="G242" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="243" spans="7:8" hidden="1" outlineLevel="1">
+      <c r="M242" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="243" spans="7:13" hidden="1" outlineLevel="1">
       <c r="G243" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="244" spans="7:8" hidden="1" outlineLevel="1">
+      <c r="M243" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="244" spans="7:13" hidden="1" outlineLevel="1">
       <c r="G244" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="245" spans="7:8" hidden="1" outlineLevel="1">
+      <c r="M244" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="245" spans="7:13" hidden="1" outlineLevel="1">
       <c r="H245" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="246" spans="7:8" hidden="1" outlineLevel="1">
+      <c r="M245" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="246" spans="7:13" hidden="1" outlineLevel="1">
       <c r="H246" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="247" spans="7:8" hidden="1" outlineLevel="1">
+      <c r="M246" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="247" spans="7:13" hidden="1" outlineLevel="1">
       <c r="G247" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="248" spans="7:8" hidden="1" outlineLevel="1">
+      <c r="M247" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="248" spans="7:13" hidden="1" outlineLevel="1">
       <c r="H248" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="249" spans="7:8" hidden="1" outlineLevel="1">
+      <c r="M248" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="249" spans="7:13" hidden="1" outlineLevel="1">
       <c r="H249" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="250" spans="7:8" hidden="1" outlineLevel="1">
+      <c r="M249" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="250" spans="7:13" hidden="1" outlineLevel="1">
       <c r="G250" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="251" spans="7:8" hidden="1" outlineLevel="1">
+      <c r="M250" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="251" spans="7:13" hidden="1" outlineLevel="1">
       <c r="G251" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="252" spans="7:8" hidden="1" outlineLevel="1">
+      <c r="M251" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="252" spans="7:13" hidden="1" outlineLevel="1">
       <c r="G252" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="253" spans="7:8" hidden="1" outlineLevel="1">
+      <c r="M252" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="253" spans="7:13" hidden="1" outlineLevel="1">
       <c r="G253" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="254" spans="7:8" hidden="1" outlineLevel="1">
+      <c r="M253" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="254" spans="7:13" hidden="1" outlineLevel="1">
       <c r="G254" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="255" spans="7:8" hidden="1" outlineLevel="1">
+      <c r="M254" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="255" spans="7:13" hidden="1" outlineLevel="1">
       <c r="G255" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="256" spans="7:8" hidden="1" outlineLevel="1">
+      <c r="M255" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="256" spans="7:13" hidden="1" outlineLevel="1">
       <c r="G256" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="257" spans="6:12" hidden="1" outlineLevel="1">
+      <c r="M256" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="257" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G257" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="258" spans="6:12" collapsed="1">
+      <c r="M257" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="258" spans="6:13" collapsed="1">
       <c r="F258" s="1" t="s">
         <v>53</v>
       </c>
       <c r="I258" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J258" s="2" t="s">
         <v>86</v>
@@ -3929,95 +4475,110 @@
         <v>92</v>
       </c>
       <c r="L258" s="2"/>
-    </row>
-    <row r="259" spans="6:12">
-      <c r="G259" s="16" t="s">
+      <c r="M258" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="259" spans="6:13">
+      <c r="G259" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H259" s="16"/>
       <c r="I259" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="J259" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K259" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="L259" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="J259" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K259" s="3" t="s">
+      <c r="M259" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="260" spans="6:13">
+      <c r="G260" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I260" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="L259" s="2" t="s">
+      <c r="J260" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K260" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="L260" s="2"/>
+      <c r="M260" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="261" spans="6:13">
+      <c r="G261" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I261" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="260" spans="6:12">
-      <c r="G260" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="H260" s="16"/>
-      <c r="I260" s="2" t="s">
+      <c r="J261" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K261" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="L261" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="J260" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K260" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="L260" s="2"/>
-    </row>
-    <row r="261" spans="6:12">
-      <c r="G261" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="H261" s="16"/>
-      <c r="I261" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="J261" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K261" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="L261" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="262" spans="6:12">
+      <c r="M261" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="262" spans="6:13">
       <c r="G262" s="1" t="s">
         <v>77</v>
       </c>
       <c r="I262" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J262" s="2" t="s">
         <v>91</v>
       </c>
       <c r="K262" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L262" s="2"/>
-    </row>
-    <row r="263" spans="6:12">
+      <c r="M262" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="263" spans="6:13">
       <c r="G263" s="1" t="s">
         <v>78</v>
       </c>
       <c r="I263" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J263" s="2" t="s">
         <v>91</v>
       </c>
       <c r="K263" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L263" s="2"/>
-    </row>
-    <row r="264" spans="6:12">
+      <c r="M263" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="264" spans="6:13">
       <c r="G264" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I264" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J264" s="2" t="s">
         <v>91</v>
@@ -4026,13 +4587,16 @@
         <v>92</v>
       </c>
       <c r="L264" s="4"/>
-    </row>
-    <row r="265" spans="6:12">
+      <c r="M264" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="265" spans="6:13">
       <c r="G265" s="1" t="s">
         <v>46</v>
       </c>
       <c r="I265" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J265" s="2" t="s">
         <v>91</v>
@@ -4041,13 +4605,16 @@
         <v>92</v>
       </c>
       <c r="L265" s="4"/>
-    </row>
-    <row r="266" spans="6:12">
+      <c r="M265" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="266" spans="6:13">
       <c r="G266" s="1" t="s">
         <v>47</v>
       </c>
       <c r="I266" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J266" s="2" t="s">
         <v>91</v>
@@ -4056,13 +4623,16 @@
         <v>92</v>
       </c>
       <c r="L266" s="4"/>
-    </row>
-    <row r="267" spans="6:12">
+      <c r="M266" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="267" spans="6:13">
       <c r="G267" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I267" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J267" s="2" t="s">
         <v>91</v>
@@ -4071,13 +4641,16 @@
         <v>92</v>
       </c>
       <c r="L267" s="4"/>
-    </row>
-    <row r="268" spans="6:12">
+      <c r="M267" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="268" spans="6:13">
       <c r="G268" s="1" t="s">
         <v>49</v>
       </c>
       <c r="I268" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J268" s="2" t="s">
         <v>91</v>
@@ -4086,13 +4659,16 @@
         <v>92</v>
       </c>
       <c r="L268" s="4"/>
-    </row>
-    <row r="269" spans="6:12">
+      <c r="M268" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="269" spans="6:13">
       <c r="G269" s="1" t="s">
         <v>50</v>
       </c>
       <c r="I269" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J269" s="2" t="s">
         <v>91</v>
@@ -4101,39 +4677,48 @@
         <v>92</v>
       </c>
       <c r="L269" s="4"/>
-    </row>
-    <row r="270" spans="6:12">
+      <c r="M269" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="270" spans="6:13">
       <c r="G270" s="1" t="s">
         <v>54</v>
       </c>
       <c r="I270" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J270" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K270" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L270" s="9">
         <v>31.5</v>
       </c>
-    </row>
-    <row r="271" spans="6:12">
+      <c r="M270" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="271" spans="6:13">
       <c r="G271" s="1" t="s">
         <v>55</v>
       </c>
       <c r="I271" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J271" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K271" s="3" t="s">
         <v>92</v>
       </c>
       <c r="L271" s="9">
         <v>3.5</v>
+      </c>
+      <c r="M271" s="1" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="273" spans="3:9">
@@ -4146,7 +4731,7 @@
         <v>10</v>
       </c>
       <c r="I274" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="275" spans="3:9" hidden="1" outlineLevel="1">
@@ -4219,153 +4804,168 @@
         <v>22</v>
       </c>
     </row>
-    <row r="289" spans="4:12" hidden="1" outlineLevel="1">
+    <row r="289" spans="4:13" hidden="1" outlineLevel="1">
       <c r="F289" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="290" spans="4:12" hidden="1" outlineLevel="1">
+    <row r="290" spans="4:13" hidden="1" outlineLevel="1">
       <c r="F290" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="291" spans="4:12" hidden="1" outlineLevel="1">
+    <row r="291" spans="4:13" hidden="1" outlineLevel="1">
       <c r="F291" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="292" spans="4:12" hidden="1" outlineLevel="1">
+    <row r="292" spans="4:13" hidden="1" outlineLevel="1">
       <c r="F292" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="293" spans="4:12" hidden="1" outlineLevel="1">
+    <row r="293" spans="4:13" hidden="1" outlineLevel="1">
       <c r="F293" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="294" spans="4:12" hidden="1" outlineLevel="1">
+    <row r="294" spans="4:13" hidden="1" outlineLevel="1">
       <c r="E294" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="295" spans="4:12" hidden="1" outlineLevel="1">
+    <row r="295" spans="4:13" hidden="1" outlineLevel="1">
       <c r="F295" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="296" spans="4:12" hidden="1" outlineLevel="1">
+    <row r="296" spans="4:13" hidden="1" outlineLevel="1">
       <c r="F296" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="297" spans="4:12" collapsed="1">
+    <row r="297" spans="4:13" collapsed="1">
       <c r="D297" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="298" spans="4:12">
+    <row r="298" spans="4:13">
       <c r="E298" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="299" spans="4:12">
+    <row r="299" spans="4:13">
       <c r="F299" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="300" spans="4:12">
+    <row r="300" spans="4:13">
       <c r="G300" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I300" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J300" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K300" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="J300" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K300" s="5" t="s">
+      <c r="L300" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="L300" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="301" spans="4:12">
+      <c r="M300" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="301" spans="4:13">
       <c r="G301" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I301" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J301" s="2" t="s">
         <v>91</v>
       </c>
       <c r="K301" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L301" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="302" spans="4:12">
+        <v>187</v>
+      </c>
+      <c r="M301" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="302" spans="4:13">
       <c r="F302" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="303" spans="4:12">
+    <row r="303" spans="4:13">
       <c r="G303" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I303" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J303" s="2" t="s">
         <v>111</v>
       </c>
       <c r="K303" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L303" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="304" spans="4:12">
+        <v>120</v>
+      </c>
+      <c r="M303" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="304" spans="4:13">
       <c r="G304" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I304" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J304" s="2" t="s">
         <v>111</v>
       </c>
       <c r="K304" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L304" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="305" spans="5:12">
+      <c r="M304" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="305" spans="5:13">
       <c r="F305" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I305" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J305" s="2"/>
       <c r="K305" s="3" t="s">
         <v>92</v>
       </c>
       <c r="L305" s="2"/>
-    </row>
-    <row r="306" spans="5:12">
+      <c r="M305" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="306" spans="5:13">
       <c r="G306" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I306" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J306" s="2" t="s">
         <v>111</v>
@@ -4374,15 +4974,18 @@
         <v>92</v>
       </c>
       <c r="L306" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="307" spans="5:12">
+        <v>124</v>
+      </c>
+      <c r="M306" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="307" spans="5:13">
       <c r="G307" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I307" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J307" s="2" t="s">
         <v>91</v>
@@ -4391,26 +4994,32 @@
         <v>92</v>
       </c>
       <c r="L307" s="2"/>
-    </row>
-    <row r="308" spans="5:12">
+      <c r="M307" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="308" spans="5:13">
       <c r="F308" s="1" t="s">
         <v>36</v>
       </c>
       <c r="I308" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J308" s="2"/>
       <c r="K308" s="3" t="s">
         <v>92</v>
       </c>
       <c r="L308" s="2"/>
-    </row>
-    <row r="309" spans="5:12">
+      <c r="M308" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="309" spans="5:13">
       <c r="G309" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I309" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J309" s="2" t="s">
         <v>111</v>
@@ -4419,15 +5028,18 @@
         <v>92</v>
       </c>
       <c r="L309" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="310" spans="5:12">
+        <v>124</v>
+      </c>
+      <c r="M309" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="310" spans="5:13">
       <c r="G310" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I310" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J310" s="2" t="s">
         <v>91</v>
@@ -4436,74 +5048,86 @@
         <v>92</v>
       </c>
       <c r="L310" s="2"/>
-    </row>
-    <row r="311" spans="5:12">
+      <c r="M310" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="311" spans="5:13">
       <c r="F311" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="312" spans="5:12">
+    <row r="312" spans="5:13">
       <c r="G312" s="1" t="s">
         <v>58</v>
       </c>
       <c r="I312" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J312" s="2" t="s">
         <v>91</v>
       </c>
       <c r="K312" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L312" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="313" spans="5:12">
+        <v>159</v>
+      </c>
+      <c r="M312" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="313" spans="5:13">
       <c r="G313" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I313" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="J313" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="J313" s="16" t="s">
         <v>91</v>
       </c>
       <c r="K313" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L313" s="3">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="314" spans="5:12">
+      <c r="M313" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="314" spans="5:13">
       <c r="F314" s="1" t="s">
         <v>59</v>
       </c>
       <c r="I314" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J314" s="2" t="s">
         <v>91</v>
       </c>
       <c r="K314" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L314" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="315" spans="5:12">
+        <v>192</v>
+      </c>
+      <c r="M314" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="315" spans="5:13">
       <c r="F315" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="316" spans="5:12">
+    <row r="316" spans="5:13">
       <c r="G316" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I316" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J316" s="2" t="s">
         <v>111</v>
@@ -4512,30 +5136,36 @@
         <v>92</v>
       </c>
       <c r="L316" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="317" spans="5:12">
+        <v>128</v>
+      </c>
+      <c r="M316" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="317" spans="5:13">
       <c r="G317" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I317" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J317" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="J317" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="K317" s="3" t="s">
         <v>92</v>
       </c>
       <c r="L317" s="2"/>
-    </row>
-    <row r="318" spans="5:12">
+      <c r="M317" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="318" spans="5:13">
       <c r="F318" s="1" t="s">
         <v>38</v>
       </c>
       <c r="I318" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J318" s="2" t="s">
         <v>91</v>
@@ -4544,20 +5174,23 @@
         <v>92</v>
       </c>
       <c r="L318" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="319" spans="5:12">
+        <v>191</v>
+      </c>
+      <c r="M318" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="319" spans="5:13">
       <c r="E319" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="320" spans="5:12">
+    <row r="320" spans="5:13">
       <c r="F320" s="1" t="s">
         <v>40</v>
       </c>
       <c r="I320" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J320" s="2" t="s">
         <v>86</v>
@@ -4566,13 +5199,16 @@
         <v>92</v>
       </c>
       <c r="L320" s="2"/>
-    </row>
-    <row r="321" spans="7:12">
+      <c r="M320" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="321" spans="7:13">
       <c r="G321" s="1" t="s">
         <v>41</v>
       </c>
       <c r="I321" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J321" s="2" t="s">
         <v>91</v>
@@ -4583,13 +5219,16 @@
       <c r="L321" s="6">
         <v>-3</v>
       </c>
-    </row>
-    <row r="322" spans="7:12">
+      <c r="M321" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="322" spans="7:13">
       <c r="G322" s="1" t="s">
         <v>42</v>
       </c>
       <c r="I322" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J322" s="2" t="s">
         <v>91</v>
@@ -4600,13 +5239,16 @@
       <c r="L322" s="6">
         <v>-1</v>
       </c>
-    </row>
-    <row r="323" spans="7:12">
+      <c r="M322" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="323" spans="7:13">
       <c r="G323" s="1" t="s">
         <v>43</v>
       </c>
       <c r="I323" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J323" s="2" t="s">
         <v>111</v>
@@ -4617,165 +5259,192 @@
       <c r="L323" s="4">
         <v>180</v>
       </c>
-    </row>
-    <row r="324" spans="7:12">
+      <c r="M323" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="324" spans="7:13">
       <c r="G324" s="1" t="s">
         <v>61</v>
       </c>
       <c r="I324" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J324" s="2" t="s">
         <v>91</v>
       </c>
       <c r="K324" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L324" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="325" spans="7:12">
+      <c r="M324" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="325" spans="7:13">
       <c r="G325" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I325" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J325" s="2" t="s">
         <v>91</v>
       </c>
       <c r="K325" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L325" s="6">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="326" spans="7:12">
+      <c r="M325" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="326" spans="7:13">
       <c r="G326" s="1" t="s">
         <v>63</v>
       </c>
       <c r="I326" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J326" s="2" t="s">
         <v>91</v>
       </c>
       <c r="K326" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L326" s="6">
         <v>-2</v>
       </c>
-    </row>
-    <row r="327" spans="7:12">
+      <c r="M326" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="327" spans="7:13">
       <c r="G327" s="1" t="s">
         <v>64</v>
       </c>
       <c r="I327" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J327" s="2" t="s">
         <v>91</v>
       </c>
       <c r="K327" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L327" s="6">
         <v>-1.5</v>
       </c>
-    </row>
-    <row r="328" spans="7:12">
+      <c r="M327" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="328" spans="7:13">
       <c r="G328" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="I328" s="14"/>
       <c r="J328" s="14"/>
       <c r="K328" s="15"/>
       <c r="L328" s="15"/>
     </row>
-    <row r="329" spans="7:12">
+    <row r="329" spans="7:13">
       <c r="H329" s="1" t="s">
         <v>68</v>
       </c>
       <c r="I329" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="J329" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="J329" s="16" t="s">
         <v>91</v>
       </c>
       <c r="K329" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L329" s="6">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="330" spans="7:12">
+      <c r="M329" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="330" spans="7:13">
       <c r="H330" s="1" t="s">
         <v>69</v>
       </c>
       <c r="I330" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="J330" s="8"/>
       <c r="K330" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L330" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="331" spans="7:12">
+        <v>196</v>
+      </c>
+      <c r="M330" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="331" spans="7:13">
       <c r="G331" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="I331" s="14"/>
       <c r="J331" s="14"/>
       <c r="K331" s="15"/>
       <c r="L331" s="15"/>
     </row>
-    <row r="332" spans="7:12">
+    <row r="332" spans="7:13">
       <c r="H332" s="1" t="s">
         <v>68</v>
       </c>
       <c r="I332" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="J332" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="J332" s="16" t="s">
         <v>91</v>
       </c>
       <c r="K332" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L332" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="333" spans="7:12">
+      <c r="M332" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="333" spans="7:13">
       <c r="H333" s="1" t="s">
         <v>69</v>
       </c>
       <c r="I333" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="J333" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="J333" s="16" t="s">
         <v>91</v>
       </c>
       <c r="K333" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L333" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="334" spans="7:12">
+        <v>190</v>
+      </c>
+      <c r="M333" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="334" spans="7:13">
       <c r="G334" s="1" t="s">
         <v>44</v>
       </c>
       <c r="I334" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J334" s="2" t="s">
         <v>91</v>
@@ -4786,13 +5455,16 @@
       <c r="L334" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="335" spans="7:12">
+      <c r="M334" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="335" spans="7:13">
       <c r="G335" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I335" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J335" s="2" t="s">
         <v>91</v>
@@ -4801,13 +5473,16 @@
         <v>92</v>
       </c>
       <c r="L335" s="4"/>
-    </row>
-    <row r="336" spans="7:12">
+      <c r="M335" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="336" spans="7:13">
       <c r="G336" s="1" t="s">
         <v>46</v>
       </c>
       <c r="I336" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J336" s="2" t="s">
         <v>91</v>
@@ -4816,13 +5491,16 @@
         <v>92</v>
       </c>
       <c r="L336" s="4"/>
-    </row>
-    <row r="337" spans="6:12">
+      <c r="M336" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="337" spans="6:13">
       <c r="G337" s="1" t="s">
         <v>47</v>
       </c>
       <c r="I337" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J337" s="2" t="s">
         <v>91</v>
@@ -4831,13 +5509,16 @@
         <v>92</v>
       </c>
       <c r="L337" s="4"/>
-    </row>
-    <row r="338" spans="6:12">
+      <c r="M337" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="338" spans="6:13">
       <c r="G338" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I338" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J338" s="2" t="s">
         <v>91</v>
@@ -4846,13 +5527,16 @@
         <v>92</v>
       </c>
       <c r="L338" s="4"/>
-    </row>
-    <row r="339" spans="6:12">
+      <c r="M338" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="339" spans="6:13">
       <c r="G339" s="1" t="s">
         <v>49</v>
       </c>
       <c r="I339" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J339" s="2" t="s">
         <v>91</v>
@@ -4861,13 +5545,16 @@
         <v>92</v>
       </c>
       <c r="L339" s="4"/>
-    </row>
-    <row r="340" spans="6:12">
+      <c r="M339" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="340" spans="6:13">
       <c r="G340" s="1" t="s">
         <v>50</v>
       </c>
       <c r="I340" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J340" s="2" t="s">
         <v>91</v>
@@ -4876,30 +5563,36 @@
         <v>92</v>
       </c>
       <c r="L340" s="4"/>
-    </row>
-    <row r="341" spans="6:12">
+      <c r="M340" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="341" spans="6:13">
       <c r="G341" s="1" t="s">
         <v>54</v>
       </c>
       <c r="I341" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J341" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="J341" s="8" t="s">
-        <v>146</v>
-      </c>
       <c r="K341" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L341" s="9">
         <v>31.5</v>
       </c>
-    </row>
-    <row r="342" spans="6:12">
+      <c r="M341" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="342" spans="6:13">
       <c r="F342" s="1" t="s">
         <v>52</v>
       </c>
       <c r="I342" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J342" s="2" t="s">
         <v>86</v>
@@ -4908,128 +5601,200 @@
         <v>92</v>
       </c>
       <c r="L342" s="2"/>
-    </row>
-    <row r="343" spans="6:12" hidden="1" outlineLevel="1">
+      <c r="M342" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="343" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G343" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="344" spans="6:12" hidden="1" outlineLevel="1">
+      <c r="M343" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="344" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G344" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="345" spans="6:12" hidden="1" outlineLevel="1">
+      <c r="M344" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="345" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G345" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="346" spans="6:12" hidden="1" outlineLevel="1">
+      <c r="M345" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="346" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G346" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="347" spans="6:12" hidden="1" outlineLevel="1">
+      <c r="M346" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="347" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G347" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="348" spans="6:12" hidden="1" outlineLevel="1">
+      <c r="M347" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="348" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G348" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="349" spans="6:12" hidden="1" outlineLevel="1">
+      <c r="M348" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="349" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G349" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="350" spans="6:12" hidden="1" outlineLevel="1">
+      <c r="M349" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="350" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G350" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="351" spans="6:12" hidden="1" outlineLevel="1">
+      <c r="M350" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="351" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G351" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="352" spans="6:12" hidden="1" outlineLevel="1">
+      <c r="M351" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="352" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G352" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="353" spans="6:12" hidden="1" outlineLevel="1">
+      <c r="M352" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="353" spans="6:13" hidden="1" outlineLevel="1">
       <c r="H353" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="354" spans="6:12" hidden="1" outlineLevel="1">
+      <c r="M353" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="354" spans="6:13" hidden="1" outlineLevel="1">
       <c r="H354" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="355" spans="6:12" hidden="1" outlineLevel="1">
+      <c r="M354" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="355" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G355" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="356" spans="6:12" hidden="1" outlineLevel="1">
+      <c r="M355" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="356" spans="6:13" hidden="1" outlineLevel="1">
       <c r="H356" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="357" spans="6:12" hidden="1" outlineLevel="1">
+      <c r="M356" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="357" spans="6:13" hidden="1" outlineLevel="1">
       <c r="H357" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="358" spans="6:12" hidden="1" outlineLevel="1">
+      <c r="M357" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="358" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G358" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="359" spans="6:12" hidden="1" outlineLevel="1">
+      <c r="M358" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="359" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G359" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="360" spans="6:12" hidden="1" outlineLevel="1">
+      <c r="M359" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="360" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G360" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="361" spans="6:12" hidden="1" outlineLevel="1">
+      <c r="M360" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="361" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G361" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="362" spans="6:12" hidden="1" outlineLevel="1">
+      <c r="M361" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="362" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G362" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="363" spans="6:12" hidden="1" outlineLevel="1">
+      <c r="M362" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="363" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G363" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="364" spans="6:12" hidden="1" outlineLevel="1">
+      <c r="M363" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="364" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G364" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="365" spans="6:12" hidden="1" outlineLevel="1">
+      <c r="M364" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="365" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G365" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="366" spans="6:12" collapsed="1">
+      <c r="M365" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="366" spans="6:13" collapsed="1">
       <c r="F366" s="1" t="s">
         <v>53</v>
       </c>
       <c r="I366" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J366" s="2" t="s">
         <v>86</v>
@@ -5038,159 +5803,192 @@
         <v>92</v>
       </c>
       <c r="L366" s="2"/>
-    </row>
-    <row r="367" spans="6:12">
+      <c r="M366" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="367" spans="6:13">
       <c r="G367" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I367" s="2"/>
       <c r="J367" s="2"/>
       <c r="K367" s="3"/>
       <c r="L367" s="2"/>
-    </row>
-    <row r="368" spans="6:12">
+      <c r="M367" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="368" spans="6:13">
       <c r="H368" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="I368" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="J368" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K368" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="L368" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="J368" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K368" s="3" t="s">
+      <c r="M368" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="369" spans="7:13">
+      <c r="H369" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I369" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="L368" s="2" t="s">
+      <c r="J369" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K369" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="L369" s="2"/>
+      <c r="M369" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="370" spans="7:13">
+      <c r="H370" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I370" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="369" spans="7:12">
-      <c r="H369" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="I369" s="2" t="s">
+      <c r="J370" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K370" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="L370" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="J369" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K369" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="L369" s="2"/>
-    </row>
-    <row r="370" spans="7:12">
-      <c r="H370" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="I370" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="J370" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K370" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="L370" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="371" spans="7:12">
+      <c r="M370" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="371" spans="7:13">
       <c r="G371" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I371" s="2"/>
       <c r="J371" s="2"/>
       <c r="K371" s="3"/>
       <c r="L371" s="2"/>
-    </row>
-    <row r="372" spans="7:12">
+      <c r="M371" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="372" spans="7:13">
       <c r="H372" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="I372" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="J372" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K372" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="L372" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="J372" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K372" s="3" t="s">
+      <c r="M372" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="373" spans="7:13">
+      <c r="H373" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I373" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="L372" s="2" t="s">
+      <c r="J373" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K373" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="L373" s="2"/>
+      <c r="M373" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="374" spans="7:13">
+      <c r="H374" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I374" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="373" spans="7:12">
-      <c r="H373" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="I373" s="2" t="s">
+      <c r="J374" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K374" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="L374" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="J373" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K373" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="L373" s="2"/>
-    </row>
-    <row r="374" spans="7:12">
-      <c r="H374" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="I374" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="J374" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K374" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="L374" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="375" spans="7:12">
+      <c r="M374" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="375" spans="7:13">
       <c r="G375" s="1" t="s">
         <v>77</v>
       </c>
       <c r="I375" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J375" s="2" t="s">
         <v>91</v>
       </c>
       <c r="K375" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L375" s="2"/>
-    </row>
-    <row r="376" spans="7:12">
+      <c r="M375" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="376" spans="7:13">
       <c r="G376" s="1" t="s">
         <v>78</v>
       </c>
       <c r="I376" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J376" s="2" t="s">
         <v>91</v>
       </c>
       <c r="K376" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L376" s="2"/>
-    </row>
-    <row r="377" spans="7:12">
+      <c r="M376" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="377" spans="7:13">
       <c r="G377" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I377" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J377" s="2" t="s">
         <v>91</v>
@@ -5199,13 +5997,16 @@
         <v>92</v>
       </c>
       <c r="L377" s="4"/>
-    </row>
-    <row r="378" spans="7:12">
+      <c r="M377" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="378" spans="7:13">
       <c r="G378" s="1" t="s">
         <v>46</v>
       </c>
       <c r="I378" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J378" s="2" t="s">
         <v>91</v>
@@ -5214,13 +6015,16 @@
         <v>92</v>
       </c>
       <c r="L378" s="4"/>
-    </row>
-    <row r="379" spans="7:12">
+      <c r="M378" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="379" spans="7:13">
       <c r="G379" s="1" t="s">
         <v>47</v>
       </c>
       <c r="I379" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J379" s="2" t="s">
         <v>91</v>
@@ -5229,13 +6033,16 @@
         <v>92</v>
       </c>
       <c r="L379" s="4"/>
-    </row>
-    <row r="380" spans="7:12">
+      <c r="M379" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="380" spans="7:13">
       <c r="G380" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I380" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J380" s="2" t="s">
         <v>91</v>
@@ -5244,13 +6051,16 @@
         <v>92</v>
       </c>
       <c r="L380" s="4"/>
-    </row>
-    <row r="381" spans="7:12">
+      <c r="M380" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="381" spans="7:13">
       <c r="G381" s="1" t="s">
         <v>49</v>
       </c>
       <c r="I381" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J381" s="2" t="s">
         <v>91</v>
@@ -5259,13 +6069,16 @@
         <v>92</v>
       </c>
       <c r="L381" s="4"/>
-    </row>
-    <row r="382" spans="7:12">
+      <c r="M381" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="382" spans="7:13">
       <c r="G382" s="1" t="s">
         <v>50</v>
       </c>
       <c r="I382" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J382" s="2" t="s">
         <v>91</v>
@@ -5274,33 +6087,39 @@
         <v>92</v>
       </c>
       <c r="L382" s="4"/>
-    </row>
-    <row r="383" spans="7:12">
+      <c r="M382" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="383" spans="7:13">
       <c r="G383" s="1" t="s">
         <v>54</v>
       </c>
       <c r="I383" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J383" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K383" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L383" s="9">
         <v>31.5</v>
       </c>
-    </row>
-    <row r="384" spans="7:12">
+      <c r="M383" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="384" spans="7:13">
       <c r="G384" s="1" t="s">
         <v>55</v>
       </c>
       <c r="I384" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J384" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K384" s="3" t="s">
         <v>92</v>
@@ -5308,11 +6127,15 @@
       <c r="L384" s="9">
         <v>3.5</v>
       </c>
+      <c r="M384" s="1" t="s">
+        <v>202</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="P4:R4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Documentation.xlsx
+++ b/Documentation.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinzimmermann/nexio/3_R&amp;D/Projet Haag-Streit Phoroptère/GitHub/refractive-JSON/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E26EA1A-5731-D84D-8AFF-9DDA7C995BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA24ADB3-7496-3B48-9835-A43BD5C02FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26880" xr2:uid="{97470A89-5A9D-474B-83A0-7CF02DF1D5C9}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17460" xr2:uid="{97470A89-5A9D-474B-83A0-7CF02DF1D5C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="224">
   <si>
     <t>{</t>
   </si>
@@ -786,6 +786,12 @@
   </si>
   <si>
     <t>30.5</t>
+  </si>
+  <si>
+    <t>35.0</t>
+  </si>
+  <si>
+    <t>2.0</t>
   </si>
 </sst>
 </file>
@@ -889,7 +895,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -927,14 +933,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1252,8 +1257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35CFF79E-0D8B-AF4F-8800-07737C044728}">
   <dimension ref="A1:R384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="139" workbookViewId="0">
-      <selection activeCell="L81" sqref="L81"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="139" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1"/>
@@ -1269,32 +1274,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="17" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1315,11 +1320,11 @@
       <c r="O4" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="P4" s="17" t="s">
+      <c r="P4" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
     </row>
     <row r="5" spans="1:18">
       <c r="C5" s="1" t="s">
@@ -1427,7 +1432,7 @@
       <c r="M10" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="N10" s="19" t="s">
+      <c r="N10" s="18" t="s">
         <v>208</v>
       </c>
     </row>
@@ -1801,7 +1806,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="33" spans="4:14">
+    <row r="33" spans="4:13">
       <c r="F33" s="1" t="s">
         <v>27</v>
       </c>
@@ -1821,7 +1826,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="34" spans="4:14">
+    <row r="34" spans="4:13">
       <c r="E34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1837,7 +1842,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="35" spans="4:14">
+    <row r="35" spans="4:13">
       <c r="F35" s="1" t="s">
         <v>20</v>
       </c>
@@ -1857,7 +1862,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="36" spans="4:14">
+    <row r="36" spans="4:13">
       <c r="F36" s="1" t="s">
         <v>29</v>
       </c>
@@ -1877,22 +1882,22 @@
         <v>203</v>
       </c>
     </row>
-    <row r="37" spans="4:14">
+    <row r="37" spans="4:13">
       <c r="D37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="4:14">
+    <row r="38" spans="4:13">
       <c r="E38" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="4:14">
+    <row r="39" spans="4:13">
       <c r="F39" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="4:14">
+    <row r="40" spans="4:13">
       <c r="G40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1912,7 +1917,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="41" spans="4:14">
+    <row r="41" spans="4:13">
       <c r="G41" s="1" t="s">
         <v>33</v>
       </c>
@@ -1932,12 +1937,12 @@
         <v>203</v>
       </c>
     </row>
-    <row r="42" spans="4:14">
+    <row r="42" spans="4:13">
       <c r="F42" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="4:14">
+    <row r="43" spans="4:13">
       <c r="G43" s="1" t="s">
         <v>32</v>
       </c>
@@ -1957,7 +1962,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="44" spans="4:14">
+    <row r="44" spans="4:13">
       <c r="G44" s="1" t="s">
         <v>33</v>
       </c>
@@ -1977,7 +1982,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="45" spans="4:14">
+    <row r="45" spans="4:13">
       <c r="F45" s="1" t="s">
         <v>35</v>
       </c>
@@ -1993,7 +1998,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="46" spans="4:14">
+    <row r="46" spans="4:13">
       <c r="G46" s="1" t="s">
         <v>32</v>
       </c>
@@ -2012,9 +2017,8 @@
       <c r="M46" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="N46" s="20"/>
-    </row>
-    <row r="47" spans="4:14">
+    </row>
+    <row r="47" spans="4:13">
       <c r="G47" s="1" t="s">
         <v>33</v>
       </c>
@@ -2031,9 +2035,8 @@
       <c r="M47" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="N47" s="20"/>
-    </row>
-    <row r="48" spans="4:14">
+    </row>
+    <row r="48" spans="4:13">
       <c r="F48" s="1" t="s">
         <v>36</v>
       </c>
@@ -2048,9 +2051,8 @@
       <c r="M48" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="N48" s="20"/>
-    </row>
-    <row r="49" spans="5:14">
+    </row>
+    <row r="49" spans="5:13">
       <c r="G49" s="1" t="s">
         <v>32</v>
       </c>
@@ -2069,9 +2071,8 @@
       <c r="M49" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="N49" s="20"/>
-    </row>
-    <row r="50" spans="5:14">
+    </row>
+    <row r="50" spans="5:13">
       <c r="G50" s="1" t="s">
         <v>33</v>
       </c>
@@ -2089,12 +2090,12 @@
         <v>203</v>
       </c>
     </row>
-    <row r="51" spans="5:14">
+    <row r="51" spans="5:13">
       <c r="F51" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="5:14">
+    <row r="52" spans="5:13">
       <c r="G52" s="1" t="s">
         <v>32</v>
       </c>
@@ -2114,7 +2115,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="53" spans="5:14">
+    <row r="53" spans="5:13">
       <c r="G53" s="1" t="s">
         <v>33</v>
       </c>
@@ -2132,7 +2133,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="54" spans="5:14">
+    <row r="54" spans="5:13">
       <c r="F54" s="1" t="s">
         <v>38</v>
       </c>
@@ -2152,12 +2153,12 @@
         <v>203</v>
       </c>
     </row>
-    <row r="55" spans="5:14">
+    <row r="55" spans="5:13">
       <c r="E55" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="5:14">
+    <row r="56" spans="5:13">
       <c r="F56" s="1" t="s">
         <v>40</v>
       </c>
@@ -2175,7 +2176,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="57" spans="5:14">
+    <row r="57" spans="5:13">
       <c r="G57" s="1" t="s">
         <v>41</v>
       </c>
@@ -2195,7 +2196,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="58" spans="5:14">
+    <row r="58" spans="5:13">
       <c r="G58" s="1" t="s">
         <v>42</v>
       </c>
@@ -2215,7 +2216,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="59" spans="5:14">
+    <row r="59" spans="5:13">
       <c r="G59" s="1" t="s">
         <v>43</v>
       </c>
@@ -2235,7 +2236,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="60" spans="5:14">
+    <row r="60" spans="5:13">
       <c r="G60" s="1" t="s">
         <v>44</v>
       </c>
@@ -2255,7 +2256,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="61" spans="5:14">
+    <row r="61" spans="5:13">
       <c r="G61" s="1" t="s">
         <v>45</v>
       </c>
@@ -2273,7 +2274,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="62" spans="5:14">
+    <row r="62" spans="5:13">
       <c r="G62" s="1" t="s">
         <v>46</v>
       </c>
@@ -2291,7 +2292,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="63" spans="5:14">
+    <row r="63" spans="5:13">
       <c r="G63" s="1" t="s">
         <v>47</v>
       </c>
@@ -2309,7 +2310,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="64" spans="5:14">
+    <row r="64" spans="5:13">
       <c r="G64" s="1" t="s">
         <v>48</v>
       </c>
@@ -2376,7 +2377,7 @@
       <c r="K67" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="L67" s="21" t="s">
+      <c r="L67" s="19" t="s">
         <v>221</v>
       </c>
       <c r="M67" s="1" t="s">
@@ -2633,14 +2634,14 @@
       <c r="I87" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="J87" s="8" t="s">
-        <v>145</v>
+      <c r="J87" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="K87" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="L87" s="9">
-        <v>31.5</v>
+      <c r="L87" s="19" t="s">
+        <v>222</v>
       </c>
       <c r="M87" s="1" t="s">
         <v>203</v>
@@ -2653,14 +2654,14 @@
       <c r="I88" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J88" s="8" t="s">
-        <v>145</v>
+      <c r="J88" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="K88" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="L88" s="9">
-        <v>3.5</v>
+      <c r="L88" s="19" t="s">
+        <v>223</v>
       </c>
       <c r="M88" s="1" t="s">
         <v>203</v>

--- a/Documentation.xlsx
+++ b/Documentation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinzimmermann/nexio/3_R&amp;D/Projet Haag-Streit Phoroptère/GitHub/refractive-JSON/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA24ADB3-7496-3B48-9835-A43BD5C02FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45E5F01-3241-4048-911A-854BCA2D09C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17460" xr2:uid="{97470A89-5A9D-474B-83A0-7CF02DF1D5C9}"/>
+    <workbookView xWindow="15120" yWindow="760" windowWidth="15120" windowHeight="17460" xr2:uid="{97470A89-5A9D-474B-83A0-7CF02DF1D5C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -1257,8 +1257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35CFF79E-0D8B-AF4F-8800-07737C044728}">
   <dimension ref="A1:R384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="139" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView tabSelected="1" topLeftCell="I35" zoomScale="139" workbookViewId="0">
+      <selection activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1"/>
@@ -1925,7 +1925,7 @@
         <v>118</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>210</v>
+        <v>20</v>
       </c>
       <c r="K41" s="5" t="s">
         <v>116</v>
@@ -2147,7 +2147,7 @@
         <v>92</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>132</v>
+        <v>191</v>
       </c>
       <c r="M54" s="1" t="s">
         <v>203</v>

--- a/Documentation.xlsx
+++ b/Documentation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinzimmermann/nexio/3_R&amp;D/Projet Haag-Streit Phoroptère/GitHub/refractive-JSON/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45E5F01-3241-4048-911A-854BCA2D09C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC513B5B-8A4F-9E4A-8766-9B6E285CB214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15120" yWindow="760" windowWidth="15120" windowHeight="17460" xr2:uid="{97470A89-5A9D-474B-83A0-7CF02DF1D5C9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26880" xr2:uid="{97470A89-5A9D-474B-83A0-7CF02DF1D5C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="229">
   <si>
     <t>{</t>
   </si>
@@ -256,15 +256,6 @@
     <t>RT:{</t>
   </si>
   <si>
-    <t>blurPointDivergence</t>
-  </si>
-  <si>
-    <t>breakPointDivergence</t>
-  </si>
-  <si>
-    <t>recoveryPointDivergence</t>
-  </si>
-  <si>
     <t>CO:{</t>
   </si>
   <si>
@@ -370,9 +361,6 @@
     <t>Patient’s age</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
     <t>Serial number</t>
   </si>
   <si>
@@ -380,9 +368,6 @@
   </si>
   <si>
     <t>Operator ID</t>
-  </si>
-  <si>
-    <t>diopter unit</t>
   </si>
   <si>
     <r>
@@ -402,9 +387,6 @@
     <t>Diopter unit increment</t>
   </si>
   <si>
-    <t xml:space="preserve">Cylinder axis unit </t>
-  </si>
-  <si>
     <t>deg</t>
   </si>
   <si>
@@ -417,31 +399,19 @@
     <t>Working distance unitl</t>
   </si>
   <si>
-    <t>mm / cm / m</t>
-  </si>
-  <si>
     <t>Working distance</t>
   </si>
   <si>
     <t>Working distance (ADD2)</t>
   </si>
   <si>
-    <t>Vertex distance unit</t>
-  </si>
-  <si>
     <t>mm</t>
   </si>
   <si>
     <t>Vertex distance value</t>
   </si>
   <si>
-    <t>double</t>
-  </si>
-  <si>
     <t>Visual acuity</t>
-  </si>
-  <si>
-    <t>Snellen, Logarithmisch, Dezimal</t>
   </si>
   <si>
     <t>Right-eye measurement value</t>
@@ -585,9 +555,6 @@
   </si>
   <si>
     <t>Vertical prism power ( △ )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spherical equivalent value </t>
   </si>
   <si>
     <r>
@@ -683,9 +650,6 @@
     <t>Positive Relative Accommodation</t>
   </si>
   <si>
-    <t>0.5 / 0.25 / 0.125</t>
-  </si>
-  <si>
     <t>Json entry point</t>
   </si>
   <si>
@@ -728,27 +692,12 @@
     <t>convergence:{</t>
   </si>
   <si>
-    <t>wild</t>
-  </si>
-  <si>
-    <t>nexio</t>
-  </si>
-  <si>
-    <t>nexio/wild</t>
-  </si>
-  <si>
     <t>null, com1, api, mqtt, nfc, lora,…</t>
   </si>
   <si>
-    <t>Qui</t>
-  </si>
-  <si>
     <t>hostName</t>
   </si>
   <si>
-    <t>defines the output path of the json, if value overwrites phorotpre settings</t>
-  </si>
-  <si>
     <t>RS-232 / SMB-TXT / SMB-XML /EMR ..</t>
   </si>
   <si>
@@ -770,9 +719,6 @@
     <t>Cylinder axis unit (fixed value)</t>
   </si>
   <si>
-    <t>mm / cm / m /</t>
-  </si>
-  <si>
     <t>-3.00 /null</t>
   </si>
   <si>
@@ -788,10 +734,79 @@
     <t>30.5</t>
   </si>
   <si>
-    <t>35.0</t>
-  </si>
-  <si>
     <t>2.0</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Defines the output path of the json,if data is provided in a transmitted json (LM, AR, CO) it will be overwritten  the phoropter settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixed value (JSON is always in dioptres) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixed value (JSON is always in degree) </t>
+  </si>
+  <si>
+    <t>mm / cm / m / Feet/…</t>
+  </si>
+  <si>
+    <t>mm / cm / m / Feet /…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixed value (JSON is always in mm) </t>
+  </si>
+  <si>
+    <t>Values always in mm</t>
+  </si>
+  <si>
+    <t>Pupillary distance right in mm</t>
+  </si>
+  <si>
+    <t>Pupillary distance total in mm</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thank you for characterising this value and its unit </t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>1.50</t>
+  </si>
+  <si>
+    <t>-2.00</t>
+  </si>
+  <si>
+    <t>-1.50</t>
+  </si>
+  <si>
+    <t>0.50</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>We are waiting for the return of Haag-Streit in order to clearly define which units and measurement methods the phoropter must be able to receive and transmit</t>
+  </si>
+  <si>
+    <t>31.5</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>Vertex distance unit (fixed value)</t>
   </si>
 </sst>
 </file>
@@ -830,7 +845,7 @@
       <family val="4"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -861,14 +876,8 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -889,6 +898,15 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -915,9 +933,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -934,12 +949,17 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1255,10 +1275,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35CFF79E-0D8B-AF4F-8800-07737C044728}">
-  <dimension ref="A1:R384"/>
+  <dimension ref="A1:Q389"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I35" zoomScale="139" workbookViewId="0">
-      <selection activeCell="L55" sqref="L55"/>
+    <sheetView tabSelected="1" topLeftCell="A306" zoomScale="139" workbookViewId="0">
+      <selection activeCell="M329" sqref="M329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1"/>
@@ -1268,542 +1288,469 @@
     <col min="9" max="9" width="39.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="28.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" style="1"/>
-    <col min="14" max="14" width="34.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="10.83203125" style="1"/>
+    <col min="13" max="13" width="61.6640625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:17">
+      <c r="A1" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17" t="s">
+      <c r="L1" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="N1" s="17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="M1" s="16" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:17">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O4" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="P4" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="N4" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+    </row>
+    <row r="5" spans="1:17">
       <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>204</v>
+        <v>84</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="P5" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-    </row>
-    <row r="6" spans="1:18">
+        <v>141</v>
+      </c>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+    </row>
+    <row r="6" spans="1:17">
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>204</v>
+        <v>84</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="P6" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-    </row>
-    <row r="7" spans="1:18">
+        <v>142</v>
+      </c>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+    </row>
+    <row r="7" spans="1:17">
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="34">
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="N10" s="18" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>190</v>
+      </c>
+      <c r="M10" s="20" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:17">
       <c r="C12" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:17">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:17">
       <c r="D14" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:17">
       <c r="E15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="J15" s="2" t="s">
+    </row>
+    <row r="16" spans="1:17">
+      <c r="E16" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="J16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L16" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="E16" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="17" spans="5:13">
+    </row>
+    <row r="17" spans="5:12">
       <c r="E17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="18" spans="5:13">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="5:12">
       <c r="E18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L18" s="3"/>
-      <c r="M18" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="19" spans="5:13">
+    </row>
+    <row r="19" spans="5:12">
       <c r="E19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L19" s="3"/>
-      <c r="M19" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="20" spans="5:13">
+    </row>
+    <row r="20" spans="5:12">
       <c r="E20" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L20" s="3"/>
-      <c r="M20" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="21" spans="5:13">
+    </row>
+    <row r="21" spans="5:12">
       <c r="E21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L21" s="3"/>
-      <c r="M21" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="22" spans="5:13">
+    </row>
+    <row r="22" spans="5:12">
       <c r="E22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="L22" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="23" spans="5:13">
+        <v>84</v>
+      </c>
+      <c r="L22" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="5:12">
       <c r="E23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="L23" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="24" spans="5:13">
+        <v>84</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="5:12">
       <c r="E24" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="25" spans="5:13">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="25" spans="5:12">
       <c r="E25" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L25" s="3"/>
-      <c r="M25" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="26" spans="5:13">
+    </row>
+    <row r="26" spans="5:12">
       <c r="F26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L26" s="3">
         <v>123456789</v>
       </c>
-      <c r="M26" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="27" spans="5:13">
+    </row>
+    <row r="27" spans="5:12">
       <c r="F27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="28" spans="5:13">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="28" spans="5:12">
       <c r="F28" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="29" spans="5:13">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="5:12">
       <c r="F29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="30" spans="5:13">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="5:12">
       <c r="F30" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="31" spans="5:13">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="5:12">
       <c r="F31" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="32" spans="5:13">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="32" spans="5:12">
       <c r="F32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L32" s="3">
         <v>40</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="33" spans="4:13">
@@ -1811,19 +1758,16 @@
         <v>27</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="L33" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>203</v>
+        <v>89</v>
+      </c>
+      <c r="L33" s="12" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="4:13">
@@ -1831,35 +1775,29 @@
         <v>28</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L34" s="2"/>
-      <c r="M34" s="1" t="s">
-        <v>203</v>
-      </c>
     </row>
     <row r="35" spans="4:13">
       <c r="F35" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L35" s="3">
         <v>123456789</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="36" spans="4:13">
@@ -1867,19 +1805,16 @@
         <v>29</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="4:13">
@@ -1902,19 +1837,19 @@
         <v>32</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="41" spans="4:13">
@@ -1922,19 +1857,16 @@
         <v>33</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="42" spans="4:13">
@@ -1947,19 +1879,19 @@
         <v>32</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K43" s="5" t="s">
-        <v>116</v>
+        <v>88</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="44" spans="4:13">
@@ -1967,19 +1899,16 @@
         <v>33</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L44" s="3">
         <v>1</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="45" spans="4:13">
@@ -1987,35 +1916,29 @@
         <v>35</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="J45" s="2"/>
       <c r="K45" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L45" s="2"/>
-      <c r="M45" s="1" t="s">
-        <v>203</v>
-      </c>
     </row>
     <row r="46" spans="4:13">
       <c r="G46" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="47" spans="4:13">
@@ -2023,53 +1946,44 @@
         <v>33</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L47" s="2"/>
-      <c r="M47" s="1" t="s">
-        <v>203</v>
-      </c>
     </row>
     <row r="48" spans="4:13">
       <c r="F48" s="1" t="s">
         <v>36</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="J48" s="2"/>
       <c r="K48" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L48" s="2"/>
-      <c r="M48" s="1" t="s">
-        <v>203</v>
-      </c>
     </row>
     <row r="49" spans="5:13">
       <c r="G49" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="50" spans="5:13">
@@ -2077,18 +1991,15 @@
         <v>33</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L50" s="2"/>
-      <c r="M50" s="1" t="s">
-        <v>203</v>
-      </c>
     </row>
     <row r="51" spans="5:13">
       <c r="F51" s="1" t="s">
@@ -2100,19 +2011,19 @@
         <v>32</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>127</v>
+        <v>228</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="53" spans="5:13">
@@ -2120,37 +2031,31 @@
         <v>33</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L53" s="2"/>
-      <c r="M53" s="1" t="s">
-        <v>203</v>
-      </c>
     </row>
     <row r="54" spans="5:13">
       <c r="F54" s="1" t="s">
         <v>38</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
     </row>
     <row r="55" spans="5:13">
@@ -2163,37 +2068,31 @@
         <v>40</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L56" s="2"/>
-      <c r="M56" s="1" t="s">
-        <v>203</v>
-      </c>
     </row>
     <row r="57" spans="5:13">
       <c r="G57" s="1" t="s">
         <v>41</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="L57" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>203</v>
+        <v>89</v>
+      </c>
+      <c r="L57" s="12" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="58" spans="5:13">
@@ -2201,19 +2100,16 @@
         <v>42</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="L58" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>203</v>
+        <v>89</v>
+      </c>
+      <c r="L58" s="12" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="59" spans="5:13">
@@ -2221,19 +2117,16 @@
         <v>43</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="L59" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>203</v>
+        <v>89</v>
+      </c>
+      <c r="L59" s="12" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="60" spans="5:13">
@@ -2241,19 +2134,16 @@
         <v>44</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L60" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="M60" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="61" spans="5:13">
@@ -2261,127 +2151,109 @@
         <v>45</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L61" s="4"/>
-      <c r="M61" s="1" t="s">
-        <v>203</v>
-      </c>
     </row>
     <row r="62" spans="5:13">
       <c r="G62" s="1" t="s">
         <v>46</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L62" s="4"/>
-      <c r="M62" s="1" t="s">
-        <v>203</v>
-      </c>
     </row>
     <row r="63" spans="5:13">
       <c r="G63" s="1" t="s">
         <v>47</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L63" s="4"/>
-      <c r="M63" s="1" t="s">
-        <v>203</v>
-      </c>
     </row>
     <row r="64" spans="5:13">
       <c r="G64" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L64" s="4"/>
-      <c r="M64" s="1" t="s">
-        <v>203</v>
-      </c>
     </row>
     <row r="65" spans="6:13">
       <c r="G65" s="1" t="s">
         <v>49</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L65" s="4"/>
-      <c r="M65" s="1" t="s">
-        <v>203</v>
-      </c>
     </row>
     <row r="66" spans="6:13">
       <c r="G66" s="1" t="s">
         <v>50</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L66" s="4"/>
-      <c r="M66" s="1" t="s">
-        <v>203</v>
-      </c>
     </row>
     <row r="67" spans="6:13">
       <c r="G67" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>144</v>
+        <v>213</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="L67" s="19" t="s">
-        <v>221</v>
+        <v>111</v>
+      </c>
+      <c r="L67" s="17" t="s">
+        <v>203</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
     </row>
     <row r="68" spans="6:13">
@@ -2389,262 +2261,205 @@
         <v>52</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L68" s="2"/>
-      <c r="M68" s="1" t="s">
-        <v>203</v>
-      </c>
     </row>
     <row r="69" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G69" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K69" s="3"/>
-      <c r="M69" s="1" t="s">
-        <v>203</v>
-      </c>
     </row>
     <row r="70" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G70" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K70" s="3"/>
-      <c r="M70" s="1" t="s">
-        <v>203</v>
-      </c>
     </row>
     <row r="71" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G71" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K71" s="3"/>
-      <c r="M71" s="1" t="s">
-        <v>203</v>
-      </c>
     </row>
     <row r="72" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G72" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K72" s="3"/>
-      <c r="M72" s="1" t="s">
-        <v>203</v>
-      </c>
     </row>
     <row r="73" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G73" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K73" s="3"/>
-      <c r="M73" s="1" t="s">
-        <v>203</v>
-      </c>
     </row>
     <row r="74" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G74" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K74" s="3"/>
-      <c r="M74" s="1" t="s">
-        <v>203</v>
-      </c>
     </row>
     <row r="75" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G75" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K75" s="3"/>
-      <c r="M75" s="1" t="s">
-        <v>203</v>
-      </c>
     </row>
     <row r="76" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G76" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K76" s="3"/>
-      <c r="M76" s="1" t="s">
-        <v>203</v>
-      </c>
     </row>
     <row r="77" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G77" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K77" s="3"/>
-      <c r="M77" s="1" t="s">
-        <v>203</v>
-      </c>
     </row>
     <row r="78" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G78" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K78" s="3"/>
-      <c r="M78" s="1" t="s">
-        <v>203</v>
-      </c>
     </row>
     <row r="79" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G79" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K79" s="3"/>
-      <c r="M79" s="1" t="s">
-        <v>203</v>
-      </c>
     </row>
     <row r="80" spans="6:13" collapsed="1">
       <c r="F80" s="1" t="s">
         <v>53</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L80" s="2"/>
-      <c r="M80" s="1" t="s">
-        <v>203</v>
-      </c>
     </row>
     <row r="81" spans="3:13">
       <c r="G81" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L81" s="4"/>
-      <c r="M81" s="1" t="s">
-        <v>203</v>
-      </c>
     </row>
     <row r="82" spans="3:13">
       <c r="G82" s="1" t="s">
         <v>46</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L82" s="4"/>
-      <c r="M82" s="1" t="s">
-        <v>203</v>
-      </c>
     </row>
     <row r="83" spans="3:13">
       <c r="G83" s="1" t="s">
         <v>47</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L83" s="4"/>
-      <c r="M83" s="1" t="s">
-        <v>203</v>
-      </c>
     </row>
     <row r="84" spans="3:13">
       <c r="G84" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L84" s="4"/>
-      <c r="M84" s="1" t="s">
-        <v>203</v>
-      </c>
     </row>
     <row r="85" spans="3:13">
       <c r="G85" s="1" t="s">
         <v>49</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L85" s="4"/>
-      <c r="M85" s="1" t="s">
-        <v>203</v>
-      </c>
     </row>
     <row r="86" spans="3:13">
       <c r="G86" s="1" t="s">
         <v>50</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L86" s="4"/>
-      <c r="M86" s="1" t="s">
-        <v>203</v>
-      </c>
     </row>
     <row r="87" spans="3:13">
       <c r="G87" s="1" t="s">
         <v>54</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>147</v>
+        <v>214</v>
       </c>
       <c r="J87" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="L87" s="19" t="s">
-        <v>222</v>
+        <v>111</v>
+      </c>
+      <c r="L87" s="17" t="s">
+        <v>215</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
     </row>
     <row r="88" spans="3:13">
@@ -2652,19 +2467,19 @@
         <v>55</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="J88" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="L88" s="19" t="s">
-        <v>223</v>
+        <v>89</v>
+      </c>
+      <c r="L88" s="17" t="s">
+        <v>204</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
     </row>
     <row r="90" spans="3:13">
@@ -2677,7 +2492,7 @@
         <v>10</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="92" spans="3:13" hidden="1" outlineLevel="1">
@@ -2707,7 +2522,7 @@
     </row>
     <row r="97" spans="5:6" hidden="1" outlineLevel="1">
       <c r="E97" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="98" spans="5:6" hidden="1" outlineLevel="1">
@@ -2727,7 +2542,7 @@
     </row>
     <row r="101" spans="5:6" hidden="1" outlineLevel="1">
       <c r="E101" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="102" spans="5:6" hidden="1" outlineLevel="1">
@@ -2810,19 +2625,19 @@
         <v>32</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>115</v>
+        <v>197</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K117" s="5" t="s">
-        <v>116</v>
+        <v>88</v>
+      </c>
+      <c r="K117" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="L117" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="118" spans="4:13">
@@ -2830,19 +2645,16 @@
         <v>33</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K118" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L118" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="M118" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="119" spans="4:13">
@@ -2855,19 +2667,19 @@
         <v>32</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>119</v>
+        <v>198</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K120" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L120" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="M120" s="1" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="121" spans="4:13">
@@ -2875,19 +2687,16 @@
         <v>33</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="J121" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="K121" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="K121" s="5" t="s">
-        <v>116</v>
       </c>
       <c r="L121" s="3">
         <v>1</v>
-      </c>
-      <c r="M121" s="1" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="122" spans="4:13">
@@ -2900,19 +2709,19 @@
         <v>58</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K123" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L123" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="M123" s="1" t="s">
-        <v>203</v>
+        <v>149</v>
+      </c>
+      <c r="M123" s="19" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="124" spans="4:13">
@@ -2920,40 +2729,36 @@
         <v>33</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="J124" s="16" t="s">
-        <v>91</v>
+        <v>159</v>
+      </c>
+      <c r="J124" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="K124" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="L124" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="M124" s="1" t="s">
-        <v>203</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="L124" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="M124" s="19"/>
     </row>
     <row r="125" spans="4:13">
       <c r="F125" s="1" t="s">
         <v>59</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K125" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L125" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="M125" s="1" t="s">
-        <v>203</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="M125" s="19"/>
     </row>
     <row r="126" spans="4:13">
       <c r="E126" s="1" t="s">
@@ -2970,300 +2775,259 @@
         <v>41</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="J128" s="16" t="s">
-        <v>91</v>
+        <v>123</v>
+      </c>
+      <c r="J128" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="K128" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="L128" s="6">
-        <v>-3</v>
-      </c>
-      <c r="M128" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="129" spans="6:13">
+        <v>89</v>
+      </c>
+      <c r="L128" s="2"/>
+    </row>
+    <row r="129" spans="6:12">
       <c r="G129" s="1" t="s">
         <v>42</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="J129" s="16" t="s">
-        <v>91</v>
+        <v>124</v>
+      </c>
+      <c r="J129" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="K129" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="L129" s="6">
-        <v>-1</v>
-      </c>
-      <c r="M129" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="130" spans="6:13">
+        <v>89</v>
+      </c>
+      <c r="L129" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="130" spans="6:12">
       <c r="G130" s="1" t="s">
         <v>43</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="K130" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="L130" s="4">
-        <v>180</v>
-      </c>
-      <c r="M130" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="131" spans="6:13">
+        <v>89</v>
+      </c>
+      <c r="L130" s="12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="131" spans="6:12">
       <c r="G131" s="1" t="s">
         <v>60</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="J131" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="K131" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="L131" s="6">
-        <v>-3.5</v>
-      </c>
-      <c r="M131" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="132" spans="6:13">
+        <v>126</v>
+      </c>
+      <c r="J131" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K131" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L131" s="12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="132" spans="6:12">
       <c r="G132" s="1" t="s">
         <v>61</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="J132" s="16" t="s">
-        <v>91</v>
+        <v>161</v>
+      </c>
+      <c r="J132" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="K132" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="L132" s="6">
-        <v>1</v>
-      </c>
-      <c r="M132" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="133" spans="6:13">
+        <v>111</v>
+      </c>
+      <c r="L132" s="12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="133" spans="6:12">
       <c r="G133" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="J133" s="16" t="s">
-        <v>91</v>
+        <v>162</v>
+      </c>
+      <c r="J133" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="K133" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="L133" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="M133" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="134" spans="6:13">
+        <v>111</v>
+      </c>
+      <c r="L133" s="12" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="134" spans="6:12">
       <c r="G134" s="1" t="s">
         <v>63</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="J134" s="16" t="s">
-        <v>91</v>
+        <v>163</v>
+      </c>
+      <c r="J134" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="K134" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="L134" s="6">
-        <v>-2</v>
-      </c>
-      <c r="M134" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="135" spans="6:13">
+        <v>111</v>
+      </c>
+      <c r="L134" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="135" spans="6:12">
       <c r="G135" s="1" t="s">
         <v>64</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="J135" s="16" t="s">
-        <v>91</v>
+        <v>164</v>
+      </c>
+      <c r="J135" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="K135" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="L135" s="6">
-        <v>-1.5</v>
-      </c>
-      <c r="M135" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="136" spans="6:13">
+        <v>111</v>
+      </c>
+      <c r="L135" s="12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="136" spans="6:12">
       <c r="G136" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="I136" s="14"/>
-      <c r="J136" s="14"/>
-      <c r="K136" s="15"/>
-      <c r="L136" s="15"/>
-    </row>
-    <row r="137" spans="6:13">
+        <v>181</v>
+      </c>
+      <c r="I136" s="13"/>
+      <c r="J136" s="13"/>
+      <c r="K136" s="14"/>
+      <c r="L136" s="14"/>
+    </row>
+    <row r="137" spans="6:12">
       <c r="H137" s="1" t="s">
         <v>68</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="J137" s="16" t="s">
-        <v>91</v>
+        <v>165</v>
+      </c>
+      <c r="J137" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="K137" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="L137" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="M137" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="138" spans="6:13">
+        <v>111</v>
+      </c>
+      <c r="L137" s="12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="138" spans="6:12">
       <c r="H138" s="1" t="s">
         <v>69</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="J138" s="8"/>
       <c r="K138" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L138" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="M138" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="139" spans="6:13">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="139" spans="6:12">
       <c r="G139" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="I139" s="14"/>
-      <c r="J139" s="14"/>
-      <c r="K139" s="15"/>
-      <c r="L139" s="15"/>
-    </row>
-    <row r="140" spans="6:13">
+        <v>182</v>
+      </c>
+      <c r="I139" s="13"/>
+      <c r="J139" s="13"/>
+      <c r="K139" s="14"/>
+      <c r="L139" s="14"/>
+    </row>
+    <row r="140" spans="6:12">
       <c r="H140" s="1" t="s">
         <v>68</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="J140" s="16" t="s">
-        <v>91</v>
+        <v>167</v>
+      </c>
+      <c r="J140" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="K140" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="L140" s="6">
-        <v>0</v>
-      </c>
-      <c r="M140" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="141" spans="6:13">
+        <v>111</v>
+      </c>
+      <c r="L140" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="141" spans="6:12">
       <c r="H141" s="1" t="s">
         <v>69</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="J141" s="16" t="s">
-        <v>91</v>
+        <v>166</v>
+      </c>
+      <c r="J141" s="15" t="s">
+        <v>88</v>
       </c>
       <c r="K141" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L141" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="M141" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="142" spans="6:13">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="142" spans="6:12">
       <c r="G142" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="J142" s="16" t="s">
-        <v>91</v>
+        <v>134</v>
+      </c>
+      <c r="J142" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="K142" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="L142" s="9">
-        <v>31.5</v>
-      </c>
-      <c r="M142" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="143" spans="6:13">
+        <v>111</v>
+      </c>
+      <c r="L142" s="17" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="143" spans="6:12">
       <c r="F143" s="1" t="s">
         <v>52</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="J143" s="14"/>
-      <c r="K143" s="15"/>
-      <c r="L143" s="15"/>
-    </row>
-    <row r="144" spans="6:13" hidden="1" outlineLevel="1">
+        <v>150</v>
+      </c>
+      <c r="J143" s="13"/>
+      <c r="K143" s="14"/>
+      <c r="L143" s="14"/>
+    </row>
+    <row r="144" spans="6:12" hidden="1" outlineLevel="1">
       <c r="G144" s="1" t="s">
         <v>41</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="J144" s="8" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="K144" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L144" s="5">
         <v>31.5</v>
@@ -3349,112 +3113,106 @@
         <v>51</v>
       </c>
     </row>
-    <row r="161" spans="3:13" collapsed="1">
+    <row r="161" spans="3:12" collapsed="1">
       <c r="F161" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="162" spans="3:13">
+    <row r="162" spans="3:12">
       <c r="G162" s="1" t="s">
         <v>54</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="J162" s="8" t="s">
-        <v>145</v>
+        <v>137</v>
+      </c>
+      <c r="J162" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="K162" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="L162" s="9">
-        <v>63</v>
-      </c>
-      <c r="M162" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="163" spans="3:13">
+        <v>111</v>
+      </c>
+      <c r="L162" s="17" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="163" spans="3:12">
       <c r="G163" s="1" t="s">
         <v>71</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="J163" s="8" t="s">
-        <v>145</v>
+        <v>138</v>
+      </c>
+      <c r="J163" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="K163" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="L163" s="9">
-        <v>3.5</v>
-      </c>
-      <c r="M163" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="165" spans="3:13">
+        <v>111</v>
+      </c>
+      <c r="L163" s="17" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="165" spans="3:12">
       <c r="C165" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="166" spans="3:13">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="166" spans="3:12">
       <c r="D166" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="167" spans="3:13" hidden="1" outlineLevel="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="167" spans="3:12" hidden="1" outlineLevel="1">
       <c r="E167" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="168" spans="3:13" hidden="1" outlineLevel="1">
+    <row r="168" spans="3:12" hidden="1" outlineLevel="1">
       <c r="E168" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="169" spans="3:13" hidden="1" outlineLevel="1">
+    <row r="169" spans="3:12" hidden="1" outlineLevel="1">
       <c r="E169" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="3:13" hidden="1" outlineLevel="1">
+    <row r="170" spans="3:12" hidden="1" outlineLevel="1">
       <c r="E170" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="171" spans="3:13" hidden="1" outlineLevel="1">
+    <row r="171" spans="3:12" hidden="1" outlineLevel="1">
       <c r="E171" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="3:13" hidden="1" outlineLevel="1">
+    <row r="172" spans="3:12" hidden="1" outlineLevel="1">
       <c r="E172" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="173" spans="3:13" hidden="1" outlineLevel="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="173" spans="3:12" hidden="1" outlineLevel="1">
       <c r="E173" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="174" spans="3:13" hidden="1" outlineLevel="1">
+    <row r="174" spans="3:12" hidden="1" outlineLevel="1">
       <c r="E174" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="175" spans="3:13" hidden="1" outlineLevel="1">
+    <row r="175" spans="3:12" hidden="1" outlineLevel="1">
       <c r="E175" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="176" spans="3:13" hidden="1" outlineLevel="1">
+    <row r="176" spans="3:12" hidden="1" outlineLevel="1">
       <c r="E176" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="177" spans="4:13" hidden="1" outlineLevel="1">
@@ -3537,19 +3295,19 @@
         <v>32</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>115</v>
+        <v>197</v>
       </c>
       <c r="J192" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K192" s="5" t="s">
-        <v>116</v>
+        <v>88</v>
+      </c>
+      <c r="K192" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="L192" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="M192" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="193" spans="6:13">
@@ -3557,19 +3315,16 @@
         <v>33</v>
       </c>
       <c r="I193" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="J193" s="2" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K193" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L193" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="M193" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="194" spans="6:13">
@@ -3582,19 +3337,19 @@
         <v>32</v>
       </c>
       <c r="I195" s="2" t="s">
-        <v>119</v>
+        <v>198</v>
       </c>
       <c r="J195" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K195" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="K195" s="5" t="s">
-        <v>116</v>
-      </c>
       <c r="L195" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="M195" s="1" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="196" spans="6:13">
@@ -3602,19 +3357,16 @@
         <v>33</v>
       </c>
       <c r="I196" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="J196" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="K196" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="K196" s="5" t="s">
-        <v>116</v>
       </c>
       <c r="L196" s="3">
         <v>1</v>
-      </c>
-      <c r="M196" s="1" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="197" spans="6:13">
@@ -3622,35 +3374,29 @@
         <v>35</v>
       </c>
       <c r="I197" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="J197" s="2"/>
       <c r="K197" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L197" s="2"/>
-      <c r="M197" s="1" t="s">
-        <v>203</v>
-      </c>
     </row>
     <row r="198" spans="6:13">
       <c r="G198" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I198" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="J198" s="2" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="K198" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L198" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="M198" s="1" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="199" spans="6:13">
@@ -3658,53 +3404,44 @@
         <v>33</v>
       </c>
       <c r="I199" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="J199" s="2" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K199" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L199" s="2"/>
-      <c r="M199" s="1" t="s">
-        <v>203</v>
-      </c>
     </row>
     <row r="200" spans="6:13">
       <c r="F200" s="1" t="s">
         <v>36</v>
       </c>
       <c r="I200" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="J200" s="2"/>
       <c r="K200" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L200" s="2"/>
-      <c r="M200" s="1" t="s">
-        <v>203</v>
-      </c>
     </row>
     <row r="201" spans="6:13">
       <c r="G201" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I201" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="J201" s="2" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="K201" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L201" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="M201" s="1" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="202" spans="6:13">
@@ -3712,18 +3449,15 @@
         <v>33</v>
       </c>
       <c r="I202" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="J202" s="2" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K202" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L202" s="2"/>
-      <c r="M202" s="1" t="s">
-        <v>203</v>
-      </c>
     </row>
     <row r="203" spans="6:13">
       <c r="F203" s="1" t="s">
@@ -3735,19 +3469,19 @@
         <v>58</v>
       </c>
       <c r="I204" s="2" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="J204" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K204" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L204" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="M204" s="1" t="s">
-        <v>203</v>
+        <v>149</v>
+      </c>
+      <c r="M204" s="19" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="205" spans="6:13">
@@ -3755,40 +3489,36 @@
         <v>33</v>
       </c>
       <c r="I205" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="J205" s="16" t="s">
-        <v>91</v>
+        <v>159</v>
+      </c>
+      <c r="J205" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="K205" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="L205" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="M205" s="1" t="s">
-        <v>203</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="L205" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="M205" s="19"/>
     </row>
     <row r="206" spans="6:13">
       <c r="F206" s="1" t="s">
         <v>59</v>
       </c>
       <c r="I206" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="J206" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K206" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L206" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="M206" s="1" t="s">
-        <v>203</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="M206" s="19"/>
     </row>
     <row r="207" spans="6:13">
       <c r="F207" s="1" t="s">
@@ -3800,296 +3530,257 @@
         <v>32</v>
       </c>
       <c r="I208" s="2" t="s">
-        <v>127</v>
+        <v>228</v>
       </c>
       <c r="J208" s="2" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="K208" s="3" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="L208" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="M208" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="209" spans="5:13">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="209" spans="5:12">
       <c r="G209" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I209" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="J209" s="2" t="s">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="K209" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L209" s="2"/>
-      <c r="M209" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="210" spans="5:13">
+    </row>
+    <row r="210" spans="5:12">
       <c r="F210" s="1" t="s">
         <v>38</v>
       </c>
       <c r="I210" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="J210" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K210" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L210" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="M210" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="211" spans="5:13">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="211" spans="5:12">
       <c r="E211" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="212" spans="5:13">
+    <row r="212" spans="5:12">
       <c r="F212" s="1" t="s">
         <v>40</v>
       </c>
       <c r="I212" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="J212" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K212" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L212" s="2"/>
-      <c r="M212" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="213" spans="5:13">
+    </row>
+    <row r="213" spans="5:12">
       <c r="G213" s="1" t="s">
         <v>41</v>
       </c>
       <c r="I213" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="J213" s="2" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K213" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="L213" s="6">
-        <v>-3</v>
-      </c>
-      <c r="M213" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="214" spans="5:13">
+        <v>89</v>
+      </c>
+      <c r="L213" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="214" spans="5:12">
       <c r="G214" s="1" t="s">
         <v>42</v>
       </c>
       <c r="I214" s="2" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="J214" s="2" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K214" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="L214" s="6">
-        <v>-1</v>
-      </c>
-      <c r="M214" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="215" spans="5:13">
+        <v>89</v>
+      </c>
+      <c r="L214" s="12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="215" spans="5:12">
       <c r="G215" s="1" t="s">
         <v>43</v>
       </c>
       <c r="I215" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="J215" s="2" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="K215" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="L215" s="4">
-        <v>180</v>
-      </c>
-      <c r="M215" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="216" spans="5:13">
+        <v>89</v>
+      </c>
+      <c r="L215" s="12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="216" spans="5:12">
       <c r="G216" s="1" t="s">
         <v>61</v>
       </c>
       <c r="I216" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="J216" s="2" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K216" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="L216" s="6">
-        <v>1</v>
-      </c>
-      <c r="M216" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="217" spans="5:13">
+        <v>111</v>
+      </c>
+      <c r="L216" s="12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="217" spans="5:12">
       <c r="G217" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I217" s="2" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="J217" s="2" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K217" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="L217" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="M217" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="218" spans="5:13">
+        <v>111</v>
+      </c>
+      <c r="L217" s="12" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="218" spans="5:12">
       <c r="G218" s="1" t="s">
         <v>63</v>
       </c>
       <c r="I218" s="2" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="J218" s="2" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K218" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="L218" s="6">
-        <v>-2</v>
-      </c>
-      <c r="M218" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="219" spans="5:13">
+        <v>111</v>
+      </c>
+      <c r="L218" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="219" spans="5:12">
       <c r="G219" s="1" t="s">
         <v>64</v>
       </c>
       <c r="I219" s="2" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="J219" s="2" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K219" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="L219" s="6">
-        <v>-1.5</v>
-      </c>
-      <c r="M219" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="220" spans="5:13">
+        <v>111</v>
+      </c>
+      <c r="L219" s="12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="220" spans="5:12">
       <c r="G220" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="I220" s="14"/>
-      <c r="J220" s="14"/>
-      <c r="K220" s="15"/>
-      <c r="L220" s="15"/>
-    </row>
-    <row r="221" spans="5:13">
+        <v>181</v>
+      </c>
+      <c r="I220" s="13"/>
+      <c r="J220" s="13"/>
+      <c r="K220" s="14"/>
+      <c r="L220" s="14"/>
+    </row>
+    <row r="221" spans="5:12">
       <c r="H221" s="1" t="s">
         <v>68</v>
       </c>
       <c r="I221" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="J221" s="16" t="s">
-        <v>91</v>
+        <v>165</v>
+      </c>
+      <c r="J221" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="K221" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="L221" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="M221" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="222" spans="5:13">
+        <v>111</v>
+      </c>
+      <c r="L221" s="12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="222" spans="5:12">
       <c r="H222" s="1" t="s">
         <v>69</v>
       </c>
       <c r="I222" s="2" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="J222" s="8"/>
       <c r="K222" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L222" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="M222" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="223" spans="5:13">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="223" spans="5:12">
       <c r="G223" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="I223" s="14"/>
-      <c r="J223" s="14"/>
-      <c r="K223" s="15"/>
-      <c r="L223" s="15"/>
-    </row>
-    <row r="224" spans="5:13">
+        <v>182</v>
+      </c>
+      <c r="I223" s="13"/>
+      <c r="J223" s="13"/>
+      <c r="K223" s="14"/>
+      <c r="L223" s="14"/>
+    </row>
+    <row r="224" spans="5:12">
       <c r="H224" s="1" t="s">
         <v>68</v>
       </c>
       <c r="I224" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="J224" s="16" t="s">
-        <v>91</v>
+        <v>167</v>
+      </c>
+      <c r="J224" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="K224" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="L224" s="6">
-        <v>0</v>
-      </c>
-      <c r="M224" s="1" t="s">
-        <v>203</v>
+        <v>111</v>
+      </c>
+      <c r="L224" s="6" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="225" spans="6:13">
@@ -4097,19 +3788,16 @@
         <v>69</v>
       </c>
       <c r="I225" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="J225" s="16" t="s">
-        <v>91</v>
+        <v>166</v>
+      </c>
+      <c r="J225" s="15" t="s">
+        <v>88</v>
       </c>
       <c r="K225" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L225" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="M225" s="1" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
     </row>
     <row r="226" spans="6:13">
@@ -4117,19 +3805,16 @@
         <v>44</v>
       </c>
       <c r="I226" s="7" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="J226" s="2" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K226" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="L226" s="6">
-        <v>3</v>
-      </c>
-      <c r="M226" s="1" t="s">
-        <v>203</v>
+        <v>89</v>
+      </c>
+      <c r="L226" s="6" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="227" spans="6:13">
@@ -4137,127 +3822,109 @@
         <v>45</v>
       </c>
       <c r="I227" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="J227" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K227" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L227" s="4"/>
-      <c r="M227" s="1" t="s">
-        <v>203</v>
-      </c>
     </row>
     <row r="228" spans="6:13">
       <c r="G228" s="1" t="s">
         <v>46</v>
       </c>
       <c r="I228" s="2" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="J228" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K228" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L228" s="4"/>
-      <c r="M228" s="1" t="s">
-        <v>203</v>
-      </c>
     </row>
     <row r="229" spans="6:13">
       <c r="G229" s="1" t="s">
         <v>47</v>
       </c>
       <c r="I229" s="2" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="J229" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K229" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L229" s="4"/>
-      <c r="M229" s="1" t="s">
-        <v>203</v>
-      </c>
     </row>
     <row r="230" spans="6:13">
       <c r="G230" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I230" s="2" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="J230" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K230" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L230" s="4"/>
-      <c r="M230" s="1" t="s">
-        <v>203</v>
-      </c>
     </row>
     <row r="231" spans="6:13">
       <c r="G231" s="1" t="s">
         <v>49</v>
       </c>
       <c r="I231" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="J231" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K231" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L231" s="4"/>
-      <c r="M231" s="1" t="s">
-        <v>203</v>
-      </c>
     </row>
     <row r="232" spans="6:13">
       <c r="G232" s="1" t="s">
         <v>50</v>
       </c>
       <c r="I232" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="J232" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K232" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L232" s="4"/>
-      <c r="M232" s="1" t="s">
-        <v>203</v>
-      </c>
     </row>
     <row r="233" spans="6:13">
       <c r="G233" s="1" t="s">
         <v>54</v>
       </c>
       <c r="I233" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="J233" s="8" t="s">
-        <v>145</v>
+        <v>213</v>
+      </c>
+      <c r="J233" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="K233" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="L233" s="9">
-        <v>31.5</v>
+        <v>111</v>
+      </c>
+      <c r="L233" s="17" t="s">
+        <v>203</v>
       </c>
       <c r="M233" s="1" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
     </row>
     <row r="234" spans="6:13">
@@ -4265,1876 +3932,1612 @@
         <v>52</v>
       </c>
       <c r="I234" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="J234" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K234" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L234" s="2"/>
-      <c r="M234" s="1" t="s">
-        <v>203</v>
-      </c>
     </row>
     <row r="235" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G235" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M235" s="1" t="s">
-        <v>203</v>
-      </c>
     </row>
     <row r="236" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G236" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M236" s="1" t="s">
-        <v>203</v>
-      </c>
     </row>
     <row r="237" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G237" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M237" s="1" t="s">
-        <v>203</v>
-      </c>
     </row>
     <row r="238" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G238" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="M238" s="1" t="s">
-        <v>203</v>
-      </c>
     </row>
     <row r="239" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G239" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="M239" s="1" t="s">
-        <v>203</v>
-      </c>
     </row>
     <row r="240" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G240" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="M240" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="241" spans="7:13" hidden="1" outlineLevel="1">
+    </row>
+    <row r="241" spans="7:8" hidden="1" outlineLevel="1">
       <c r="G241" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="M241" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="242" spans="7:13" hidden="1" outlineLevel="1">
+    </row>
+    <row r="242" spans="7:8" hidden="1" outlineLevel="1">
       <c r="G242" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="M242" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="243" spans="7:13" hidden="1" outlineLevel="1">
+    </row>
+    <row r="243" spans="7:8" hidden="1" outlineLevel="1">
       <c r="G243" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="M243" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="244" spans="7:13" hidden="1" outlineLevel="1">
+    </row>
+    <row r="244" spans="7:8" hidden="1" outlineLevel="1">
       <c r="G244" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M244" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="245" spans="7:13" hidden="1" outlineLevel="1">
+    </row>
+    <row r="245" spans="7:8" hidden="1" outlineLevel="1">
       <c r="H245" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="M245" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="246" spans="7:13" hidden="1" outlineLevel="1">
+    </row>
+    <row r="246" spans="7:8" hidden="1" outlineLevel="1">
       <c r="H246" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="M246" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="247" spans="7:13" hidden="1" outlineLevel="1">
+    </row>
+    <row r="247" spans="7:8" hidden="1" outlineLevel="1">
       <c r="G247" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="M247" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="248" spans="7:13" hidden="1" outlineLevel="1">
+    </row>
+    <row r="248" spans="7:8" hidden="1" outlineLevel="1">
       <c r="H248" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="M248" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="249" spans="7:13" hidden="1" outlineLevel="1">
+    </row>
+    <row r="249" spans="7:8" hidden="1" outlineLevel="1">
       <c r="H249" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="M249" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="250" spans="7:13" hidden="1" outlineLevel="1">
+    </row>
+    <row r="250" spans="7:8" hidden="1" outlineLevel="1">
       <c r="G250" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M250" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="251" spans="7:13" hidden="1" outlineLevel="1">
+    </row>
+    <row r="251" spans="7:8" hidden="1" outlineLevel="1">
       <c r="G251" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M251" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="252" spans="7:13" hidden="1" outlineLevel="1">
+    </row>
+    <row r="252" spans="7:8" hidden="1" outlineLevel="1">
       <c r="G252" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M252" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="253" spans="7:13" hidden="1" outlineLevel="1">
+    </row>
+    <row r="253" spans="7:8" hidden="1" outlineLevel="1">
       <c r="G253" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="M253" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="254" spans="7:13" hidden="1" outlineLevel="1">
+    </row>
+    <row r="254" spans="7:8" hidden="1" outlineLevel="1">
       <c r="G254" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="M254" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="255" spans="7:13" hidden="1" outlineLevel="1">
+    </row>
+    <row r="255" spans="7:8" hidden="1" outlineLevel="1">
       <c r="G255" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M255" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="256" spans="7:13" hidden="1" outlineLevel="1">
+    </row>
+    <row r="256" spans="7:8" hidden="1" outlineLevel="1">
       <c r="G256" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="M256" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="257" spans="6:13" hidden="1" outlineLevel="1">
+    </row>
+    <row r="257" spans="6:12" hidden="1" outlineLevel="1">
       <c r="G257" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M257" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="258" spans="6:13" collapsed="1">
+    </row>
+    <row r="258" spans="6:12" collapsed="1">
       <c r="F258" s="1" t="s">
         <v>53</v>
       </c>
       <c r="I258" s="2" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="J258" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K258" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L258" s="2"/>
-      <c r="M258" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="259" spans="6:13">
+    </row>
+    <row r="259" spans="6:12">
       <c r="G259" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I259" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I259" s="2"/>
+      <c r="J259" s="2"/>
+      <c r="K259" s="3"/>
+      <c r="L259" s="2"/>
+    </row>
+    <row r="260" spans="6:12">
+      <c r="H260" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I260" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J260" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K260" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="L260" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="261" spans="6:12">
+      <c r="H261" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I261" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="J261" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K261" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="L261" s="2"/>
+    </row>
+    <row r="262" spans="6:12">
+      <c r="H262" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I262" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J262" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K262" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="L262" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="263" spans="6:12">
+      <c r="G263" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I263" s="2"/>
+      <c r="J263" s="2"/>
+      <c r="K263" s="3"/>
+      <c r="L263" s="2"/>
+    </row>
+    <row r="264" spans="6:12">
+      <c r="H264" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I264" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J264" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K264" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="L264" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="265" spans="6:12">
+      <c r="H265" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I265" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="J265" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K265" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="L265" s="2"/>
+    </row>
+    <row r="266" spans="6:12">
+      <c r="H266" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I266" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J266" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K266" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="L266" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="267" spans="6:12">
+      <c r="G267" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I267" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="J267" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K267" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="L267" s="2"/>
+    </row>
+    <row r="268" spans="6:12">
+      <c r="G268" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I268" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="J268" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K268" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="L268" s="2"/>
+    </row>
+    <row r="269" spans="6:12">
+      <c r="G269" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I269" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J269" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K269" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L269" s="4"/>
+    </row>
+    <row r="270" spans="6:12">
+      <c r="G270" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I270" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J270" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K270" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L270" s="4"/>
+    </row>
+    <row r="271" spans="6:12">
+      <c r="G271" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I271" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J271" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K271" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L271" s="4"/>
+    </row>
+    <row r="272" spans="6:12">
+      <c r="G272" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I272" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J272" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K272" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L272" s="4"/>
+    </row>
+    <row r="273" spans="3:12">
+      <c r="G273" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I273" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J273" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K273" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L273" s="4"/>
+    </row>
+    <row r="274" spans="3:12">
+      <c r="G274" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I274" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J274" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K274" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L274" s="4"/>
+    </row>
+    <row r="275" spans="3:12">
+      <c r="G275" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I275" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J275" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K275" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="L275" s="17" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="276" spans="3:12">
+      <c r="G276" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I276" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J276" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K276" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L276" s="17" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="278" spans="3:12">
+      <c r="C278" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="279" spans="3:12">
+      <c r="D279" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I279" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="280" spans="3:12" hidden="1" outlineLevel="1">
+      <c r="E280" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="281" spans="3:12" hidden="1" outlineLevel="1">
+      <c r="E281" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="282" spans="3:12" hidden="1" outlineLevel="1">
+      <c r="E282" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="283" spans="3:12" hidden="1" outlineLevel="1">
+      <c r="E283" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="284" spans="3:12" hidden="1" outlineLevel="1">
+      <c r="E284" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="285" spans="3:12" hidden="1" outlineLevel="1">
+      <c r="E285" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="286" spans="3:12" hidden="1" outlineLevel="1">
+      <c r="E286" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="287" spans="3:12" hidden="1" outlineLevel="1">
+      <c r="E287" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="288" spans="3:12" hidden="1" outlineLevel="1">
+      <c r="E288" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="289" spans="4:6" hidden="1" outlineLevel="1">
+      <c r="E289" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="290" spans="4:6" hidden="1" outlineLevel="1">
+      <c r="E290" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="291" spans="4:6" hidden="1" outlineLevel="1">
+      <c r="F291" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="292" spans="4:6" hidden="1" outlineLevel="1">
+      <c r="F292" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="293" spans="4:6" hidden="1" outlineLevel="1">
+      <c r="F293" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="294" spans="4:6" hidden="1" outlineLevel="1">
+      <c r="F294" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="295" spans="4:6" hidden="1" outlineLevel="1">
+      <c r="F295" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="296" spans="4:6" hidden="1" outlineLevel="1">
+      <c r="F296" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="297" spans="4:6" hidden="1" outlineLevel="1">
+      <c r="F297" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="298" spans="4:6" hidden="1" outlineLevel="1">
+      <c r="F298" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="299" spans="4:6" hidden="1" outlineLevel="1">
+      <c r="E299" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="300" spans="4:6" hidden="1" outlineLevel="1">
+      <c r="F300" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="301" spans="4:6" hidden="1" outlineLevel="1">
+      <c r="F301" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="302" spans="4:6" collapsed="1">
+      <c r="D302" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="303" spans="4:6">
+      <c r="E303" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304" spans="4:6">
+      <c r="F304" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="305" spans="6:13">
+      <c r="G305" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I305" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="J305" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K305" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L305" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="M305" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="306" spans="6:13">
+      <c r="G306" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I306" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J306" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K306" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="L306" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="307" spans="6:13">
+      <c r="F307" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="308" spans="6:13">
+      <c r="G308" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I308" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J308" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K308" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="L308" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="M308" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="309" spans="6:13">
+      <c r="G309" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I309" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J309" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="K309" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="L309" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="6:13">
+      <c r="F310" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I310" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J310" s="2"/>
+      <c r="K310" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L310" s="2"/>
+    </row>
+    <row r="311" spans="6:13">
+      <c r="G311" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I311" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J311" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K311" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L311" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="312" spans="6:13">
+      <c r="G312" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I312" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J312" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K312" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L312" s="2"/>
+    </row>
+    <row r="313" spans="6:13">
+      <c r="F313" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I313" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J313" s="2"/>
+      <c r="K313" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L313" s="2"/>
+    </row>
+    <row r="314" spans="6:13">
+      <c r="G314" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I314" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J314" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K314" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L314" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="315" spans="6:13">
+      <c r="G315" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I315" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J315" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K315" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L315" s="2"/>
+    </row>
+    <row r="316" spans="6:13">
+      <c r="F316" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="317" spans="6:13" ht="16" customHeight="1">
+      <c r="G317" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I317" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J317" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K317" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="L317" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="M317" s="19" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="318" spans="6:13">
+      <c r="G318" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I318" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J318" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K318" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="L318" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="M318" s="19"/>
+    </row>
+    <row r="319" spans="6:13">
+      <c r="F319" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I319" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J319" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K319" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="L319" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="M319" s="19"/>
+    </row>
+    <row r="320" spans="6:13">
+      <c r="F320" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="321" spans="5:13">
+      <c r="G321" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I321" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="J321" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K321" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L321" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M321" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="322" spans="5:13">
+      <c r="G322" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I322" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J322" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K322" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L322" s="2"/>
+    </row>
+    <row r="323" spans="5:13">
+      <c r="F323" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I323" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J323" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K323" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L323" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="J259" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K259" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="L259" s="2" t="s">
+    </row>
+    <row r="324" spans="5:13">
+      <c r="E324" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="325" spans="5:13">
+      <c r="F325" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I325" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J325" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K325" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L325" s="2"/>
+    </row>
+    <row r="326" spans="5:13">
+      <c r="G326" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I326" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J326" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K326" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L326" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="327" spans="5:13">
+      <c r="G327" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I327" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J327" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K327" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L327" s="12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="328" spans="5:13">
+      <c r="G328" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I328" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J328" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K328" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L328" s="12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="329" spans="5:13">
+      <c r="G329" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I329" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J329" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K329" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="L329" s="12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="330" spans="5:13">
+      <c r="G330" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I330" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J330" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K330" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="L330" s="12" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="331" spans="5:13">
+      <c r="G331" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I331" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J331" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K331" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="L331" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="332" spans="5:13">
+      <c r="G332" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I332" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J332" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K332" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="L332" s="12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="333" spans="5:13">
+      <c r="G333" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="M259" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="260" spans="6:13">
-      <c r="G260" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I260" s="2" t="s">
+      <c r="I333" s="13"/>
+      <c r="J333" s="13"/>
+      <c r="K333" s="14"/>
+      <c r="L333" s="14"/>
+    </row>
+    <row r="334" spans="5:13">
+      <c r="H334" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I334" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J334" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K334" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="L334" s="12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="335" spans="5:13">
+      <c r="H335" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I335" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="J335" s="8"/>
+      <c r="K335" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="L335" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="336" spans="5:13">
+      <c r="G336" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="J260" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K260" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="L260" s="2"/>
-      <c r="M260" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="261" spans="6:13">
-      <c r="G261" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I261" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="J261" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K261" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="L261" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="M261" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="262" spans="6:13">
-      <c r="G262" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I262" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="J262" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K262" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="L262" s="2"/>
-      <c r="M262" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="263" spans="6:13">
-      <c r="G263" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I263" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="J263" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K263" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="L263" s="2"/>
-      <c r="M263" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="264" spans="6:13">
-      <c r="G264" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I264" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="J264" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K264" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="L264" s="4"/>
-      <c r="M264" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="265" spans="6:13">
-      <c r="G265" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I265" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="J265" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K265" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="L265" s="4"/>
-      <c r="M265" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="266" spans="6:13">
-      <c r="G266" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I266" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="J266" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K266" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="L266" s="4"/>
-      <c r="M266" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="267" spans="6:13">
-      <c r="G267" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I267" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="J267" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K267" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="L267" s="4"/>
-      <c r="M267" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="268" spans="6:13">
-      <c r="G268" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I268" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="J268" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K268" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="L268" s="4"/>
-      <c r="M268" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="269" spans="6:13">
-      <c r="G269" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I269" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="J269" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K269" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="L269" s="4"/>
-      <c r="M269" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="270" spans="6:13">
-      <c r="G270" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I270" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="J270" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="K270" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="L270" s="9">
-        <v>31.5</v>
-      </c>
-      <c r="M270" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="271" spans="6:13">
-      <c r="G271" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I271" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="J271" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="K271" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="L271" s="9">
-        <v>3.5</v>
-      </c>
-      <c r="M271" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="273" spans="3:9">
-      <c r="C273" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="274" spans="3:9">
-      <c r="D274" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I274" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="275" spans="3:9" hidden="1" outlineLevel="1">
-      <c r="E275" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="276" spans="3:9" hidden="1" outlineLevel="1">
-      <c r="E276" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="277" spans="3:9" hidden="1" outlineLevel="1">
-      <c r="E277" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="278" spans="3:9" hidden="1" outlineLevel="1">
-      <c r="E278" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="279" spans="3:9" hidden="1" outlineLevel="1">
-      <c r="E279" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="280" spans="3:9" hidden="1" outlineLevel="1">
-      <c r="E280" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="281" spans="3:9" hidden="1" outlineLevel="1">
-      <c r="E281" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="282" spans="3:9" hidden="1" outlineLevel="1">
-      <c r="E282" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="283" spans="3:9" hidden="1" outlineLevel="1">
-      <c r="E283" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="284" spans="3:9" hidden="1" outlineLevel="1">
-      <c r="E284" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="285" spans="3:9" hidden="1" outlineLevel="1">
-      <c r="E285" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="286" spans="3:9" hidden="1" outlineLevel="1">
-      <c r="F286" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="287" spans="3:9" hidden="1" outlineLevel="1">
-      <c r="F287" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="288" spans="3:9" hidden="1" outlineLevel="1">
-      <c r="F288" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="289" spans="4:13" hidden="1" outlineLevel="1">
-      <c r="F289" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="290" spans="4:13" hidden="1" outlineLevel="1">
-      <c r="F290" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="291" spans="4:13" hidden="1" outlineLevel="1">
-      <c r="F291" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="292" spans="4:13" hidden="1" outlineLevel="1">
-      <c r="F292" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="293" spans="4:13" hidden="1" outlineLevel="1">
-      <c r="F293" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="294" spans="4:13" hidden="1" outlineLevel="1">
-      <c r="E294" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="295" spans="4:13" hidden="1" outlineLevel="1">
-      <c r="F295" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="296" spans="4:13" hidden="1" outlineLevel="1">
-      <c r="F296" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="297" spans="4:13" collapsed="1">
-      <c r="D297" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="298" spans="4:13">
-      <c r="E298" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="299" spans="4:13">
-      <c r="F299" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="300" spans="4:13">
-      <c r="G300" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I300" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="J300" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K300" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="L300" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="M300" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="301" spans="4:13">
-      <c r="G301" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I301" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="J301" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K301" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="L301" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="M301" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="302" spans="4:13">
-      <c r="F302" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="303" spans="4:13">
-      <c r="G303" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I303" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="J303" s="2" t="s">
+      <c r="I336" s="13"/>
+      <c r="J336" s="13"/>
+      <c r="K336" s="14"/>
+      <c r="L336" s="14"/>
+    </row>
+    <row r="337" spans="6:13">
+      <c r="H337" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I337" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J337" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K337" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="K303" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="L303" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="M303" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="304" spans="4:13">
-      <c r="G304" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I304" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="J304" s="2" t="s">
+      <c r="L337" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="338" spans="6:13">
+      <c r="H338" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I338" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J338" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="K338" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="K304" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="L304" s="3">
-        <v>1</v>
-      </c>
-      <c r="M304" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="305" spans="5:13">
-      <c r="F305" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I305" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="J305" s="2"/>
-      <c r="K305" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="L305" s="2"/>
-      <c r="M305" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="306" spans="5:13">
-      <c r="G306" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I306" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="J306" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="K306" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="L306" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="M306" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="307" spans="5:13">
-      <c r="G307" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I307" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="J307" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K307" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="L307" s="2"/>
-      <c r="M307" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="308" spans="5:13">
-      <c r="F308" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I308" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="J308" s="2"/>
-      <c r="K308" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="L308" s="2"/>
-      <c r="M308" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="309" spans="5:13">
-      <c r="G309" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I309" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="J309" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="K309" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="L309" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="M309" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="310" spans="5:13">
-      <c r="G310" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I310" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="J310" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K310" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="L310" s="2"/>
-      <c r="M310" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="311" spans="5:13">
-      <c r="F311" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="312" spans="5:13">
-      <c r="G312" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I312" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="J312" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K312" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="L312" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="M312" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="313" spans="5:13">
-      <c r="G313" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I313" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="J313" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="K313" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="L313" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="M313" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="314" spans="5:13">
-      <c r="F314" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I314" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="J314" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K314" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="L314" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="M314" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="315" spans="5:13">
-      <c r="F315" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="316" spans="5:13">
-      <c r="G316" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I316" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="J316" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="K316" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="L316" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="M316" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="317" spans="5:13">
-      <c r="G317" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I317" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="J317" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K317" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="L317" s="2"/>
-      <c r="M317" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="318" spans="5:13">
-      <c r="F318" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I318" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="J318" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K318" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="L318" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="M318" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="319" spans="5:13">
-      <c r="E319" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="320" spans="5:13">
-      <c r="F320" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I320" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="J320" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K320" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="L320" s="2"/>
-      <c r="M320" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="321" spans="7:13">
-      <c r="G321" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I321" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="J321" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K321" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="L321" s="6">
-        <v>-3</v>
-      </c>
-      <c r="M321" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="322" spans="7:13">
-      <c r="G322" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I322" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="J322" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K322" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="L322" s="6">
-        <v>-1</v>
-      </c>
-      <c r="M322" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="323" spans="7:13">
-      <c r="G323" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I323" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="J323" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="K323" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="L323" s="4">
-        <v>180</v>
-      </c>
-      <c r="M323" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="324" spans="7:13">
-      <c r="G324" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I324" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="J324" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K324" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="L324" s="6">
-        <v>1</v>
-      </c>
-      <c r="M324" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="325" spans="7:13">
-      <c r="G325" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I325" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="J325" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K325" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="L325" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="M325" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="326" spans="7:13">
-      <c r="G326" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I326" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="J326" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K326" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="L326" s="6">
-        <v>-2</v>
-      </c>
-      <c r="M326" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="327" spans="7:13">
-      <c r="G327" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I327" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="J327" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K327" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="L327" s="6">
-        <v>-1.5</v>
-      </c>
-      <c r="M327" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="328" spans="7:13">
-      <c r="G328" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="I328" s="14"/>
-      <c r="J328" s="14"/>
-      <c r="K328" s="15"/>
-      <c r="L328" s="15"/>
-    </row>
-    <row r="329" spans="7:13">
-      <c r="H329" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I329" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="J329" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="K329" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="L329" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="M329" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="330" spans="7:13">
-      <c r="H330" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I330" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="J330" s="8"/>
-      <c r="K330" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="L330" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="M330" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="331" spans="7:13">
-      <c r="G331" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="I331" s="14"/>
-      <c r="J331" s="14"/>
-      <c r="K331" s="15"/>
-      <c r="L331" s="15"/>
-    </row>
-    <row r="332" spans="7:13">
-      <c r="H332" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I332" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="J332" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="K332" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="L332" s="6">
-        <v>0</v>
-      </c>
-      <c r="M332" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="333" spans="7:13">
-      <c r="H333" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I333" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="J333" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="K333" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="L333" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="M333" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="334" spans="7:13">
-      <c r="G334" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I334" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="J334" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K334" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="L334" s="6">
-        <v>3</v>
-      </c>
-      <c r="M334" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="335" spans="7:13">
-      <c r="G335" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I335" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="J335" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K335" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="L335" s="4"/>
-      <c r="M335" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="336" spans="7:13">
-      <c r="G336" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I336" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="J336" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K336" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="L336" s="4"/>
-      <c r="M336" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="337" spans="6:13">
-      <c r="G337" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I337" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="J337" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K337" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="L337" s="4"/>
-      <c r="M337" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="338" spans="6:13">
-      <c r="G338" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I338" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="J338" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K338" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="L338" s="4"/>
-      <c r="M338" s="1" t="s">
-        <v>202</v>
+      <c r="L338" s="5" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="339" spans="6:13">
       <c r="G339" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I339" s="2" t="s">
-        <v>142</v>
+        <v>44</v>
+      </c>
+      <c r="I339" s="7" t="s">
+        <v>127</v>
       </c>
       <c r="J339" s="2" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K339" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="L339" s="4"/>
-      <c r="M339" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L339" s="6" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="340" spans="6:13">
       <c r="G340" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I340" s="2" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="J340" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K340" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L340" s="4"/>
-      <c r="M340" s="1" t="s">
-        <v>202</v>
-      </c>
     </row>
     <row r="341" spans="6:13">
       <c r="G341" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I341" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J341" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K341" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L341" s="4"/>
+    </row>
+    <row r="342" spans="6:13">
+      <c r="G342" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I342" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J342" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K342" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L342" s="4"/>
+    </row>
+    <row r="343" spans="6:13">
+      <c r="G343" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I343" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J343" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K343" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L343" s="4"/>
+    </row>
+    <row r="344" spans="6:13">
+      <c r="G344" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I344" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J344" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K344" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L344" s="4"/>
+    </row>
+    <row r="345" spans="6:13">
+      <c r="G345" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I345" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J345" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K345" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L345" s="4"/>
+    </row>
+    <row r="346" spans="6:13">
+      <c r="G346" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I341" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="J341" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="K341" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="L341" s="9">
-        <v>31.5</v>
-      </c>
-      <c r="M341" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="342" spans="6:13">
-      <c r="F342" s="1" t="s">
+      <c r="I346" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="J346" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K346" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="L346" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="M346" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="347" spans="6:13">
+      <c r="F347" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I342" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="J342" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K342" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="L342" s="2"/>
-      <c r="M342" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="343" spans="6:13" hidden="1" outlineLevel="1">
-      <c r="G343" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M343" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="344" spans="6:13" hidden="1" outlineLevel="1">
-      <c r="G344" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M344" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="345" spans="6:13" hidden="1" outlineLevel="1">
-      <c r="G345" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M345" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="346" spans="6:13" hidden="1" outlineLevel="1">
-      <c r="G346" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="M346" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="347" spans="6:13" hidden="1" outlineLevel="1">
-      <c r="G347" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M347" s="1" t="s">
-        <v>202</v>
-      </c>
+      <c r="I347" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J347" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K347" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L347" s="2"/>
     </row>
     <row r="348" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G348" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="M348" s="1" t="s">
-        <v>202</v>
+        <v>41</v>
       </c>
     </row>
     <row r="349" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G349" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M349" s="1" t="s">
-        <v>202</v>
+        <v>42</v>
       </c>
     </row>
     <row r="350" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G350" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M350" s="1" t="s">
-        <v>202</v>
+        <v>43</v>
       </c>
     </row>
     <row r="351" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G351" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M351" s="1" t="s">
-        <v>202</v>
+        <v>61</v>
       </c>
     </row>
     <row r="352" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G352" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="353" spans="7:8" hidden="1" outlineLevel="1">
+      <c r="G353" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="354" spans="7:8" hidden="1" outlineLevel="1">
+      <c r="G354" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="355" spans="7:8" hidden="1" outlineLevel="1">
+      <c r="G355" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="356" spans="7:8" hidden="1" outlineLevel="1">
+      <c r="G356" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="357" spans="7:8" hidden="1" outlineLevel="1">
+      <c r="G357" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M352" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="353" spans="6:13" hidden="1" outlineLevel="1">
-      <c r="H353" s="1" t="s">
+    </row>
+    <row r="358" spans="7:8" hidden="1" outlineLevel="1">
+      <c r="H358" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="M353" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="354" spans="6:13" hidden="1" outlineLevel="1">
-      <c r="H354" s="1" t="s">
+    </row>
+    <row r="359" spans="7:8" hidden="1" outlineLevel="1">
+      <c r="H359" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="M354" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="355" spans="6:13" hidden="1" outlineLevel="1">
-      <c r="G355" s="1" t="s">
+    </row>
+    <row r="360" spans="7:8" hidden="1" outlineLevel="1">
+      <c r="G360" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="M355" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="356" spans="6:13" hidden="1" outlineLevel="1">
-      <c r="H356" s="1" t="s">
+    </row>
+    <row r="361" spans="7:8" hidden="1" outlineLevel="1">
+      <c r="H361" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="M356" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="357" spans="6:13" hidden="1" outlineLevel="1">
-      <c r="H357" s="1" t="s">
+    </row>
+    <row r="362" spans="7:8" hidden="1" outlineLevel="1">
+      <c r="H362" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="M357" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="358" spans="6:13" hidden="1" outlineLevel="1">
-      <c r="G358" s="1" t="s">
+    </row>
+    <row r="363" spans="7:8" hidden="1" outlineLevel="1">
+      <c r="G363" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M358" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="359" spans="6:13" hidden="1" outlineLevel="1">
-      <c r="G359" s="1" t="s">
+    </row>
+    <row r="364" spans="7:8" hidden="1" outlineLevel="1">
+      <c r="G364" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M359" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="360" spans="6:13" hidden="1" outlineLevel="1">
-      <c r="G360" s="1" t="s">
+    </row>
+    <row r="365" spans="7:8" hidden="1" outlineLevel="1">
+      <c r="G365" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M360" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="361" spans="6:13" hidden="1" outlineLevel="1">
-      <c r="G361" s="1" t="s">
+    </row>
+    <row r="366" spans="7:8" hidden="1" outlineLevel="1">
+      <c r="G366" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="M361" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="362" spans="6:13" hidden="1" outlineLevel="1">
-      <c r="G362" s="1" t="s">
+    </row>
+    <row r="367" spans="7:8" hidden="1" outlineLevel="1">
+      <c r="G367" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="M362" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="363" spans="6:13" hidden="1" outlineLevel="1">
-      <c r="G363" s="1" t="s">
+    </row>
+    <row r="368" spans="7:8" hidden="1" outlineLevel="1">
+      <c r="G368" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M363" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="364" spans="6:13" hidden="1" outlineLevel="1">
-      <c r="G364" s="1" t="s">
+    </row>
+    <row r="369" spans="6:12" hidden="1" outlineLevel="1">
+      <c r="G369" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="M364" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="365" spans="6:13" hidden="1" outlineLevel="1">
-      <c r="G365" s="1" t="s">
+    </row>
+    <row r="370" spans="6:12" hidden="1" outlineLevel="1">
+      <c r="G370" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M365" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="366" spans="6:13" collapsed="1">
-      <c r="F366" s="1" t="s">
+    </row>
+    <row r="371" spans="6:12" collapsed="1">
+      <c r="F371" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I366" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="J366" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K366" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="L366" s="2"/>
-      <c r="M366" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="367" spans="6:13">
-      <c r="G367" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="I367" s="2"/>
-      <c r="J367" s="2"/>
-      <c r="K367" s="3"/>
-      <c r="L367" s="2"/>
-      <c r="M367" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="368" spans="6:13">
-      <c r="H368" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="I368" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="J368" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K368" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="L368" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="M368" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="369" spans="7:13">
-      <c r="H369" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="I369" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="J369" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K369" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="L369" s="2"/>
-      <c r="M369" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="370" spans="7:13">
-      <c r="H370" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="I370" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="J370" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K370" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="L370" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="M370" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="371" spans="7:13">
-      <c r="G371" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="I371" s="2"/>
-      <c r="J371" s="2"/>
-      <c r="K371" s="3"/>
+      <c r="I371" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J371" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K371" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="L371" s="2"/>
-      <c r="M371" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="372" spans="7:13">
-      <c r="H372" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="I372" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="J372" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K372" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="L372" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="M372" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="373" spans="7:13">
+    </row>
+    <row r="372" spans="6:12">
+      <c r="G372" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I372" s="2"/>
+      <c r="J372" s="2"/>
+      <c r="K372" s="3"/>
+      <c r="L372" s="2"/>
+    </row>
+    <row r="373" spans="6:12">
       <c r="H373" s="1" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="I373" s="2" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="J373" s="2" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K373" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="L373" s="2"/>
-      <c r="M373" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="374" spans="7:13">
+        <v>169</v>
+      </c>
+      <c r="L373" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="374" spans="6:12">
       <c r="H374" s="1" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="I374" s="2" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="J374" s="2" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K374" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="L374" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="M374" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="375" spans="7:13">
-      <c r="G375" s="1" t="s">
-        <v>77</v>
+        <v>169</v>
+      </c>
+      <c r="L374" s="2"/>
+    </row>
+    <row r="375" spans="6:12">
+      <c r="H375" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="I375" s="2" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="J375" s="2" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K375" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="L375" s="2"/>
-      <c r="M375" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="376" spans="7:13">
+        <v>169</v>
+      </c>
+      <c r="L375" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="376" spans="6:12">
       <c r="G376" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I376" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I376" s="2"/>
+      <c r="J376" s="2"/>
+      <c r="K376" s="3"/>
+      <c r="L376" s="2"/>
+    </row>
+    <row r="377" spans="6:12">
+      <c r="H377" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="J376" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K376" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="L376" s="2"/>
-      <c r="M376" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="377" spans="7:13">
-      <c r="G377" s="1" t="s">
+      <c r="I377" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J377" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K377" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="L377" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="378" spans="6:12">
+      <c r="H378" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I378" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="J378" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K378" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="L378" s="2"/>
+    </row>
+    <row r="379" spans="6:12">
+      <c r="H379" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I379" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J379" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K379" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="L379" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="380" spans="6:12">
+      <c r="G380" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I380" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="J380" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K380" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="L380" s="2"/>
+    </row>
+    <row r="381" spans="6:12">
+      <c r="G381" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I381" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="J381" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K381" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="L381" s="2"/>
+    </row>
+    <row r="382" spans="6:12">
+      <c r="G382" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I377" s="2" t="s">
+      <c r="I382" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J382" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K382" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L382" s="4"/>
+    </row>
+    <row r="383" spans="6:12">
+      <c r="G383" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I383" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J383" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K383" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L383" s="4"/>
+    </row>
+    <row r="384" spans="6:12">
+      <c r="G384" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I384" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J384" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K384" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L384" s="4"/>
+    </row>
+    <row r="385" spans="7:12">
+      <c r="G385" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I385" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J385" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K385" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L385" s="4"/>
+    </row>
+    <row r="386" spans="7:12">
+      <c r="G386" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I386" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J386" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K386" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L386" s="4"/>
+    </row>
+    <row r="387" spans="7:12">
+      <c r="G387" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I387" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J387" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K387" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L387" s="4"/>
+    </row>
+    <row r="388" spans="7:12">
+      <c r="G388" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I388" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J388" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K388" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="L388" s="17" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="389" spans="7:12">
+      <c r="G389" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I389" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="J377" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K377" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="L377" s="4"/>
-      <c r="M377" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="378" spans="7:13">
-      <c r="G378" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I378" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="J378" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K378" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="L378" s="4"/>
-      <c r="M378" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="379" spans="7:13">
-      <c r="G379" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I379" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="J379" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K379" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="L379" s="4"/>
-      <c r="M379" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="380" spans="7:13">
-      <c r="G380" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I380" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="J380" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K380" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="L380" s="4"/>
-      <c r="M380" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="381" spans="7:13">
-      <c r="G381" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I381" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="J381" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K381" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="L381" s="4"/>
-      <c r="M381" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="382" spans="7:13">
-      <c r="G382" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I382" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="J382" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K382" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="L382" s="4"/>
-      <c r="M382" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="383" spans="7:13">
-      <c r="G383" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I383" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="J383" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="K383" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="L383" s="9">
-        <v>31.5</v>
-      </c>
-      <c r="M383" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="384" spans="7:13">
-      <c r="G384" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I384" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="J384" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="K384" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="L384" s="9">
-        <v>3.5</v>
-      </c>
-      <c r="M384" s="1" t="s">
-        <v>202</v>
+      <c r="J389" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K389" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L389" s="17" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="P4:R4"/>
+  <mergeCells count="4">
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="M123:M125"/>
+    <mergeCell ref="M204:M206"/>
+    <mergeCell ref="M317:M319"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Documentation.xlsx
+++ b/Documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinzimmermann/nexio/3_R&amp;D/Projet Haag-Streit Phoroptère/GitHub/refractive-JSON/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC513B5B-8A4F-9E4A-8766-9B6E285CB214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECBB1F3-7131-F843-AB39-D249E2113BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26880" xr2:uid="{97470A89-5A9D-474B-83A0-7CF02DF1D5C9}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="230">
   <si>
     <t>{</t>
   </si>
@@ -555,6 +555,9 @@
   </si>
   <si>
     <t>Vertical prism power ( △ )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spherical equivalent value </t>
   </si>
   <si>
     <r>
@@ -740,9 +743,6 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>Defines the output path of the json,if data is provided in a transmitted json (LM, AR, CO) it will be overwritten  the phoropter settings</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fixed value (JSON is always in dioptres) </t>
   </si>
   <si>
@@ -807,6 +807,9 @@
   </si>
   <si>
     <t>Vertex distance unit (fixed value)</t>
+  </si>
+  <si>
+    <t>Defines the output path of the json,if data is provided in a transmitted json (LM, AR, CO) it will be overwritten the phoropter settings</t>
   </si>
 </sst>
 </file>
@@ -1277,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35CFF79E-0D8B-AF4F-8800-07737C044728}">
   <dimension ref="A1:Q389"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A306" zoomScale="139" workbookViewId="0">
-      <selection activeCell="M329" sqref="M329"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="139" workbookViewId="0">
+      <selection activeCell="J131" sqref="J131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1"/>
@@ -1316,7 +1319,7 @@
         <v>82</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1405,7 +1408,7 @@
         <v>6</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>88</v>
@@ -1414,7 +1417,7 @@
         <v>84</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="34">
@@ -1422,7 +1425,7 @@
         <v>7</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>88</v>
@@ -1431,10 +1434,10 @@
         <v>84</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M10" s="20" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1476,7 +1479,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="E16" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>91</v>
@@ -1616,7 +1619,7 @@
         <v>89</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="5:12">
@@ -1642,7 +1645,7 @@
         <v>101</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>89</v>
@@ -1665,7 +1668,7 @@
         <v>89</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="5:12">
@@ -1744,7 +1747,7 @@
         <v>107</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>89</v>
@@ -1758,7 +1761,7 @@
         <v>27</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>88</v>
@@ -1791,7 +1794,7 @@
         <v>109</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>89</v>
@@ -1837,7 +1840,7 @@
         <v>32</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>88</v>
@@ -1866,7 +1869,7 @@
         <v>111</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="42" spans="4:13">
@@ -1879,7 +1882,7 @@
         <v>32</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>88</v>
@@ -1902,7 +1905,7 @@
         <v>115</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K44" s="5" t="s">
         <v>111</v>
@@ -2055,7 +2058,7 @@
         <v>89</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="55" spans="5:13">
@@ -2092,7 +2095,7 @@
         <v>89</v>
       </c>
       <c r="L57" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="58" spans="5:13">
@@ -2109,7 +2112,7 @@
         <v>89</v>
       </c>
       <c r="L58" s="12" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="59" spans="5:13">
@@ -2126,7 +2129,7 @@
         <v>89</v>
       </c>
       <c r="L59" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="60" spans="5:13">
@@ -2143,7 +2146,7 @@
         <v>89</v>
       </c>
       <c r="L60" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="61" spans="5:13">
@@ -2250,7 +2253,7 @@
         <v>111</v>
       </c>
       <c r="L67" s="17" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M67" s="1" t="s">
         <v>212</v>
@@ -2476,7 +2479,7 @@
         <v>89</v>
       </c>
       <c r="L88" s="17" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M88" s="1" t="s">
         <v>216</v>
@@ -2625,7 +2628,7 @@
         <v>32</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J117" s="2" t="s">
         <v>88</v>
@@ -2654,7 +2657,7 @@
         <v>111</v>
       </c>
       <c r="L118" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="119" spans="4:13">
@@ -2667,7 +2670,7 @@
         <v>32</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J120" s="2" t="s">
         <v>88</v>
@@ -2690,7 +2693,7 @@
         <v>115</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K121" s="5" t="s">
         <v>111</v>
@@ -2756,7 +2759,7 @@
         <v>111</v>
       </c>
       <c r="L125" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M125" s="19"/>
     </row>
@@ -2775,22 +2778,24 @@
         <v>41</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="K128" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="L128" s="2"/>
+      <c r="L128" s="12" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="129" spans="6:12">
       <c r="G129" s="1" t="s">
         <v>42</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J129" s="2" t="s">
         <v>20</v>
@@ -2799,7 +2804,7 @@
         <v>89</v>
       </c>
       <c r="L129" s="12" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="130" spans="6:12">
@@ -2807,7 +2812,7 @@
         <v>43</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J130" s="2" t="s">
         <v>20</v>
@@ -2816,7 +2821,7 @@
         <v>89</v>
       </c>
       <c r="L130" s="12" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="131" spans="6:12">
@@ -2824,16 +2829,16 @@
         <v>60</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>126</v>
+        <v>168</v>
       </c>
       <c r="J131" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K131" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="L131" s="12" t="s">
-        <v>201</v>
+      <c r="K131" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="L131" s="6">
+        <v>-3.5</v>
       </c>
     </row>
     <row r="132" spans="6:12">
@@ -2906,7 +2911,7 @@
     </row>
     <row r="136" spans="6:12">
       <c r="G136" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I136" s="13"/>
       <c r="J136" s="13"/>
@@ -2935,19 +2940,19 @@
         <v>69</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J138" s="8"/>
       <c r="K138" s="5" t="s">
         <v>111</v>
       </c>
       <c r="L138" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="139" spans="6:12">
       <c r="G139" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I139" s="13"/>
       <c r="J139" s="13"/>
@@ -2985,7 +2990,7 @@
         <v>111</v>
       </c>
       <c r="L141" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="142" spans="6:12">
@@ -3295,7 +3300,7 @@
         <v>32</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J192" s="2" t="s">
         <v>88</v>
@@ -3324,7 +3329,7 @@
         <v>111</v>
       </c>
       <c r="L193" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="194" spans="6:13">
@@ -3337,7 +3342,7 @@
         <v>32</v>
       </c>
       <c r="I195" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J195" s="2" t="s">
         <v>88</v>
@@ -3360,7 +3365,7 @@
         <v>115</v>
       </c>
       <c r="J196" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K196" s="5" t="s">
         <v>111</v>
@@ -3516,7 +3521,7 @@
         <v>111</v>
       </c>
       <c r="L206" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M206" s="19"/>
     </row>
@@ -3574,7 +3579,7 @@
         <v>89</v>
       </c>
       <c r="L210" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="211" spans="5:12">
@@ -3611,7 +3616,7 @@
         <v>89</v>
       </c>
       <c r="L213" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="214" spans="5:12">
@@ -3628,7 +3633,7 @@
         <v>89</v>
       </c>
       <c r="L214" s="12" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="215" spans="5:12">
@@ -3645,7 +3650,7 @@
         <v>89</v>
       </c>
       <c r="L215" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="216" spans="5:12">
@@ -3718,7 +3723,7 @@
     </row>
     <row r="220" spans="5:12">
       <c r="G220" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I220" s="13"/>
       <c r="J220" s="13"/>
@@ -3747,19 +3752,19 @@
         <v>69</v>
       </c>
       <c r="I222" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J222" s="8"/>
       <c r="K222" s="5" t="s">
         <v>111</v>
       </c>
       <c r="L222" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="223" spans="5:12">
       <c r="G223" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I223" s="13"/>
       <c r="J223" s="13"/>
@@ -3797,7 +3802,7 @@
         <v>111</v>
       </c>
       <c r="L225" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="226" spans="6:13">
@@ -3814,7 +3819,7 @@
         <v>89</v>
       </c>
       <c r="L226" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="227" spans="6:13">
@@ -3921,7 +3926,7 @@
         <v>111</v>
       </c>
       <c r="L233" s="17" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M233" s="1" t="s">
         <v>212</v>
@@ -4074,7 +4079,7 @@
     </row>
     <row r="259" spans="6:12">
       <c r="G259" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I259" s="2"/>
       <c r="J259" s="2"/>
@@ -4083,56 +4088,56 @@
     </row>
     <row r="260" spans="6:12">
       <c r="H260" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I260" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J260" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K260" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L260" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="261" spans="6:12">
       <c r="H261" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I261" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J261" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K261" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L261" s="2"/>
     </row>
     <row r="262" spans="6:12">
       <c r="H262" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I262" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J262" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K262" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L262" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="263" spans="6:12">
       <c r="G263" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I263" s="2"/>
       <c r="J263" s="2"/>
@@ -4141,51 +4146,51 @@
     </row>
     <row r="264" spans="6:12">
       <c r="H264" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I264" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J264" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K264" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L264" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="265" spans="6:12">
       <c r="H265" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I265" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J265" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K265" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L265" s="2"/>
     </row>
     <row r="266" spans="6:12">
       <c r="H266" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I266" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J266" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K266" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L266" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="267" spans="6:12">
@@ -4193,13 +4198,13 @@
         <v>74</v>
       </c>
       <c r="I267" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J267" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K267" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L267" s="2"/>
     </row>
@@ -4208,13 +4213,13 @@
         <v>75</v>
       </c>
       <c r="I268" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J268" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K268" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L268" s="2"/>
     </row>
@@ -4485,7 +4490,7 @@
         <v>32</v>
       </c>
       <c r="I305" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J305" s="2" t="s">
         <v>88</v>
@@ -4514,7 +4519,7 @@
         <v>111</v>
       </c>
       <c r="L306" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="307" spans="6:13">
@@ -4527,7 +4532,7 @@
         <v>32</v>
       </c>
       <c r="I308" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J308" s="2" t="s">
         <v>88</v>
@@ -4550,7 +4555,7 @@
         <v>115</v>
       </c>
       <c r="J309" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K309" s="5" t="s">
         <v>111</v>
@@ -4706,7 +4711,7 @@
         <v>111</v>
       </c>
       <c r="L319" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M319" s="19"/>
     </row>
@@ -4764,7 +4769,7 @@
         <v>89</v>
       </c>
       <c r="L323" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="324" spans="5:13">
@@ -4801,7 +4806,7 @@
         <v>89</v>
       </c>
       <c r="L326" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="327" spans="5:13">
@@ -4818,7 +4823,7 @@
         <v>89</v>
       </c>
       <c r="L327" s="12" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="328" spans="5:13">
@@ -4835,7 +4840,7 @@
         <v>89</v>
       </c>
       <c r="L328" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="329" spans="5:13">
@@ -4908,7 +4913,7 @@
     </row>
     <row r="333" spans="5:13">
       <c r="G333" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I333" s="13"/>
       <c r="J333" s="13"/>
@@ -4937,19 +4942,19 @@
         <v>69</v>
       </c>
       <c r="I335" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J335" s="8"/>
       <c r="K335" s="5" t="s">
         <v>111</v>
       </c>
       <c r="L335" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="336" spans="5:13">
       <c r="G336" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I336" s="13"/>
       <c r="J336" s="13"/>
@@ -4987,7 +4992,7 @@
         <v>111</v>
       </c>
       <c r="L338" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="339" spans="6:13">
@@ -5004,7 +5009,7 @@
         <v>89</v>
       </c>
       <c r="L339" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="340" spans="6:13">
@@ -5111,7 +5116,7 @@
         <v>111</v>
       </c>
       <c r="L346" s="17" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M346" s="1" t="s">
         <v>212</v>
@@ -5264,7 +5269,7 @@
     </row>
     <row r="372" spans="6:12">
       <c r="G372" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I372" s="2"/>
       <c r="J372" s="2"/>
@@ -5273,56 +5278,56 @@
     </row>
     <row r="373" spans="6:12">
       <c r="H373" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I373" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J373" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K373" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L373" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="374" spans="6:12">
       <c r="H374" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I374" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J374" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K374" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L374" s="2"/>
     </row>
     <row r="375" spans="6:12">
       <c r="H375" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I375" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J375" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K375" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L375" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="376" spans="6:12">
       <c r="G376" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I376" s="2"/>
       <c r="J376" s="2"/>
@@ -5331,51 +5336,51 @@
     </row>
     <row r="377" spans="6:12">
       <c r="H377" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I377" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J377" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K377" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L377" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="378" spans="6:12">
       <c r="H378" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I378" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J378" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K378" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L378" s="2"/>
     </row>
     <row r="379" spans="6:12">
       <c r="H379" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I379" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J379" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K379" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L379" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="380" spans="6:12">
@@ -5383,13 +5388,13 @@
         <v>74</v>
       </c>
       <c r="I380" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J380" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K380" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L380" s="2"/>
     </row>
@@ -5398,13 +5403,13 @@
         <v>75</v>
       </c>
       <c r="I381" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J381" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K381" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L381" s="2"/>
     </row>

--- a/Documentation.xlsx
+++ b/Documentation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinzimmermann/nexio/3_R&amp;D/Projet Haag-Streit Phoroptère/GitHub/refractive-JSON/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECBB1F3-7131-F843-AB39-D249E2113BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA30F838-99F7-BF42-896A-BCBFFA7E5917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26880" xr2:uid="{97470A89-5A9D-474B-83A0-7CF02DF1D5C9}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17540" xr2:uid="{97470A89-5A9D-474B-83A0-7CF02DF1D5C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="232">
   <si>
     <t>{</t>
   </si>
@@ -810,6 +810,12 @@
   </si>
   <si>
     <t>Defines the output path of the json,if data is provided in a transmitted json (LM, AR, CO) it will be overwritten the phoropter settings</t>
+  </si>
+  <si>
+    <t>PID:{</t>
+  </si>
+  <si>
+    <t>The purpose of this dataset is to transmit patient information without measurement data. If a PID dataset is present in a JSON the patient data contained in this one takes over the patient data of the other dataset</t>
   </si>
 </sst>
 </file>
@@ -916,7 +922,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -955,14 +961,24 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -982,7 +998,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1270,7 +1286,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1278,10 +1294,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35CFF79E-0D8B-AF4F-8800-07737C044728}">
-  <dimension ref="A1:Q389"/>
+  <dimension ref="A1:Q410"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="139" workbookViewId="0">
-      <selection activeCell="J131" sqref="J131"/>
+    <sheetView tabSelected="1" topLeftCell="A380" zoomScale="139" workbookViewId="0">
+      <selection activeCell="I413" sqref="I413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1"/>
@@ -1339,11 +1355,11 @@
       <c r="N4" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="O4" s="18" t="s">
+      <c r="O4" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
     </row>
     <row r="5" spans="1:17">
       <c r="C5" s="1" t="s">
@@ -1436,7 +1452,7 @@
       <c r="L10" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="M10" s="20" t="s">
+      <c r="M10" s="18" t="s">
         <v>229</v>
       </c>
     </row>
@@ -2723,7 +2739,7 @@
       <c r="L123" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="M123" s="19" t="s">
+      <c r="M123" s="20" t="s">
         <v>224</v>
       </c>
     </row>
@@ -2743,7 +2759,7 @@
       <c r="L124" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="M124" s="19"/>
+      <c r="M124" s="20"/>
     </row>
     <row r="125" spans="4:13">
       <c r="F125" s="1" t="s">
@@ -2761,7 +2777,7 @@
       <c r="L125" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="M125" s="19"/>
+      <c r="M125" s="20"/>
     </row>
     <row r="126" spans="4:13">
       <c r="E126" s="1" t="s">
@@ -3485,7 +3501,7 @@
       <c r="L204" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="M204" s="19" t="s">
+      <c r="M204" s="20" t="s">
         <v>224</v>
       </c>
     </row>
@@ -3505,7 +3521,7 @@
       <c r="L205" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="M205" s="19"/>
+      <c r="M205" s="20"/>
     </row>
     <row r="206" spans="6:13">
       <c r="F206" s="1" t="s">
@@ -3523,7 +3539,7 @@
       <c r="L206" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="M206" s="19"/>
+      <c r="M206" s="20"/>
     </row>
     <row r="207" spans="6:13">
       <c r="F207" s="1" t="s">
@@ -4675,7 +4691,7 @@
       <c r="L317" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="M317" s="19" t="s">
+      <c r="M317" s="20" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4695,7 +4711,7 @@
       <c r="L318" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="M318" s="19"/>
+      <c r="M318" s="20"/>
     </row>
     <row r="319" spans="6:13">
       <c r="F319" s="1" t="s">
@@ -4713,7 +4729,7 @@
       <c r="L319" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="M319" s="19"/>
+      <c r="M319" s="20"/>
     </row>
     <row r="320" spans="6:13">
       <c r="F320" s="1" t="s">
@@ -5458,7 +5474,7 @@
       </c>
       <c r="L384" s="4"/>
     </row>
-    <row r="385" spans="7:12">
+    <row r="385" spans="3:12">
       <c r="G385" s="1" t="s">
         <v>48</v>
       </c>
@@ -5473,7 +5489,7 @@
       </c>
       <c r="L385" s="4"/>
     </row>
-    <row r="386" spans="7:12">
+    <row r="386" spans="3:12">
       <c r="G386" s="1" t="s">
         <v>49</v>
       </c>
@@ -5488,7 +5504,7 @@
       </c>
       <c r="L386" s="4"/>
     </row>
-    <row r="387" spans="7:12">
+    <row r="387" spans="3:12">
       <c r="G387" s="1" t="s">
         <v>50</v>
       </c>
@@ -5503,7 +5519,7 @@
       </c>
       <c r="L387" s="4"/>
     </row>
-    <row r="388" spans="7:12">
+    <row r="388" spans="3:12">
       <c r="G388" s="1" t="s">
         <v>54</v>
       </c>
@@ -5520,7 +5536,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="389" spans="7:12">
+    <row r="389" spans="3:12">
       <c r="G389" s="1" t="s">
         <v>55</v>
       </c>
@@ -5537,12 +5553,314 @@
         <v>227</v>
       </c>
     </row>
+    <row r="390" spans="3:12">
+      <c r="I390" s="22"/>
+      <c r="J390" s="22"/>
+      <c r="K390" s="23"/>
+      <c r="L390" s="24"/>
+    </row>
+    <row r="392" spans="3:12" ht="46" customHeight="1">
+      <c r="C392" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I392" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="J392" s="21"/>
+      <c r="K392" s="21"/>
+      <c r="L392" s="21"/>
+    </row>
+    <row r="393" spans="3:12">
+      <c r="D393" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="394" spans="3:12">
+      <c r="E394" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I394" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J394" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K394" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L394" s="3"/>
+    </row>
+    <row r="395" spans="3:12">
+      <c r="E395" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I395" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J395" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K395" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L395" s="3"/>
+    </row>
+    <row r="396" spans="3:12">
+      <c r="E396" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I396" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J396" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K396" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L396" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="397" spans="3:12">
+      <c r="E397" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I397" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J397" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K397" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L397" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="398" spans="3:12">
+      <c r="E398" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I398" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J398" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K398" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L398" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="399" spans="3:12">
+      <c r="E399" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I399" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J399" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K399" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L399" s="3"/>
+    </row>
+    <row r="400" spans="3:12">
+      <c r="F400" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I400" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J400" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="K400" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L400" s="3">
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="401" spans="5:12">
+      <c r="F401" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I401" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J401" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K401" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L401" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="402" spans="5:12">
+      <c r="F402" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I402" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J402" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K402" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L402" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="403" spans="5:12">
+      <c r="F403" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I403" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J403" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K403" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L403" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="404" spans="5:12">
+      <c r="F404" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I404" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J404" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K404" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L404" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="405" spans="5:12">
+      <c r="F405" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I405" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J405" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K405" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L405" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="406" spans="5:12">
+      <c r="F406" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I406" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J406" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="K406" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L406" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="407" spans="5:12">
+      <c r="F407" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I407" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="J407" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K407" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L407" s="12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="408" spans="5:12">
+      <c r="E408" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I408" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J408" s="2"/>
+      <c r="K408" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L408" s="2"/>
+    </row>
+    <row r="409" spans="5:12">
+      <c r="F409" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I409" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J409" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="K409" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L409" s="3">
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="410" spans="5:12">
+      <c r="F410" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I410" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J410" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K410" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L410" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="O4:Q4"/>
     <mergeCell ref="M123:M125"/>
     <mergeCell ref="M204:M206"/>
     <mergeCell ref="M317:M319"/>
+    <mergeCell ref="I392:L392"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Documentation.xlsx
+++ b/Documentation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinzimmermann/nexio/3_R&amp;D/Projet Haag-Streit Phoroptère/GitHub/refractive-JSON/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinzimmermann/Github/refractive-JSON/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA30F838-99F7-BF42-896A-BCBFFA7E5917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558133F0-941E-8145-A688-89575444E15B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17540" xr2:uid="{97470A89-5A9D-474B-83A0-7CF02DF1D5C9}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="41840" windowHeight="23420" xr2:uid="{97470A89-5A9D-474B-83A0-7CF02DF1D5C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="233">
   <si>
     <t>{</t>
   </si>
@@ -816,6 +816,9 @@
   </si>
   <si>
     <t>The purpose of this dataset is to transmit patient information without measurement data. If a PID dataset is present in a JSON the patient data contained in this one takes over the patient data of the other dataset</t>
+  </si>
+  <si>
+    <t>allows the filiation of datasets to a unique source for example TonoRef III AR, TONO, PACHY,…</t>
   </si>
 </sst>
 </file>
@@ -964,6 +967,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -972,13 +982,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1296,8 +1299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35CFF79E-0D8B-AF4F-8800-07737C044728}">
   <dimension ref="A1:Q410"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A380" zoomScale="139" workbookViewId="0">
-      <selection activeCell="I413" sqref="I413"/>
+    <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1"/>
@@ -1355,11 +1358,11 @@
       <c r="N4" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="O4" s="19" t="s">
+      <c r="O4" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
     </row>
     <row r="5" spans="1:17">
       <c r="C5" s="1" t="s">
@@ -1510,7 +1513,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="5:12">
+    <row r="17" spans="5:13">
       <c r="E17" s="1" t="s">
         <v>13</v>
       </c>
@@ -1527,7 +1530,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="5:12">
+    <row r="18" spans="5:13">
       <c r="E18" s="1" t="s">
         <v>14</v>
       </c>
@@ -1542,7 +1545,7 @@
       </c>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="5:12">
+    <row r="19" spans="5:13">
       <c r="E19" s="1" t="s">
         <v>15</v>
       </c>
@@ -1557,7 +1560,7 @@
       </c>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="5:12">
+    <row r="20" spans="5:13" ht="34">
       <c r="E20" s="1" t="s">
         <v>76</v>
       </c>
@@ -1571,8 +1574,11 @@
         <v>89</v>
       </c>
       <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="5:12">
+      <c r="M20" s="18" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="21" spans="5:13">
       <c r="E21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1587,7 +1593,7 @@
       </c>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="5:12">
+    <row r="22" spans="5:13">
       <c r="E22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1604,7 +1610,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="23" spans="5:12">
+    <row r="23" spans="5:13">
       <c r="E23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1621,7 +1627,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="24" spans="5:12">
+    <row r="24" spans="5:13">
       <c r="E24" s="1" t="s">
         <v>77</v>
       </c>
@@ -1638,7 +1644,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="25" spans="5:12">
+    <row r="25" spans="5:13">
       <c r="E25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1653,7 +1659,7 @@
       </c>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="5:12">
+    <row r="26" spans="5:13">
       <c r="F26" s="1" t="s">
         <v>20</v>
       </c>
@@ -1670,7 +1676,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="27" spans="5:12">
+    <row r="27" spans="5:13">
       <c r="F27" s="1" t="s">
         <v>21</v>
       </c>
@@ -1687,7 +1693,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="28" spans="5:12">
+    <row r="28" spans="5:13">
       <c r="F28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1704,7 +1710,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="29" spans="5:12">
+    <row r="29" spans="5:13">
       <c r="F29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1721,7 +1727,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="30" spans="5:12">
+    <row r="30" spans="5:13">
       <c r="F30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1738,7 +1744,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="31" spans="5:12">
+    <row r="31" spans="5:13">
       <c r="F31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1755,7 +1761,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="32" spans="5:12">
+    <row r="32" spans="5:13">
       <c r="F32" s="1" t="s">
         <v>26</v>
       </c>
@@ -2739,7 +2745,7 @@
       <c r="L123" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="M123" s="20" t="s">
+      <c r="M123" s="23" t="s">
         <v>224</v>
       </c>
     </row>
@@ -2759,7 +2765,7 @@
       <c r="L124" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="M124" s="20"/>
+      <c r="M124" s="23"/>
     </row>
     <row r="125" spans="4:13">
       <c r="F125" s="1" t="s">
@@ -2777,7 +2783,7 @@
       <c r="L125" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="M125" s="20"/>
+      <c r="M125" s="23"/>
     </row>
     <row r="126" spans="4:13">
       <c r="E126" s="1" t="s">
@@ -3501,7 +3507,7 @@
       <c r="L204" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="M204" s="20" t="s">
+      <c r="M204" s="23" t="s">
         <v>224</v>
       </c>
     </row>
@@ -3521,7 +3527,7 @@
       <c r="L205" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="M205" s="20"/>
+      <c r="M205" s="23"/>
     </row>
     <row r="206" spans="6:13">
       <c r="F206" s="1" t="s">
@@ -3539,7 +3545,7 @@
       <c r="L206" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="M206" s="20"/>
+      <c r="M206" s="23"/>
     </row>
     <row r="207" spans="6:13">
       <c r="F207" s="1" t="s">
@@ -4691,7 +4697,7 @@
       <c r="L317" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="M317" s="20" t="s">
+      <c r="M317" s="23" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4711,7 +4717,7 @@
       <c r="L318" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="M318" s="20"/>
+      <c r="M318" s="23"/>
     </row>
     <row r="319" spans="6:13">
       <c r="F319" s="1" t="s">
@@ -4729,7 +4735,7 @@
       <c r="L319" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="M319" s="20"/>
+      <c r="M319" s="23"/>
     </row>
     <row r="320" spans="6:13">
       <c r="F320" s="1" t="s">
@@ -5554,21 +5560,21 @@
       </c>
     </row>
     <row r="390" spans="3:12">
-      <c r="I390" s="22"/>
-      <c r="J390" s="22"/>
-      <c r="K390" s="23"/>
-      <c r="L390" s="24"/>
+      <c r="I390" s="19"/>
+      <c r="J390" s="19"/>
+      <c r="K390" s="20"/>
+      <c r="L390" s="21"/>
     </row>
     <row r="392" spans="3:12" ht="46" customHeight="1">
       <c r="C392" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="I392" s="21" t="s">
+      <c r="I392" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="J392" s="21"/>
-      <c r="K392" s="21"/>
-      <c r="L392" s="21"/>
+      <c r="J392" s="24"/>
+      <c r="K392" s="24"/>
+      <c r="L392" s="24"/>
     </row>
     <row r="393" spans="3:12">
       <c r="D393" s="1" t="s">

--- a/Documentation.xlsx
+++ b/Documentation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinzimmermann/Github/refractive-JSON/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558133F0-941E-8145-A688-89575444E15B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6733FCAA-8947-4843-8D09-173369FA4428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="41840" windowHeight="23420" xr2:uid="{97470A89-5A9D-474B-83A0-7CF02DF1D5C9}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{97470A89-5A9D-474B-83A0-7CF02DF1D5C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="235">
   <si>
     <t>{</t>
   </si>
@@ -659,9 +659,6 @@
     <t>Json end point</t>
   </si>
   <si>
-    <t>in or out</t>
-  </si>
-  <si>
     <t>Snellen, Logarithmic, Decimal</t>
   </si>
   <si>
@@ -677,9 +674,6 @@
     <t>(base Up and base Down only)</t>
   </si>
   <si>
-    <t>up or down</t>
-  </si>
-  <si>
     <t>divergence:{</t>
   </si>
   <si>
@@ -819,6 +813,18 @@
   </si>
   <si>
     <t>allows the filiation of datasets to a unique source for example TonoRef III AR, TONO, PACHY,…</t>
+  </si>
+  <si>
+    <t>U or D</t>
+  </si>
+  <si>
+    <t>I or O</t>
+  </si>
+  <si>
+    <t>This field is mandatory if a Horizontal prism power is entered</t>
+  </si>
+  <si>
+    <t>This field is mandatory if a Vertical prism power is entered</t>
   </si>
 </sst>
 </file>
@@ -1299,8 +1305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35CFF79E-0D8B-AF4F-8800-07737C044728}">
   <dimension ref="A1:Q410"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" topLeftCell="A321" zoomScale="137" workbookViewId="0">
+      <selection activeCell="M340" sqref="M340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1"/>
@@ -1338,7 +1344,7 @@
         <v>82</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1436,7 +1442,7 @@
         <v>84</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="34">
@@ -1453,10 +1459,10 @@
         <v>84</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1498,7 +1504,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="E16" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>91</v>
@@ -1575,7 +1581,7 @@
       </c>
       <c r="L20" s="3"/>
       <c r="M20" s="18" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="5:13">
@@ -1641,7 +1647,7 @@
         <v>89</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="5:13">
@@ -1667,7 +1673,7 @@
         <v>101</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>89</v>
@@ -1690,7 +1696,7 @@
         <v>89</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="5:13">
@@ -1769,7 +1775,7 @@
         <v>107</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>89</v>
@@ -1783,7 +1789,7 @@
         <v>27</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>88</v>
@@ -1816,7 +1822,7 @@
         <v>109</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>89</v>
@@ -1862,7 +1868,7 @@
         <v>32</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>88</v>
@@ -1874,7 +1880,7 @@
         <v>112</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41" spans="4:13">
@@ -1891,7 +1897,7 @@
         <v>111</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42" spans="4:13">
@@ -1904,7 +1910,7 @@
         <v>32</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>88</v>
@@ -1916,7 +1922,7 @@
         <v>114</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="44" spans="4:13">
@@ -1927,7 +1933,7 @@
         <v>115</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K44" s="5" t="s">
         <v>111</v>
@@ -1963,7 +1969,7 @@
         <v>89</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="47" spans="4:13">
@@ -2008,7 +2014,7 @@
         <v>89</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="50" spans="5:13">
@@ -2036,7 +2042,7 @@
         <v>32</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>88</v>
@@ -2048,7 +2054,7 @@
         <v>120</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="53" spans="5:13">
@@ -2080,7 +2086,7 @@
         <v>89</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="55" spans="5:13">
@@ -2117,7 +2123,7 @@
         <v>89</v>
       </c>
       <c r="L57" s="12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="58" spans="5:13">
@@ -2134,7 +2140,7 @@
         <v>89</v>
       </c>
       <c r="L58" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="59" spans="5:13">
@@ -2151,7 +2157,7 @@
         <v>89</v>
       </c>
       <c r="L59" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="60" spans="5:13">
@@ -2168,7 +2174,7 @@
         <v>89</v>
       </c>
       <c r="L60" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="61" spans="5:13">
@@ -2266,7 +2272,7 @@
         <v>51</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>20</v>
@@ -2275,10 +2281,10 @@
         <v>111</v>
       </c>
       <c r="L67" s="17" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="68" spans="6:13">
@@ -2472,7 +2478,7 @@
         <v>54</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J87" s="2" t="s">
         <v>20</v>
@@ -2481,10 +2487,10 @@
         <v>111</v>
       </c>
       <c r="L87" s="17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="88" spans="3:13">
@@ -2501,10 +2507,10 @@
         <v>89</v>
       </c>
       <c r="L88" s="17" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="90" spans="3:13">
@@ -2650,7 +2656,7 @@
         <v>32</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J117" s="2" t="s">
         <v>88</v>
@@ -2662,7 +2668,7 @@
         <v>112</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="118" spans="4:13">
@@ -2679,7 +2685,7 @@
         <v>111</v>
       </c>
       <c r="L118" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="119" spans="4:13">
@@ -2692,7 +2698,7 @@
         <v>32</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J120" s="2" t="s">
         <v>88</v>
@@ -2704,7 +2710,7 @@
         <v>114</v>
       </c>
       <c r="M120" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="121" spans="4:13">
@@ -2715,7 +2721,7 @@
         <v>115</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K121" s="5" t="s">
         <v>111</v>
@@ -2746,7 +2752,7 @@
         <v>149</v>
       </c>
       <c r="M123" s="23" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="124" spans="4:13">
@@ -2763,7 +2769,7 @@
         <v>111</v>
       </c>
       <c r="L124" s="12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="M124" s="23"/>
     </row>
@@ -2781,7 +2787,7 @@
         <v>111</v>
       </c>
       <c r="L125" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M125" s="23"/>
     </row>
@@ -2809,10 +2815,10 @@
         <v>89</v>
       </c>
       <c r="L128" s="12" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="129" spans="6:12">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="129" spans="6:13">
       <c r="G129" s="1" t="s">
         <v>42</v>
       </c>
@@ -2826,10 +2832,10 @@
         <v>89</v>
       </c>
       <c r="L129" s="12" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="130" spans="6:12">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="130" spans="6:13">
       <c r="G130" s="1" t="s">
         <v>43</v>
       </c>
@@ -2843,10 +2849,10 @@
         <v>89</v>
       </c>
       <c r="L130" s="12" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="131" spans="6:12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="131" spans="6:13">
       <c r="G131" s="1" t="s">
         <v>60</v>
       </c>
@@ -2863,7 +2869,7 @@
         <v>-3.5</v>
       </c>
     </row>
-    <row r="132" spans="6:12">
+    <row r="132" spans="6:13">
       <c r="G132" s="1" t="s">
         <v>61</v>
       </c>
@@ -2877,10 +2883,10 @@
         <v>111</v>
       </c>
       <c r="L132" s="12" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="133" spans="6:12">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="133" spans="6:13">
       <c r="G133" s="1" t="s">
         <v>62</v>
       </c>
@@ -2894,10 +2900,10 @@
         <v>111</v>
       </c>
       <c r="L133" s="12" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="134" spans="6:12">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="134" spans="6:13">
       <c r="G134" s="1" t="s">
         <v>63</v>
       </c>
@@ -2911,10 +2917,10 @@
         <v>111</v>
       </c>
       <c r="L134" s="12" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="135" spans="6:12">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="135" spans="6:13">
       <c r="G135" s="1" t="s">
         <v>64</v>
       </c>
@@ -2928,19 +2934,19 @@
         <v>111</v>
       </c>
       <c r="L135" s="12" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="136" spans="6:12">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="136" spans="6:13">
       <c r="G136" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I136" s="13"/>
       <c r="J136" s="13"/>
       <c r="K136" s="14"/>
       <c r="L136" s="14"/>
     </row>
-    <row r="137" spans="6:12">
+    <row r="137" spans="6:13">
       <c r="H137" s="1" t="s">
         <v>68</v>
       </c>
@@ -2954,34 +2960,37 @@
         <v>111</v>
       </c>
       <c r="L137" s="12" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="138" spans="6:12">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="138" spans="6:13">
       <c r="H138" s="1" t="s">
         <v>69</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J138" s="8"/>
       <c r="K138" s="5" t="s">
         <v>111</v>
       </c>
       <c r="L138" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="139" spans="6:12">
+        <v>231</v>
+      </c>
+      <c r="M138" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="139" spans="6:13">
       <c r="G139" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I139" s="13"/>
       <c r="J139" s="13"/>
       <c r="K139" s="14"/>
       <c r="L139" s="14"/>
     </row>
-    <row r="140" spans="6:12">
+    <row r="140" spans="6:13">
       <c r="H140" s="1" t="s">
         <v>68</v>
       </c>
@@ -2995,10 +3004,10 @@
         <v>111</v>
       </c>
       <c r="L140" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="141" spans="6:12">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="141" spans="6:13">
       <c r="H141" s="1" t="s">
         <v>69</v>
       </c>
@@ -3012,10 +3021,13 @@
         <v>111</v>
       </c>
       <c r="L141" s="5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="142" spans="6:12">
+        <v>232</v>
+      </c>
+      <c r="M141" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="142" spans="6:13">
       <c r="G142" s="1" t="s">
         <v>51</v>
       </c>
@@ -3029,10 +3041,10 @@
         <v>111</v>
       </c>
       <c r="L142" s="17" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="143" spans="6:12">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="143" spans="6:13">
       <c r="F143" s="1" t="s">
         <v>52</v>
       </c>
@@ -3043,7 +3055,7 @@
       <c r="K143" s="14"/>
       <c r="L143" s="14"/>
     </row>
-    <row r="144" spans="6:12" hidden="1" outlineLevel="1">
+    <row r="144" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G144" s="1" t="s">
         <v>41</v>
       </c>
@@ -3159,7 +3171,7 @@
         <v>111</v>
       </c>
       <c r="L162" s="17" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="163" spans="3:12">
@@ -3176,7 +3188,7 @@
         <v>111</v>
       </c>
       <c r="L163" s="17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="165" spans="3:12">
@@ -3322,7 +3334,7 @@
         <v>32</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J192" s="2" t="s">
         <v>88</v>
@@ -3334,7 +3346,7 @@
         <v>112</v>
       </c>
       <c r="M192" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="193" spans="6:13">
@@ -3351,7 +3363,7 @@
         <v>111</v>
       </c>
       <c r="L193" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="194" spans="6:13">
@@ -3364,7 +3376,7 @@
         <v>32</v>
       </c>
       <c r="I195" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J195" s="2" t="s">
         <v>88</v>
@@ -3376,7 +3388,7 @@
         <v>114</v>
       </c>
       <c r="M195" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="196" spans="6:13">
@@ -3387,7 +3399,7 @@
         <v>115</v>
       </c>
       <c r="J196" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K196" s="5" t="s">
         <v>111</v>
@@ -3423,7 +3435,7 @@
         <v>89</v>
       </c>
       <c r="L198" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="199" spans="6:13">
@@ -3468,7 +3480,7 @@
         <v>89</v>
       </c>
       <c r="L201" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="202" spans="6:13">
@@ -3508,7 +3520,7 @@
         <v>149</v>
       </c>
       <c r="M204" s="23" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="205" spans="6:13">
@@ -3525,7 +3537,7 @@
         <v>111</v>
       </c>
       <c r="L205" s="12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="M205" s="23"/>
     </row>
@@ -3543,7 +3555,7 @@
         <v>111</v>
       </c>
       <c r="L206" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M206" s="23"/>
     </row>
@@ -3557,7 +3569,7 @@
         <v>32</v>
       </c>
       <c r="I208" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J208" s="2" t="s">
         <v>88</v>
@@ -3569,10 +3581,10 @@
         <v>120</v>
       </c>
       <c r="M208" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="209" spans="5:12">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="209" spans="5:13">
       <c r="G209" s="1" t="s">
         <v>33</v>
       </c>
@@ -3587,7 +3599,7 @@
       </c>
       <c r="L209" s="2"/>
     </row>
-    <row r="210" spans="5:12">
+    <row r="210" spans="5:13">
       <c r="F210" s="1" t="s">
         <v>38</v>
       </c>
@@ -3601,15 +3613,15 @@
         <v>89</v>
       </c>
       <c r="L210" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="211" spans="5:12">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="211" spans="5:13">
       <c r="E211" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="212" spans="5:12">
+    <row r="212" spans="5:13">
       <c r="F212" s="1" t="s">
         <v>40</v>
       </c>
@@ -3624,7 +3636,7 @@
       </c>
       <c r="L212" s="2"/>
     </row>
-    <row r="213" spans="5:12">
+    <row r="213" spans="5:13">
       <c r="G213" s="1" t="s">
         <v>41</v>
       </c>
@@ -3638,10 +3650,10 @@
         <v>89</v>
       </c>
       <c r="L213" s="12" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="214" spans="5:12">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="214" spans="5:13">
       <c r="G214" s="1" t="s">
         <v>42</v>
       </c>
@@ -3655,10 +3667,10 @@
         <v>89</v>
       </c>
       <c r="L214" s="12" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="215" spans="5:12">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="215" spans="5:13">
       <c r="G215" s="1" t="s">
         <v>43</v>
       </c>
@@ -3672,10 +3684,10 @@
         <v>89</v>
       </c>
       <c r="L215" s="12" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="216" spans="5:12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="216" spans="5:13">
       <c r="G216" s="1" t="s">
         <v>61</v>
       </c>
@@ -3689,10 +3701,10 @@
         <v>111</v>
       </c>
       <c r="L216" s="12" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="217" spans="5:12">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="217" spans="5:13">
       <c r="G217" s="1" t="s">
         <v>62</v>
       </c>
@@ -3706,10 +3718,10 @@
         <v>111</v>
       </c>
       <c r="L217" s="12" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="218" spans="5:12">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="218" spans="5:13">
       <c r="G218" s="1" t="s">
         <v>63</v>
       </c>
@@ -3723,10 +3735,10 @@
         <v>111</v>
       </c>
       <c r="L218" s="12" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="219" spans="5:12">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="219" spans="5:13">
       <c r="G219" s="1" t="s">
         <v>64</v>
       </c>
@@ -3740,19 +3752,19 @@
         <v>111</v>
       </c>
       <c r="L219" s="12" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="220" spans="5:12">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="220" spans="5:13">
       <c r="G220" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I220" s="13"/>
       <c r="J220" s="13"/>
       <c r="K220" s="14"/>
       <c r="L220" s="14"/>
     </row>
-    <row r="221" spans="5:12">
+    <row r="221" spans="5:13">
       <c r="H221" s="1" t="s">
         <v>68</v>
       </c>
@@ -3766,34 +3778,37 @@
         <v>111</v>
       </c>
       <c r="L221" s="12" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="222" spans="5:12">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="5:13">
       <c r="H222" s="1" t="s">
         <v>69</v>
       </c>
       <c r="I222" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J222" s="8"/>
       <c r="K222" s="5" t="s">
         <v>111</v>
       </c>
       <c r="L222" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="223" spans="5:12">
+        <v>231</v>
+      </c>
+      <c r="M222" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="223" spans="5:13">
       <c r="G223" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I223" s="13"/>
       <c r="J223" s="13"/>
       <c r="K223" s="14"/>
       <c r="L223" s="14"/>
     </row>
-    <row r="224" spans="5:12">
+    <row r="224" spans="5:13">
       <c r="H224" s="1" t="s">
         <v>68</v>
       </c>
@@ -3807,7 +3822,7 @@
         <v>111</v>
       </c>
       <c r="L224" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="225" spans="6:13">
@@ -3824,7 +3839,10 @@
         <v>111</v>
       </c>
       <c r="L225" s="5" t="s">
-        <v>179</v>
+        <v>232</v>
+      </c>
+      <c r="M225" s="1" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="226" spans="6:13">
@@ -3841,7 +3859,7 @@
         <v>89</v>
       </c>
       <c r="L226" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="227" spans="6:13">
@@ -3939,7 +3957,7 @@
         <v>54</v>
       </c>
       <c r="I233" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J233" s="2" t="s">
         <v>20</v>
@@ -3948,10 +3966,10 @@
         <v>111</v>
       </c>
       <c r="L233" s="17" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="M233" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="234" spans="6:13">
@@ -4101,7 +4119,7 @@
     </row>
     <row r="259" spans="6:12">
       <c r="G259" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I259" s="2"/>
       <c r="J259" s="2"/>
@@ -4110,7 +4128,7 @@
     </row>
     <row r="260" spans="6:12">
       <c r="H260" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I260" s="2" t="s">
         <v>169</v>
@@ -4127,7 +4145,7 @@
     </row>
     <row r="261" spans="6:12">
       <c r="H261" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I261" s="2" t="s">
         <v>172</v>
@@ -4142,7 +4160,7 @@
     </row>
     <row r="262" spans="6:12">
       <c r="H262" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I262" s="2" t="s">
         <v>173</v>
@@ -4159,7 +4177,7 @@
     </row>
     <row r="263" spans="6:12">
       <c r="G263" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I263" s="2"/>
       <c r="J263" s="2"/>
@@ -4168,7 +4186,7 @@
     </row>
     <row r="264" spans="6:12">
       <c r="H264" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I264" s="2" t="s">
         <v>169</v>
@@ -4185,7 +4203,7 @@
     </row>
     <row r="265" spans="6:12">
       <c r="H265" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I265" s="2" t="s">
         <v>172</v>
@@ -4200,7 +4218,7 @@
     </row>
     <row r="266" spans="6:12">
       <c r="H266" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I266" s="2" t="s">
         <v>173</v>
@@ -4349,7 +4367,7 @@
         <v>111</v>
       </c>
       <c r="L275" s="17" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="276" spans="3:12">
@@ -4366,7 +4384,7 @@
         <v>89</v>
       </c>
       <c r="L276" s="17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="278" spans="3:12">
@@ -4512,7 +4530,7 @@
         <v>32</v>
       </c>
       <c r="I305" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J305" s="2" t="s">
         <v>88</v>
@@ -4524,7 +4542,7 @@
         <v>112</v>
       </c>
       <c r="M305" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="306" spans="6:13">
@@ -4541,7 +4559,7 @@
         <v>111</v>
       </c>
       <c r="L306" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="307" spans="6:13">
@@ -4554,7 +4572,7 @@
         <v>32</v>
       </c>
       <c r="I308" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J308" s="2" t="s">
         <v>88</v>
@@ -4566,7 +4584,7 @@
         <v>114</v>
       </c>
       <c r="M308" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="309" spans="6:13">
@@ -4577,7 +4595,7 @@
         <v>115</v>
       </c>
       <c r="J309" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K309" s="5" t="s">
         <v>111</v>
@@ -4613,7 +4631,7 @@
         <v>89</v>
       </c>
       <c r="L311" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="312" spans="6:13">
@@ -4658,7 +4676,7 @@
         <v>89</v>
       </c>
       <c r="L314" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="315" spans="6:13">
@@ -4698,7 +4716,7 @@
         <v>149</v>
       </c>
       <c r="M317" s="23" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="318" spans="6:13">
@@ -4715,7 +4733,7 @@
         <v>111</v>
       </c>
       <c r="L318" s="12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="M318" s="23"/>
     </row>
@@ -4733,7 +4751,7 @@
         <v>111</v>
       </c>
       <c r="L319" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M319" s="23"/>
     </row>
@@ -4747,7 +4765,7 @@
         <v>32</v>
       </c>
       <c r="I321" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J321" s="2" t="s">
         <v>88</v>
@@ -4759,7 +4777,7 @@
         <v>120</v>
       </c>
       <c r="M321" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="322" spans="5:13">
@@ -4791,7 +4809,7 @@
         <v>89</v>
       </c>
       <c r="L323" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="324" spans="5:13">
@@ -4828,7 +4846,7 @@
         <v>89</v>
       </c>
       <c r="L326" s="12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="327" spans="5:13">
@@ -4845,7 +4863,7 @@
         <v>89</v>
       </c>
       <c r="L327" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="328" spans="5:13">
@@ -4862,7 +4880,7 @@
         <v>89</v>
       </c>
       <c r="L328" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="329" spans="5:13">
@@ -4879,7 +4897,7 @@
         <v>111</v>
       </c>
       <c r="L329" s="12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="330" spans="5:13">
@@ -4896,7 +4914,7 @@
         <v>111</v>
       </c>
       <c r="L330" s="12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="331" spans="5:13">
@@ -4913,7 +4931,7 @@
         <v>111</v>
       </c>
       <c r="L331" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="332" spans="5:13">
@@ -4930,12 +4948,12 @@
         <v>111</v>
       </c>
       <c r="L332" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="333" spans="5:13">
       <c r="G333" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I333" s="13"/>
       <c r="J333" s="13"/>
@@ -4956,7 +4974,7 @@
         <v>111</v>
       </c>
       <c r="L334" s="12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="335" spans="5:13">
@@ -4964,19 +4982,22 @@
         <v>69</v>
       </c>
       <c r="I335" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J335" s="8"/>
       <c r="K335" s="5" t="s">
         <v>111</v>
       </c>
       <c r="L335" s="5" t="s">
-        <v>185</v>
+        <v>231</v>
+      </c>
+      <c r="M335" s="1" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="336" spans="5:13">
       <c r="G336" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I336" s="13"/>
       <c r="J336" s="13"/>
@@ -4997,7 +5018,7 @@
         <v>111</v>
       </c>
       <c r="L337" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="338" spans="6:13">
@@ -5014,7 +5035,10 @@
         <v>111</v>
       </c>
       <c r="L338" s="5" t="s">
-        <v>179</v>
+        <v>232</v>
+      </c>
+      <c r="M338" s="1" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="339" spans="6:13">
@@ -5031,7 +5055,7 @@
         <v>89</v>
       </c>
       <c r="L339" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="340" spans="6:13">
@@ -5129,7 +5153,7 @@
         <v>54</v>
       </c>
       <c r="I346" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J346" s="2" t="s">
         <v>20</v>
@@ -5138,10 +5162,10 @@
         <v>111</v>
       </c>
       <c r="L346" s="17" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="M346" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="347" spans="6:13">
@@ -5291,7 +5315,7 @@
     </row>
     <row r="372" spans="6:12">
       <c r="G372" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I372" s="2"/>
       <c r="J372" s="2"/>
@@ -5300,7 +5324,7 @@
     </row>
     <row r="373" spans="6:12">
       <c r="H373" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I373" s="2" t="s">
         <v>169</v>
@@ -5317,7 +5341,7 @@
     </row>
     <row r="374" spans="6:12">
       <c r="H374" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I374" s="2" t="s">
         <v>172</v>
@@ -5332,7 +5356,7 @@
     </row>
     <row r="375" spans="6:12">
       <c r="H375" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I375" s="2" t="s">
         <v>173</v>
@@ -5349,7 +5373,7 @@
     </row>
     <row r="376" spans="6:12">
       <c r="G376" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I376" s="2"/>
       <c r="J376" s="2"/>
@@ -5358,7 +5382,7 @@
     </row>
     <row r="377" spans="6:12">
       <c r="H377" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I377" s="2" t="s">
         <v>169</v>
@@ -5375,7 +5399,7 @@
     </row>
     <row r="378" spans="6:12">
       <c r="H378" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I378" s="2" t="s">
         <v>172</v>
@@ -5390,7 +5414,7 @@
     </row>
     <row r="379" spans="6:12">
       <c r="H379" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I379" s="2" t="s">
         <v>173</v>
@@ -5539,7 +5563,7 @@
         <v>111</v>
       </c>
       <c r="L388" s="17" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="389" spans="3:12">
@@ -5556,7 +5580,7 @@
         <v>89</v>
       </c>
       <c r="L389" s="17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="390" spans="3:12">
@@ -5567,10 +5591,10 @@
     </row>
     <row r="392" spans="3:12" ht="46" customHeight="1">
       <c r="C392" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I392" s="24" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J392" s="24"/>
       <c r="K392" s="24"/>
@@ -5659,7 +5683,7 @@
         <v>89</v>
       </c>
       <c r="L398" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="399" spans="3:12">
@@ -5685,7 +5709,7 @@
         <v>101</v>
       </c>
       <c r="J400" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K400" s="3" t="s">
         <v>89</v>
@@ -5708,7 +5732,7 @@
         <v>89</v>
       </c>
       <c r="L401" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="402" spans="5:12">
@@ -5787,7 +5811,7 @@
         <v>107</v>
       </c>
       <c r="J406" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K406" s="3" t="s">
         <v>89</v>
@@ -5801,7 +5825,7 @@
         <v>27</v>
       </c>
       <c r="I407" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J407" s="2" t="s">
         <v>88</v>
@@ -5834,7 +5858,7 @@
         <v>109</v>
       </c>
       <c r="J409" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K409" s="3" t="s">
         <v>89</v>

--- a/Documentation.xlsx
+++ b/Documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinzimmermann/Github/refractive-JSON/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6733FCAA-8947-4843-8D09-173369FA4428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319CC651-EF3F-3C47-BA30-6A85093769AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{97470A89-5A9D-474B-83A0-7CF02DF1D5C9}"/>
   </bookViews>
@@ -46,9 +46,6 @@
     <t>header:{</t>
   </si>
   <si>
-    <t>jsonVersion:0.1.2,</t>
-  </si>
-  <si>
     <t>encoding:UTF-8,</t>
   </si>
   <si>
@@ -825,6 +822,9 @@
   </si>
   <si>
     <t>This field is mandatory if a Vertical prism power is entered</t>
+  </si>
+  <si>
+    <t>jsonVersion:0.1.4,</t>
   </si>
 </sst>
 </file>
@@ -1305,8 +1305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35CFF79E-0D8B-AF4F-8800-07737C044728}">
   <dimension ref="A1:Q410"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A321" zoomScale="137" workbookViewId="0">
-      <selection activeCell="M340" sqref="M340"/>
+    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1"/>
@@ -1322,7 +1322,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -1332,19 +1332,19 @@
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
       <c r="I1" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="K1" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="L1" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="L1" s="16" t="s">
-        <v>82</v>
-      </c>
       <c r="M1" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1362,112 +1362,112 @@
         <v>2</v>
       </c>
       <c r="N4" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="O4" s="22" t="s">
         <v>139</v>
-      </c>
-      <c r="O4" s="22" t="s">
-        <v>140</v>
       </c>
       <c r="P4" s="22"/>
       <c r="Q4" s="22"/>
     </row>
     <row r="5" spans="1:17">
       <c r="C5" s="1" t="s">
-        <v>3</v>
+        <v>234</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
     </row>
     <row r="6" spans="1:17">
       <c r="C6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
     </row>
     <row r="7" spans="1:17">
       <c r="C7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="34">
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1477,206 +1477,206 @@
     </row>
     <row r="13" spans="1:17">
       <c r="C13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="D14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="E15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="E16" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L16" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="17" spans="5:13">
       <c r="E17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L17" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="18" spans="5:13">
       <c r="E18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L18" s="3"/>
     </row>
     <row r="19" spans="5:13">
       <c r="E19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L19" s="3"/>
     </row>
     <row r="20" spans="5:13" ht="34">
       <c r="E20" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L20" s="3"/>
       <c r="M20" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="5:13">
       <c r="E21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L21" s="3"/>
     </row>
     <row r="22" spans="5:13">
       <c r="E22" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="5:13">
       <c r="E23" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="5:13">
       <c r="E24" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="5:13">
       <c r="E25" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I25" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="K25" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L25" s="3"/>
     </row>
     <row r="26" spans="5:13">
       <c r="F26" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L26" s="3">
         <v>123456789</v>
@@ -1684,101 +1684,101 @@
     </row>
     <row r="27" spans="5:13">
       <c r="F27" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="5:13">
       <c r="F28" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="5:13">
       <c r="F29" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="5:13">
       <c r="F30" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="5:13">
       <c r="F31" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="5:13">
       <c r="F32" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L32" s="3">
         <v>40</v>
@@ -1786,46 +1786,46 @@
     </row>
     <row r="33" spans="4:13">
       <c r="F33" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L33" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="4:13">
       <c r="E34" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L34" s="2"/>
     </row>
     <row r="35" spans="4:13">
       <c r="F35" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L35" s="3">
         <v>123456789</v>
@@ -1833,24 +1833,24 @@
     </row>
     <row r="36" spans="4:13">
       <c r="F36" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="4:13">
       <c r="D37" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="4:13">
@@ -1860,83 +1860,83 @@
     </row>
     <row r="39" spans="4:13">
       <c r="F39" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="4:13">
       <c r="G40" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="41" spans="4:13">
       <c r="G41" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="42" spans="4:13">
       <c r="F42" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="4:13">
       <c r="G43" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="44" spans="4:13">
       <c r="G44" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L44" s="3">
         <v>1</v>
@@ -1944,701 +1944,701 @@
     </row>
     <row r="45" spans="4:13">
       <c r="F45" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J45" s="2"/>
       <c r="K45" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L45" s="2"/>
     </row>
     <row r="46" spans="4:13">
       <c r="G46" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47" spans="4:13">
       <c r="G47" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L47" s="2"/>
     </row>
     <row r="48" spans="4:13">
       <c r="F48" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J48" s="2"/>
       <c r="K48" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L48" s="2"/>
     </row>
     <row r="49" spans="5:13">
       <c r="G49" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="50" spans="5:13">
       <c r="G50" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L50" s="2"/>
     </row>
     <row r="51" spans="5:13">
       <c r="F51" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="5:13">
       <c r="G52" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="53" spans="5:13">
       <c r="G53" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L53" s="2"/>
     </row>
     <row r="54" spans="5:13">
       <c r="F54" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="55" spans="5:13">
       <c r="E55" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="5:13">
       <c r="F56" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L56" s="2"/>
     </row>
     <row r="57" spans="5:13">
       <c r="G57" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L57" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="58" spans="5:13">
       <c r="G58" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L58" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="59" spans="5:13">
       <c r="G59" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L59" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="60" spans="5:13">
       <c r="G60" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L60" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="61" spans="5:13">
       <c r="G61" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L61" s="4"/>
     </row>
     <row r="62" spans="5:13">
       <c r="G62" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L62" s="4"/>
     </row>
     <row r="63" spans="5:13">
       <c r="G63" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L63" s="4"/>
     </row>
     <row r="64" spans="5:13">
       <c r="G64" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L64" s="4"/>
     </row>
     <row r="65" spans="6:13">
       <c r="G65" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L65" s="4"/>
     </row>
     <row r="66" spans="6:13">
       <c r="G66" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L66" s="4"/>
     </row>
     <row r="67" spans="6:13">
       <c r="G67" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L67" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="68" spans="6:13">
       <c r="F68" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L68" s="2"/>
     </row>
     <row r="69" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G69" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K69" s="3"/>
     </row>
     <row r="70" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G70" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K70" s="3"/>
     </row>
     <row r="71" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G71" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K71" s="3"/>
     </row>
     <row r="72" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G72" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K72" s="3"/>
     </row>
     <row r="73" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G73" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K73" s="3"/>
     </row>
     <row r="74" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G74" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K74" s="3"/>
     </row>
     <row r="75" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G75" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K75" s="3"/>
     </row>
     <row r="76" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G76" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K76" s="3"/>
     </row>
     <row r="77" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G77" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K77" s="3"/>
     </row>
     <row r="78" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G78" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K78" s="3"/>
     </row>
     <row r="79" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G79" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K79" s="3"/>
     </row>
     <row r="80" spans="6:13" collapsed="1">
       <c r="F80" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L80" s="2"/>
     </row>
     <row r="81" spans="3:13">
       <c r="G81" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L81" s="4"/>
     </row>
     <row r="82" spans="3:13">
       <c r="G82" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L82" s="4"/>
     </row>
     <row r="83" spans="3:13">
       <c r="G83" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L83" s="4"/>
     </row>
     <row r="84" spans="3:13">
       <c r="G84" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L84" s="4"/>
     </row>
     <row r="85" spans="3:13">
       <c r="G85" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L85" s="4"/>
     </row>
     <row r="86" spans="3:13">
       <c r="G86" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L86" s="4"/>
     </row>
     <row r="87" spans="3:13">
       <c r="G87" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I87" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K87" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="L87" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="J87" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K87" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="L87" s="17" t="s">
-        <v>213</v>
-      </c>
       <c r="M87" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="88" spans="3:13">
       <c r="G88" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L88" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="90" spans="3:13">
       <c r="C90" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="91" spans="3:13">
       <c r="D91" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="92" spans="3:13" hidden="1" outlineLevel="1">
       <c r="E92" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="3:13" hidden="1" outlineLevel="1">
       <c r="E93" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" spans="3:13" hidden="1" outlineLevel="1">
       <c r="E94" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" spans="3:13" hidden="1" outlineLevel="1">
       <c r="E95" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="96" spans="3:13" hidden="1" outlineLevel="1">
       <c r="E96" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97" spans="5:6" hidden="1" outlineLevel="1">
       <c r="E97" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="98" spans="5:6" hidden="1" outlineLevel="1">
       <c r="E98" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99" spans="5:6" hidden="1" outlineLevel="1">
       <c r="E99" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" spans="5:6" hidden="1" outlineLevel="1">
       <c r="E100" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="101" spans="5:6" hidden="1" outlineLevel="1">
       <c r="E101" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="102" spans="5:6" hidden="1" outlineLevel="1">
       <c r="E102" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" spans="5:6" hidden="1" outlineLevel="1">
       <c r="F103" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104" spans="5:6" hidden="1" outlineLevel="1">
       <c r="F104" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" spans="5:6" hidden="1" outlineLevel="1">
       <c r="F105" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" spans="5:6" hidden="1" outlineLevel="1">
       <c r="F106" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="107" spans="5:6" hidden="1" outlineLevel="1">
       <c r="F107" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="108" spans="5:6" hidden="1" outlineLevel="1">
       <c r="F108" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="109" spans="5:6" hidden="1" outlineLevel="1">
       <c r="F109" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110" spans="5:6" hidden="1" outlineLevel="1">
       <c r="F110" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="111" spans="5:6" hidden="1" outlineLevel="1">
       <c r="E111" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="112" spans="5:6" hidden="1" outlineLevel="1">
       <c r="F112" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="113" spans="4:13" hidden="1" outlineLevel="1">
       <c r="F113" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="114" spans="4:13" collapsed="1">
       <c r="D114" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="115" spans="4:13">
@@ -2648,83 +2648,83 @@
     </row>
     <row r="116" spans="4:13">
       <c r="F116" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="117" spans="4:13">
       <c r="G117" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L117" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="118" spans="4:13">
       <c r="G118" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K118" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L118" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="119" spans="4:13">
       <c r="F119" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="120" spans="4:13">
       <c r="G120" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K120" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L120" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M120" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="121" spans="4:13">
       <c r="G121" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K121" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L121" s="3">
         <v>1</v>
@@ -2732,138 +2732,138 @@
     </row>
     <row r="122" spans="4:13">
       <c r="F122" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="123" spans="4:13">
       <c r="G123" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I123" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J123" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K123" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="L123" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="J123" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K123" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="L123" s="3" t="s">
-        <v>149</v>
-      </c>
       <c r="M123" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="124" spans="4:13">
       <c r="G124" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K124" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L124" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M124" s="23"/>
     </row>
     <row r="125" spans="4:13">
       <c r="F125" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K125" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L125" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M125" s="23"/>
     </row>
     <row r="126" spans="4:13">
       <c r="E126" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="127" spans="4:13">
       <c r="F127" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="128" spans="4:13">
       <c r="G128" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K128" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L128" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="129" spans="6:13">
       <c r="G129" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K129" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L129" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="130" spans="6:13">
       <c r="G130" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K130" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L130" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="131" spans="6:13">
       <c r="G131" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K131" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L131" s="6">
         <v>-3.5</v>
@@ -2871,75 +2871,75 @@
     </row>
     <row r="132" spans="6:13">
       <c r="G132" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K132" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L132" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="133" spans="6:13">
       <c r="G133" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K133" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L133" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="134" spans="6:13">
       <c r="G134" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K134" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L134" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="135" spans="6:13">
       <c r="G135" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K135" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L135" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="136" spans="6:13">
       <c r="G136" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I136" s="13"/>
       <c r="J136" s="13"/>
@@ -2948,42 +2948,42 @@
     </row>
     <row r="137" spans="6:13">
       <c r="H137" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J137" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K137" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L137" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="138" spans="6:13">
       <c r="H138" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J138" s="8"/>
       <c r="K138" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L138" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M138" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="139" spans="6:13">
       <c r="G139" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I139" s="13"/>
       <c r="J139" s="13"/>
@@ -2992,64 +2992,64 @@
     </row>
     <row r="140" spans="6:13">
       <c r="H140" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J140" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K140" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L140" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="141" spans="6:13">
       <c r="H141" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J141" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K141" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L141" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M141" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="142" spans="6:13">
       <c r="G142" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K142" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L142" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="143" spans="6:13">
       <c r="F143" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J143" s="13"/>
       <c r="K143" s="14"/>
@@ -3057,16 +3057,16 @@
     </row>
     <row r="144" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G144" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I144" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J144" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="J144" s="8" t="s">
-        <v>135</v>
-      </c>
       <c r="K144" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L144" s="5">
         <v>31.5</v>
@@ -3074,249 +3074,249 @@
     </row>
     <row r="145" spans="7:8" hidden="1" outlineLevel="1">
       <c r="G145" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="146" spans="7:8" hidden="1" outlineLevel="1">
       <c r="G146" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="147" spans="7:8" hidden="1" outlineLevel="1">
       <c r="G147" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="148" spans="7:8" hidden="1" outlineLevel="1">
       <c r="G148" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="149" spans="7:8" hidden="1" outlineLevel="1">
       <c r="G149" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="150" spans="7:8" hidden="1" outlineLevel="1">
       <c r="G150" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="151" spans="7:8" hidden="1" outlineLevel="1">
       <c r="G151" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="152" spans="7:8" hidden="1" outlineLevel="1">
       <c r="G152" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="153" spans="7:8" hidden="1" outlineLevel="1">
       <c r="G153" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="154" spans="7:8" hidden="1" outlineLevel="1">
       <c r="G154" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="155" spans="7:8" hidden="1" outlineLevel="1">
       <c r="H155" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="156" spans="7:8" hidden="1" outlineLevel="1">
       <c r="H156" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="157" spans="7:8" hidden="1" outlineLevel="1">
       <c r="G157" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="158" spans="7:8" hidden="1" outlineLevel="1">
       <c r="H158" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="159" spans="7:8" hidden="1" outlineLevel="1">
       <c r="H159" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="160" spans="7:8" hidden="1" outlineLevel="1">
       <c r="G160" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="161" spans="3:12" collapsed="1">
       <c r="F161" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="162" spans="3:12">
       <c r="G162" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J162" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K162" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L162" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="163" spans="3:12">
       <c r="G163" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J163" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K163" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L163" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="165" spans="3:12">
       <c r="C165" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="166" spans="3:12">
       <c r="D166" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="167" spans="3:12" hidden="1" outlineLevel="1">
       <c r="E167" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="168" spans="3:12" hidden="1" outlineLevel="1">
       <c r="E168" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="169" spans="3:12" hidden="1" outlineLevel="1">
       <c r="E169" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="170" spans="3:12" hidden="1" outlineLevel="1">
       <c r="E170" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="171" spans="3:12" hidden="1" outlineLevel="1">
       <c r="E171" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="172" spans="3:12" hidden="1" outlineLevel="1">
       <c r="E172" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="173" spans="3:12" hidden="1" outlineLevel="1">
       <c r="E173" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="174" spans="3:12" hidden="1" outlineLevel="1">
       <c r="E174" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="175" spans="3:12" hidden="1" outlineLevel="1">
       <c r="E175" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="176" spans="3:12" hidden="1" outlineLevel="1">
       <c r="E176" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="177" spans="4:13" hidden="1" outlineLevel="1">
       <c r="E177" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="178" spans="4:13" hidden="1" outlineLevel="1">
       <c r="F178" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="179" spans="4:13" hidden="1" outlineLevel="1">
       <c r="F179" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="180" spans="4:13" hidden="1" outlineLevel="1">
       <c r="F180" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="181" spans="4:13" hidden="1" outlineLevel="1">
       <c r="F181" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="182" spans="4:13" hidden="1" outlineLevel="1">
       <c r="F182" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="183" spans="4:13" hidden="1" outlineLevel="1">
       <c r="F183" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="184" spans="4:13" hidden="1" outlineLevel="1">
       <c r="F184" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="185" spans="4:13" hidden="1" outlineLevel="1">
       <c r="F185" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="186" spans="4:13" hidden="1" outlineLevel="1">
       <c r="E186" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="187" spans="4:13" hidden="1" outlineLevel="1">
       <c r="F187" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="188" spans="4:13" hidden="1" outlineLevel="1">
       <c r="F188" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="189" spans="4:13" collapsed="1">
       <c r="D189" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="190" spans="4:13">
@@ -3326,83 +3326,83 @@
     </row>
     <row r="191" spans="4:13">
       <c r="F191" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="192" spans="4:13">
       <c r="G192" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J192" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K192" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L192" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M192" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="193" spans="6:13">
       <c r="G193" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I193" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J193" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K193" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L193" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="194" spans="6:13">
       <c r="F194" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="195" spans="6:13">
       <c r="G195" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I195" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J195" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K195" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L195" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M195" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="196" spans="6:13">
       <c r="G196" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I196" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J196" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K196" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L196" s="3">
         <v>1</v>
@@ -3410,354 +3410,354 @@
     </row>
     <row r="197" spans="6:13">
       <c r="F197" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I197" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J197" s="2"/>
       <c r="K197" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L197" s="2"/>
     </row>
     <row r="198" spans="6:13">
       <c r="G198" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I198" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J198" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K198" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L198" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="199" spans="6:13">
       <c r="G199" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I199" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J199" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K199" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L199" s="2"/>
     </row>
     <row r="200" spans="6:13">
       <c r="F200" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I200" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J200" s="2"/>
       <c r="K200" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L200" s="2"/>
     </row>
     <row r="201" spans="6:13">
       <c r="G201" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I201" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J201" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K201" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L201" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="202" spans="6:13">
       <c r="G202" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I202" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J202" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K202" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L202" s="2"/>
     </row>
     <row r="203" spans="6:13">
       <c r="F203" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="204" spans="6:13">
       <c r="G204" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I204" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J204" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K204" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="L204" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="J204" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K204" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="L204" s="3" t="s">
-        <v>149</v>
-      </c>
       <c r="M204" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="205" spans="6:13">
       <c r="G205" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I205" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J205" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K205" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L205" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M205" s="23"/>
     </row>
     <row r="206" spans="6:13">
       <c r="F206" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I206" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J206" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K206" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L206" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M206" s="23"/>
     </row>
     <row r="207" spans="6:13">
       <c r="F207" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="208" spans="6:13">
       <c r="G208" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I208" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J208" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K208" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L208" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M208" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="209" spans="5:13">
       <c r="G209" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I209" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J209" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K209" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L209" s="2"/>
     </row>
     <row r="210" spans="5:13">
       <c r="F210" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I210" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J210" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K210" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L210" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="211" spans="5:13">
       <c r="E211" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="212" spans="5:13">
       <c r="F212" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I212" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J212" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K212" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L212" s="2"/>
     </row>
     <row r="213" spans="5:13">
       <c r="G213" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I213" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J213" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K213" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L213" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="214" spans="5:13">
       <c r="G214" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I214" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J214" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K214" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L214" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="215" spans="5:13">
       <c r="G215" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I215" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J215" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K215" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L215" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="216" spans="5:13">
       <c r="G216" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I216" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J216" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K216" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L216" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="217" spans="5:13">
       <c r="G217" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I217" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J217" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K217" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L217" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="218" spans="5:13">
       <c r="G218" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I218" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J218" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K218" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L218" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="219" spans="5:13">
       <c r="G219" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I219" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J219" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K219" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L219" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="220" spans="5:13">
       <c r="G220" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I220" s="13"/>
       <c r="J220" s="13"/>
@@ -3766,42 +3766,42 @@
     </row>
     <row r="221" spans="5:13">
       <c r="H221" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I221" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J221" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K221" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L221" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="222" spans="5:13">
       <c r="H222" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I222" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J222" s="8"/>
       <c r="K222" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L222" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M222" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="223" spans="5:13">
       <c r="G223" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I223" s="13"/>
       <c r="J223" s="13"/>
@@ -3810,316 +3810,316 @@
     </row>
     <row r="224" spans="5:13">
       <c r="H224" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I224" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J224" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K224" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L224" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="225" spans="6:13">
       <c r="H225" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I225" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J225" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K225" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L225" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M225" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="226" spans="6:13">
       <c r="G226" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I226" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J226" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K226" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L226" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="227" spans="6:13">
       <c r="G227" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I227" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J227" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K227" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L227" s="4"/>
     </row>
     <row r="228" spans="6:13">
       <c r="G228" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I228" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J228" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K228" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L228" s="4"/>
     </row>
     <row r="229" spans="6:13">
       <c r="G229" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I229" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J229" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K229" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L229" s="4"/>
     </row>
     <row r="230" spans="6:13">
       <c r="G230" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I230" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J230" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K230" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L230" s="4"/>
     </row>
     <row r="231" spans="6:13">
       <c r="G231" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I231" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J231" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K231" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L231" s="4"/>
     </row>
     <row r="232" spans="6:13">
       <c r="G232" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I232" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J232" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K232" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L232" s="4"/>
     </row>
     <row r="233" spans="6:13">
       <c r="G233" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I233" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J233" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K233" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L233" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M233" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="234" spans="6:13">
       <c r="F234" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I234" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J234" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K234" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L234" s="2"/>
     </row>
     <row r="235" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G235" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="236" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G236" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="237" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G237" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="238" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G238" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="239" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G239" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="240" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G240" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="241" spans="7:8" hidden="1" outlineLevel="1">
       <c r="G241" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="242" spans="7:8" hidden="1" outlineLevel="1">
       <c r="G242" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="243" spans="7:8" hidden="1" outlineLevel="1">
       <c r="G243" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="244" spans="7:8" hidden="1" outlineLevel="1">
       <c r="G244" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="245" spans="7:8" hidden="1" outlineLevel="1">
       <c r="H245" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="246" spans="7:8" hidden="1" outlineLevel="1">
       <c r="H246" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="247" spans="7:8" hidden="1" outlineLevel="1">
       <c r="G247" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="248" spans="7:8" hidden="1" outlineLevel="1">
       <c r="H248" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="249" spans="7:8" hidden="1" outlineLevel="1">
       <c r="H249" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="250" spans="7:8" hidden="1" outlineLevel="1">
       <c r="G250" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="251" spans="7:8" hidden="1" outlineLevel="1">
       <c r="G251" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="252" spans="7:8" hidden="1" outlineLevel="1">
       <c r="G252" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="253" spans="7:8" hidden="1" outlineLevel="1">
       <c r="G253" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="254" spans="7:8" hidden="1" outlineLevel="1">
       <c r="G254" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="255" spans="7:8" hidden="1" outlineLevel="1">
       <c r="G255" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="256" spans="7:8" hidden="1" outlineLevel="1">
       <c r="G256" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="257" spans="6:12" hidden="1" outlineLevel="1">
       <c r="G257" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="258" spans="6:12" collapsed="1">
       <c r="F258" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I258" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J258" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K258" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L258" s="2"/>
     </row>
     <row r="259" spans="6:12">
       <c r="G259" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I259" s="2"/>
       <c r="J259" s="2"/>
@@ -4128,56 +4128,56 @@
     </row>
     <row r="260" spans="6:12">
       <c r="H260" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I260" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J260" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K260" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="J260" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K260" s="3" t="s">
+      <c r="L260" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="L260" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="261" spans="6:12">
       <c r="H261" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I261" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J261" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K261" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L261" s="2"/>
     </row>
     <row r="262" spans="6:12">
       <c r="H262" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I262" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J262" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K262" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="L262" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="J262" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K262" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="L262" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="263" spans="6:12">
       <c r="G263" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I263" s="2"/>
       <c r="J263" s="2"/>
@@ -4186,333 +4186,333 @@
     </row>
     <row r="264" spans="6:12">
       <c r="H264" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I264" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J264" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K264" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="J264" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K264" s="3" t="s">
+      <c r="L264" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="L264" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="265" spans="6:12">
       <c r="H265" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I265" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J265" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K265" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L265" s="2"/>
     </row>
     <row r="266" spans="6:12">
       <c r="H266" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I266" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J266" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K266" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="L266" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="J266" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K266" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="L266" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="267" spans="6:12">
       <c r="G267" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I267" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J267" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K267" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L267" s="2"/>
     </row>
     <row r="268" spans="6:12">
       <c r="G268" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I268" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J268" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K268" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L268" s="2"/>
     </row>
     <row r="269" spans="6:12">
       <c r="G269" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I269" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J269" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K269" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L269" s="4"/>
     </row>
     <row r="270" spans="6:12">
       <c r="G270" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I270" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J270" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K270" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L270" s="4"/>
     </row>
     <row r="271" spans="6:12">
       <c r="G271" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I271" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J271" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K271" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L271" s="4"/>
     </row>
     <row r="272" spans="6:12">
       <c r="G272" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I272" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J272" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K272" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L272" s="4"/>
     </row>
     <row r="273" spans="3:12">
       <c r="G273" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I273" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J273" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K273" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L273" s="4"/>
     </row>
     <row r="274" spans="3:12">
       <c r="G274" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I274" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J274" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K274" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L274" s="4"/>
     </row>
     <row r="275" spans="3:12">
       <c r="G275" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I275" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J275" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K275" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L275" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="276" spans="3:12">
       <c r="G276" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I276" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J276" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K276" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L276" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="278" spans="3:12">
       <c r="C278" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="279" spans="3:12">
       <c r="D279" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I279" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="280" spans="3:12" hidden="1" outlineLevel="1">
       <c r="E280" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="281" spans="3:12" hidden="1" outlineLevel="1">
       <c r="E281" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="282" spans="3:12" hidden="1" outlineLevel="1">
       <c r="E282" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="283" spans="3:12" hidden="1" outlineLevel="1">
       <c r="E283" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="284" spans="3:12" hidden="1" outlineLevel="1">
       <c r="E284" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="285" spans="3:12" hidden="1" outlineLevel="1">
       <c r="E285" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="286" spans="3:12" hidden="1" outlineLevel="1">
       <c r="E286" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="287" spans="3:12" hidden="1" outlineLevel="1">
       <c r="E287" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="288" spans="3:12" hidden="1" outlineLevel="1">
       <c r="E288" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="289" spans="4:6" hidden="1" outlineLevel="1">
       <c r="E289" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="290" spans="4:6" hidden="1" outlineLevel="1">
       <c r="E290" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="291" spans="4:6" hidden="1" outlineLevel="1">
       <c r="F291" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="292" spans="4:6" hidden="1" outlineLevel="1">
       <c r="F292" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="293" spans="4:6" hidden="1" outlineLevel="1">
       <c r="F293" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="294" spans="4:6" hidden="1" outlineLevel="1">
       <c r="F294" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="295" spans="4:6" hidden="1" outlineLevel="1">
       <c r="F295" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="296" spans="4:6" hidden="1" outlineLevel="1">
       <c r="F296" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="297" spans="4:6" hidden="1" outlineLevel="1">
       <c r="F297" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="298" spans="4:6" hidden="1" outlineLevel="1">
       <c r="F298" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="299" spans="4:6" hidden="1" outlineLevel="1">
       <c r="E299" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="300" spans="4:6" hidden="1" outlineLevel="1">
       <c r="F300" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="301" spans="4:6" hidden="1" outlineLevel="1">
       <c r="F301" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="302" spans="4:6" collapsed="1">
       <c r="D302" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="303" spans="4:6">
@@ -4522,83 +4522,83 @@
     </row>
     <row r="304" spans="4:6">
       <c r="F304" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="305" spans="6:13">
       <c r="G305" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I305" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J305" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K305" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L305" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M305" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="306" spans="6:13">
       <c r="G306" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I306" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J306" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K306" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L306" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="307" spans="6:13">
       <c r="F307" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="308" spans="6:13">
       <c r="G308" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I308" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J308" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K308" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L308" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M308" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="309" spans="6:13">
       <c r="G309" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I309" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J309" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K309" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L309" s="3">
         <v>1</v>
@@ -4606,354 +4606,354 @@
     </row>
     <row r="310" spans="6:13">
       <c r="F310" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I310" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J310" s="2"/>
       <c r="K310" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L310" s="2"/>
     </row>
     <row r="311" spans="6:13">
       <c r="G311" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I311" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J311" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K311" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L311" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="312" spans="6:13">
       <c r="G312" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I312" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J312" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K312" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L312" s="2"/>
     </row>
     <row r="313" spans="6:13">
       <c r="F313" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I313" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J313" s="2"/>
       <c r="K313" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L313" s="2"/>
     </row>
     <row r="314" spans="6:13">
       <c r="G314" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I314" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J314" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K314" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L314" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="315" spans="6:13">
       <c r="G315" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I315" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J315" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K315" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L315" s="2"/>
     </row>
     <row r="316" spans="6:13">
       <c r="F316" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="317" spans="6:13" ht="16" customHeight="1">
       <c r="G317" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I317" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J317" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K317" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="L317" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="J317" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K317" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="L317" s="3" t="s">
-        <v>149</v>
-      </c>
       <c r="M317" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="318" spans="6:13">
       <c r="G318" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I318" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J318" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K318" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L318" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M318" s="23"/>
     </row>
     <row r="319" spans="6:13">
       <c r="F319" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I319" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J319" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K319" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L319" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M319" s="23"/>
     </row>
     <row r="320" spans="6:13">
       <c r="F320" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="321" spans="5:13">
       <c r="G321" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I321" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J321" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K321" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L321" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M321" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="322" spans="5:13">
       <c r="G322" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I322" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J322" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K322" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L322" s="2"/>
     </row>
     <row r="323" spans="5:13">
       <c r="F323" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I323" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J323" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K323" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L323" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="324" spans="5:13">
       <c r="E324" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="325" spans="5:13">
       <c r="F325" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I325" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J325" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K325" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L325" s="2"/>
     </row>
     <row r="326" spans="5:13">
       <c r="G326" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I326" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J326" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K326" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L326" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="327" spans="5:13">
       <c r="G327" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I327" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J327" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K327" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L327" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="328" spans="5:13">
       <c r="G328" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I328" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J328" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K328" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L328" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="329" spans="5:13">
       <c r="G329" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I329" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J329" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K329" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L329" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="330" spans="5:13">
       <c r="G330" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I330" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J330" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K330" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L330" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="331" spans="5:13">
       <c r="G331" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I331" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J331" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K331" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L331" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="332" spans="5:13">
       <c r="G332" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I332" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J332" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K332" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L332" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="333" spans="5:13">
       <c r="G333" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I333" s="13"/>
       <c r="J333" s="13"/>
@@ -4962,42 +4962,42 @@
     </row>
     <row r="334" spans="5:13">
       <c r="H334" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I334" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J334" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K334" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L334" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="335" spans="5:13">
       <c r="H335" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I335" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J335" s="8"/>
       <c r="K335" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L335" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M335" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="336" spans="5:13">
       <c r="G336" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I336" s="13"/>
       <c r="J336" s="13"/>
@@ -5006,316 +5006,316 @@
     </row>
     <row r="337" spans="6:13">
       <c r="H337" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I337" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J337" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K337" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L337" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="338" spans="6:13">
       <c r="H338" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I338" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J338" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K338" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L338" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M338" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="339" spans="6:13">
       <c r="G339" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I339" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J339" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K339" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L339" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="340" spans="6:13">
       <c r="G340" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I340" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J340" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K340" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L340" s="4"/>
     </row>
     <row r="341" spans="6:13">
       <c r="G341" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I341" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J341" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K341" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L341" s="4"/>
     </row>
     <row r="342" spans="6:13">
       <c r="G342" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I342" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J342" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K342" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L342" s="4"/>
     </row>
     <row r="343" spans="6:13">
       <c r="G343" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I343" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J343" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K343" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L343" s="4"/>
     </row>
     <row r="344" spans="6:13">
       <c r="G344" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I344" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J344" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K344" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L344" s="4"/>
     </row>
     <row r="345" spans="6:13">
       <c r="G345" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I345" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J345" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K345" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L345" s="4"/>
     </row>
     <row r="346" spans="6:13">
       <c r="G346" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I346" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J346" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K346" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L346" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M346" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="347" spans="6:13">
       <c r="F347" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I347" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J347" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K347" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L347" s="2"/>
     </row>
     <row r="348" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G348" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="349" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G349" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="350" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G350" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="351" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G351" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="352" spans="6:13" hidden="1" outlineLevel="1">
       <c r="G352" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="353" spans="7:8" hidden="1" outlineLevel="1">
       <c r="G353" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="354" spans="7:8" hidden="1" outlineLevel="1">
       <c r="G354" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="355" spans="7:8" hidden="1" outlineLevel="1">
       <c r="G355" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="356" spans="7:8" hidden="1" outlineLevel="1">
       <c r="G356" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="357" spans="7:8" hidden="1" outlineLevel="1">
       <c r="G357" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="358" spans="7:8" hidden="1" outlineLevel="1">
       <c r="H358" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="359" spans="7:8" hidden="1" outlineLevel="1">
       <c r="H359" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="360" spans="7:8" hidden="1" outlineLevel="1">
       <c r="G360" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="361" spans="7:8" hidden="1" outlineLevel="1">
       <c r="H361" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="362" spans="7:8" hidden="1" outlineLevel="1">
       <c r="H362" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="363" spans="7:8" hidden="1" outlineLevel="1">
       <c r="G363" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="364" spans="7:8" hidden="1" outlineLevel="1">
       <c r="G364" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="365" spans="7:8" hidden="1" outlineLevel="1">
       <c r="G365" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="366" spans="7:8" hidden="1" outlineLevel="1">
       <c r="G366" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="367" spans="7:8" hidden="1" outlineLevel="1">
       <c r="G367" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="368" spans="7:8" hidden="1" outlineLevel="1">
       <c r="G368" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="369" spans="6:12" hidden="1" outlineLevel="1">
       <c r="G369" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="370" spans="6:12" hidden="1" outlineLevel="1">
       <c r="G370" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="371" spans="6:12" collapsed="1">
       <c r="F371" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I371" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J371" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K371" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L371" s="2"/>
     </row>
     <row r="372" spans="6:12">
       <c r="G372" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I372" s="2"/>
       <c r="J372" s="2"/>
@@ -5324,56 +5324,56 @@
     </row>
     <row r="373" spans="6:12">
       <c r="H373" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I373" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J373" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K373" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="J373" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K373" s="3" t="s">
+      <c r="L373" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="L373" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="374" spans="6:12">
       <c r="H374" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I374" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J374" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K374" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L374" s="2"/>
     </row>
     <row r="375" spans="6:12">
       <c r="H375" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I375" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J375" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K375" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="L375" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="J375" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K375" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="L375" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="376" spans="6:12">
       <c r="G376" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I376" s="2"/>
       <c r="J376" s="2"/>
@@ -5382,205 +5382,205 @@
     </row>
     <row r="377" spans="6:12">
       <c r="H377" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I377" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J377" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K377" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="J377" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K377" s="3" t="s">
+      <c r="L377" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="L377" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="378" spans="6:12">
       <c r="H378" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I378" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J378" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K378" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L378" s="2"/>
     </row>
     <row r="379" spans="6:12">
       <c r="H379" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I379" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J379" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K379" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="L379" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="J379" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K379" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="L379" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="380" spans="6:12">
       <c r="G380" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I380" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J380" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K380" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L380" s="2"/>
     </row>
     <row r="381" spans="6:12">
       <c r="G381" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I381" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J381" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K381" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L381" s="2"/>
     </row>
     <row r="382" spans="6:12">
       <c r="G382" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I382" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J382" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K382" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L382" s="4"/>
     </row>
     <row r="383" spans="6:12">
       <c r="G383" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I383" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J383" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K383" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L383" s="4"/>
     </row>
     <row r="384" spans="6:12">
       <c r="G384" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I384" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J384" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K384" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L384" s="4"/>
     </row>
     <row r="385" spans="3:12">
       <c r="G385" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I385" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J385" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K385" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L385" s="4"/>
     </row>
     <row r="386" spans="3:12">
       <c r="G386" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I386" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J386" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K386" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L386" s="4"/>
     </row>
     <row r="387" spans="3:12">
       <c r="G387" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I387" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J387" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K387" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L387" s="4"/>
     </row>
     <row r="388" spans="3:12">
       <c r="G388" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I388" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J388" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K388" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L388" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="389" spans="3:12">
       <c r="G389" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I389" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J389" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K389" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L389" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="390" spans="3:12">
@@ -5591,10 +5591,10 @@
     </row>
     <row r="392" spans="3:12" ht="46" customHeight="1">
       <c r="C392" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="I392" s="24" t="s">
         <v>228</v>
-      </c>
-      <c r="I392" s="24" t="s">
-        <v>229</v>
       </c>
       <c r="J392" s="24"/>
       <c r="K392" s="24"/>
@@ -5602,117 +5602,117 @@
     </row>
     <row r="393" spans="3:12">
       <c r="D393" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="394" spans="3:12">
       <c r="E394" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I394" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J394" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K394" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L394" s="3"/>
     </row>
     <row r="395" spans="3:12">
       <c r="E395" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I395" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J395" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K395" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L395" s="3"/>
     </row>
     <row r="396" spans="3:12">
       <c r="E396" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I396" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J396" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K396" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L396" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="397" spans="3:12">
       <c r="E397" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I397" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J397" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K397" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L397" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="398" spans="3:12">
       <c r="E398" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I398" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J398" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K398" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L398" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="399" spans="3:12">
       <c r="E399" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I399" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J399" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="J399" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="K399" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L399" s="3"/>
     </row>
     <row r="400" spans="3:12">
       <c r="F400" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I400" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J400" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K400" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L400" s="3">
         <v>123456789</v>
@@ -5720,101 +5720,101 @@
     </row>
     <row r="401" spans="5:12">
       <c r="F401" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I401" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J401" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K401" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L401" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="402" spans="5:12">
       <c r="F402" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I402" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J402" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K402" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L402" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="403" spans="5:12">
       <c r="F403" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I403" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J403" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K403" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L403" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="404" spans="5:12">
       <c r="F404" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I404" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J404" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K404" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L404" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="405" spans="5:12">
       <c r="F405" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I405" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J405" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K405" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L405" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="406" spans="5:12">
       <c r="F406" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I406" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J406" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K406" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L406" s="3">
         <v>40</v>
@@ -5822,46 +5822,46 @@
     </row>
     <row r="407" spans="5:12">
       <c r="F407" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I407" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J407" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K407" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L407" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="408" spans="5:12">
       <c r="E408" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I408" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J408" s="2"/>
       <c r="K408" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L408" s="2"/>
     </row>
     <row r="409" spans="5:12">
       <c r="F409" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I409" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J409" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K409" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L409" s="3">
         <v>123456789</v>
@@ -5869,19 +5869,19 @@
     </row>
     <row r="410" spans="5:12">
       <c r="F410" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I410" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J410" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K410" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L410" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation.xlsx
+++ b/Documentation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinzimmermann/Github/refractive-JSON/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319CC651-EF3F-3C47-BA30-6A85093769AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15138AD-5744-D145-BE9A-310ADCF555DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{97470A89-5A9D-474B-83A0-7CF02DF1D5C9}"/>
+    <workbookView xWindow="51200" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{97470A89-5A9D-474B-83A0-7CF02DF1D5C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="237">
   <si>
     <t>{</t>
   </si>
@@ -824,7 +823,13 @@
     <t>This field is mandatory if a Vertical prism power is entered</t>
   </si>
   <si>
-    <t>jsonVersion:0.1.4,</t>
+    <t>jsonVersion:0.1.5,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time (H:M:S) ISO 8601 UTC </t>
+  </si>
+  <si>
+    <t>15:45:10</t>
   </si>
 </sst>
 </file>
@@ -1305,8 +1310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35CFF79E-0D8B-AF4F-8800-07737C044728}">
   <dimension ref="A1:Q410"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A355" zoomScale="137" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1"/>
@@ -1621,7 +1626,7 @@
         <v>17</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>97</v>
+        <v>235</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>87</v>
@@ -1630,7 +1635,7 @@
         <v>83</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>151</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="5:13">
@@ -2302,73 +2307,73 @@
       </c>
       <c r="L68" s="2"/>
     </row>
-    <row r="69" spans="6:13" hidden="1" outlineLevel="1">
+    <row r="69" spans="6:13" outlineLevel="1">
       <c r="G69" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K69" s="3"/>
     </row>
-    <row r="70" spans="6:13" hidden="1" outlineLevel="1">
+    <row r="70" spans="6:13" outlineLevel="1">
       <c r="G70" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="6:13" hidden="1" outlineLevel="1">
+    <row r="71" spans="6:13" outlineLevel="1">
       <c r="G71" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K71" s="3"/>
     </row>
-    <row r="72" spans="6:13" hidden="1" outlineLevel="1">
+    <row r="72" spans="6:13" outlineLevel="1">
       <c r="G72" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="6:13" hidden="1" outlineLevel="1">
+    <row r="73" spans="6:13" outlineLevel="1">
       <c r="G73" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="6:13" hidden="1" outlineLevel="1">
+    <row r="74" spans="6:13" outlineLevel="1">
       <c r="G74" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="6:13" hidden="1" outlineLevel="1">
+    <row r="75" spans="6:13" outlineLevel="1">
       <c r="G75" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K75" s="3"/>
     </row>
-    <row r="76" spans="6:13" hidden="1" outlineLevel="1">
+    <row r="76" spans="6:13" outlineLevel="1">
       <c r="G76" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="6:13" hidden="1" outlineLevel="1">
+    <row r="77" spans="6:13" outlineLevel="1">
       <c r="G77" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K77" s="3"/>
     </row>
-    <row r="78" spans="6:13" hidden="1" outlineLevel="1">
+    <row r="78" spans="6:13" outlineLevel="1">
       <c r="G78" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K78" s="3"/>
     </row>
-    <row r="79" spans="6:13" hidden="1" outlineLevel="1">
+    <row r="79" spans="6:13" outlineLevel="1">
       <c r="G79" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K79" s="3"/>
     </row>
-    <row r="80" spans="6:13" collapsed="1">
+    <row r="80" spans="6:13">
       <c r="F80" s="1" t="s">
         <v>52</v>
       </c>
@@ -2526,117 +2531,117 @@
         <v>146</v>
       </c>
     </row>
-    <row r="92" spans="3:13" hidden="1" outlineLevel="1">
+    <row r="92" spans="3:13" outlineLevel="1">
       <c r="E92" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="3:13" hidden="1" outlineLevel="1">
+    <row r="93" spans="3:13" outlineLevel="1">
       <c r="E93" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="3:13" hidden="1" outlineLevel="1">
+    <row r="94" spans="3:13" outlineLevel="1">
       <c r="E94" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="3:13" hidden="1" outlineLevel="1">
+    <row r="95" spans="3:13" outlineLevel="1">
       <c r="E95" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="3:13" hidden="1" outlineLevel="1">
+    <row r="96" spans="3:13" outlineLevel="1">
       <c r="E96" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="5:6" hidden="1" outlineLevel="1">
+    <row r="97" spans="5:6" outlineLevel="1">
       <c r="E97" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="98" spans="5:6" hidden="1" outlineLevel="1">
+    <row r="98" spans="5:6" outlineLevel="1">
       <c r="E98" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="5:6" hidden="1" outlineLevel="1">
+    <row r="99" spans="5:6" outlineLevel="1">
       <c r="E99" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="100" spans="5:6" hidden="1" outlineLevel="1">
+    <row r="100" spans="5:6" outlineLevel="1">
       <c r="E100" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="5:6" hidden="1" outlineLevel="1">
+    <row r="101" spans="5:6" outlineLevel="1">
       <c r="E101" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="102" spans="5:6" hidden="1" outlineLevel="1">
+    <row r="102" spans="5:6" outlineLevel="1">
       <c r="E102" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="103" spans="5:6" hidden="1" outlineLevel="1">
+    <row r="103" spans="5:6" outlineLevel="1">
       <c r="F103" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="5:6" hidden="1" outlineLevel="1">
+    <row r="104" spans="5:6" outlineLevel="1">
       <c r="F104" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="5:6" hidden="1" outlineLevel="1">
+    <row r="105" spans="5:6" outlineLevel="1">
       <c r="F105" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="106" spans="5:6" hidden="1" outlineLevel="1">
+    <row r="106" spans="5:6" outlineLevel="1">
       <c r="F106" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="107" spans="5:6" hidden="1" outlineLevel="1">
+    <row r="107" spans="5:6" outlineLevel="1">
       <c r="F107" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="108" spans="5:6" hidden="1" outlineLevel="1">
+    <row r="108" spans="5:6" outlineLevel="1">
       <c r="F108" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="109" spans="5:6" hidden="1" outlineLevel="1">
+    <row r="109" spans="5:6" outlineLevel="1">
       <c r="F109" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="110" spans="5:6" hidden="1" outlineLevel="1">
+    <row r="110" spans="5:6" outlineLevel="1">
       <c r="F110" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="5:6" hidden="1" outlineLevel="1">
+    <row r="111" spans="5:6" outlineLevel="1">
       <c r="E111" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="112" spans="5:6" hidden="1" outlineLevel="1">
+    <row r="112" spans="5:6" outlineLevel="1">
       <c r="F112" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="4:13" hidden="1" outlineLevel="1">
+    <row r="113" spans="4:13" outlineLevel="1">
       <c r="F113" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="114" spans="4:13" collapsed="1">
+    <row r="114" spans="4:13">
       <c r="D114" s="1" t="s">
         <v>29</v>
       </c>
@@ -3055,7 +3060,7 @@
       <c r="K143" s="14"/>
       <c r="L143" s="14"/>
     </row>
-    <row r="144" spans="6:13" hidden="1" outlineLevel="1">
+    <row r="144" spans="6:13" outlineLevel="1">
       <c r="G144" s="1" t="s">
         <v>40</v>
       </c>
@@ -3072,87 +3077,87 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="145" spans="7:8" hidden="1" outlineLevel="1">
+    <row r="145" spans="7:8" outlineLevel="1">
       <c r="G145" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="146" spans="7:8" hidden="1" outlineLevel="1">
+    <row r="146" spans="7:8" outlineLevel="1">
       <c r="G146" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="147" spans="7:8" hidden="1" outlineLevel="1">
+    <row r="147" spans="7:8" outlineLevel="1">
       <c r="G147" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="148" spans="7:8" hidden="1" outlineLevel="1">
+    <row r="148" spans="7:8" outlineLevel="1">
       <c r="G148" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="149" spans="7:8" hidden="1" outlineLevel="1">
+    <row r="149" spans="7:8" outlineLevel="1">
       <c r="G149" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="150" spans="7:8" hidden="1" outlineLevel="1">
+    <row r="150" spans="7:8" outlineLevel="1">
       <c r="G150" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="151" spans="7:8" hidden="1" outlineLevel="1">
+    <row r="151" spans="7:8" outlineLevel="1">
       <c r="G151" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="152" spans="7:8" hidden="1" outlineLevel="1">
+    <row r="152" spans="7:8" outlineLevel="1">
       <c r="G152" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="153" spans="7:8" hidden="1" outlineLevel="1">
+    <row r="153" spans="7:8" outlineLevel="1">
       <c r="G153" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="154" spans="7:8" hidden="1" outlineLevel="1">
+    <row r="154" spans="7:8" outlineLevel="1">
       <c r="G154" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="155" spans="7:8" hidden="1" outlineLevel="1">
+    <row r="155" spans="7:8" outlineLevel="1">
       <c r="H155" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="156" spans="7:8" hidden="1" outlineLevel="1">
+    <row r="156" spans="7:8" outlineLevel="1">
       <c r="H156" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="157" spans="7:8" hidden="1" outlineLevel="1">
+    <row r="157" spans="7:8" outlineLevel="1">
       <c r="G157" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="158" spans="7:8" hidden="1" outlineLevel="1">
+    <row r="158" spans="7:8" outlineLevel="1">
       <c r="H158" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="159" spans="7:8" hidden="1" outlineLevel="1">
+    <row r="159" spans="7:8" outlineLevel="1">
       <c r="H159" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="160" spans="7:8" hidden="1" outlineLevel="1">
+    <row r="160" spans="7:8" outlineLevel="1">
       <c r="G160" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="161" spans="3:12" collapsed="1">
+    <row r="161" spans="3:12">
       <c r="F161" s="1" t="s">
         <v>52</v>
       </c>
@@ -3204,117 +3209,117 @@
         <v>146</v>
       </c>
     </row>
-    <row r="167" spans="3:12" hidden="1" outlineLevel="1">
+    <row r="167" spans="3:12" outlineLevel="1">
       <c r="E167" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="3:12" hidden="1" outlineLevel="1">
+    <row r="168" spans="3:12" outlineLevel="1">
       <c r="E168" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="169" spans="3:12" hidden="1" outlineLevel="1">
+    <row r="169" spans="3:12" outlineLevel="1">
       <c r="E169" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="170" spans="3:12" hidden="1" outlineLevel="1">
+    <row r="170" spans="3:12" outlineLevel="1">
       <c r="E170" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="3:12" hidden="1" outlineLevel="1">
+    <row r="171" spans="3:12" outlineLevel="1">
       <c r="E171" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="172" spans="3:12" hidden="1" outlineLevel="1">
+    <row r="172" spans="3:12" outlineLevel="1">
       <c r="E172" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="173" spans="3:12" hidden="1" outlineLevel="1">
+    <row r="173" spans="3:12" outlineLevel="1">
       <c r="E173" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="3:12" hidden="1" outlineLevel="1">
+    <row r="174" spans="3:12" outlineLevel="1">
       <c r="E174" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="175" spans="3:12" hidden="1" outlineLevel="1">
+    <row r="175" spans="3:12" outlineLevel="1">
       <c r="E175" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="176" spans="3:12" hidden="1" outlineLevel="1">
+    <row r="176" spans="3:12" outlineLevel="1">
       <c r="E176" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="177" spans="4:13" hidden="1" outlineLevel="1">
+    <row r="177" spans="4:13" outlineLevel="1">
       <c r="E177" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="178" spans="4:13" hidden="1" outlineLevel="1">
+    <row r="178" spans="4:13" outlineLevel="1">
       <c r="F178" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="179" spans="4:13" hidden="1" outlineLevel="1">
+    <row r="179" spans="4:13" outlineLevel="1">
       <c r="F179" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="180" spans="4:13" hidden="1" outlineLevel="1">
+    <row r="180" spans="4:13" outlineLevel="1">
       <c r="F180" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="181" spans="4:13" hidden="1" outlineLevel="1">
+    <row r="181" spans="4:13" outlineLevel="1">
       <c r="F181" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="182" spans="4:13" hidden="1" outlineLevel="1">
+    <row r="182" spans="4:13" outlineLevel="1">
       <c r="F182" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="183" spans="4:13" hidden="1" outlineLevel="1">
+    <row r="183" spans="4:13" outlineLevel="1">
       <c r="F183" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="184" spans="4:13" hidden="1" outlineLevel="1">
+    <row r="184" spans="4:13" outlineLevel="1">
       <c r="F184" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="185" spans="4:13" hidden="1" outlineLevel="1">
+    <row r="185" spans="4:13" outlineLevel="1">
       <c r="F185" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="186" spans="4:13" hidden="1" outlineLevel="1">
+    <row r="186" spans="4:13" outlineLevel="1">
       <c r="E186" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="187" spans="4:13" hidden="1" outlineLevel="1">
+    <row r="187" spans="4:13" outlineLevel="1">
       <c r="F187" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="188" spans="4:13" hidden="1" outlineLevel="1">
+    <row r="188" spans="4:13" outlineLevel="1">
       <c r="F188" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="189" spans="4:13" collapsed="1">
+    <row r="189" spans="4:13">
       <c r="D189" s="1" t="s">
         <v>29</v>
       </c>
@@ -3987,122 +3992,122 @@
       </c>
       <c r="L234" s="2"/>
     </row>
-    <row r="235" spans="6:13" hidden="1" outlineLevel="1">
+    <row r="235" spans="6:13" outlineLevel="1">
       <c r="G235" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="236" spans="6:13" hidden="1" outlineLevel="1">
+    <row r="236" spans="6:13" outlineLevel="1">
       <c r="G236" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="237" spans="6:13" hidden="1" outlineLevel="1">
+    <row r="237" spans="6:13" outlineLevel="1">
       <c r="G237" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="238" spans="6:13" hidden="1" outlineLevel="1">
+    <row r="238" spans="6:13" outlineLevel="1">
       <c r="G238" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="239" spans="6:13" hidden="1" outlineLevel="1">
+    <row r="239" spans="6:13" outlineLevel="1">
       <c r="G239" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="240" spans="6:13" hidden="1" outlineLevel="1">
+    <row r="240" spans="6:13" outlineLevel="1">
       <c r="G240" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="241" spans="7:8" hidden="1" outlineLevel="1">
+    <row r="241" spans="7:8" outlineLevel="1">
       <c r="G241" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="242" spans="7:8" hidden="1" outlineLevel="1">
+    <row r="242" spans="7:8" outlineLevel="1">
       <c r="G242" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="243" spans="7:8" hidden="1" outlineLevel="1">
+    <row r="243" spans="7:8" outlineLevel="1">
       <c r="G243" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="244" spans="7:8" hidden="1" outlineLevel="1">
+    <row r="244" spans="7:8" outlineLevel="1">
       <c r="G244" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="245" spans="7:8" hidden="1" outlineLevel="1">
+    <row r="245" spans="7:8" outlineLevel="1">
       <c r="H245" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="246" spans="7:8" hidden="1" outlineLevel="1">
+    <row r="246" spans="7:8" outlineLevel="1">
       <c r="H246" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="247" spans="7:8" hidden="1" outlineLevel="1">
+    <row r="247" spans="7:8" outlineLevel="1">
       <c r="G247" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="248" spans="7:8" hidden="1" outlineLevel="1">
+    <row r="248" spans="7:8" outlineLevel="1">
       <c r="H248" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="249" spans="7:8" hidden="1" outlineLevel="1">
+    <row r="249" spans="7:8" outlineLevel="1">
       <c r="H249" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="250" spans="7:8" hidden="1" outlineLevel="1">
+    <row r="250" spans="7:8" outlineLevel="1">
       <c r="G250" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="251" spans="7:8" hidden="1" outlineLevel="1">
+    <row r="251" spans="7:8" outlineLevel="1">
       <c r="G251" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="252" spans="7:8" hidden="1" outlineLevel="1">
+    <row r="252" spans="7:8" outlineLevel="1">
       <c r="G252" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="253" spans="7:8" hidden="1" outlineLevel="1">
+    <row r="253" spans="7:8" outlineLevel="1">
       <c r="G253" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="254" spans="7:8" hidden="1" outlineLevel="1">
+    <row r="254" spans="7:8" outlineLevel="1">
       <c r="G254" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="255" spans="7:8" hidden="1" outlineLevel="1">
+    <row r="255" spans="7:8" outlineLevel="1">
       <c r="G255" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="256" spans="7:8" hidden="1" outlineLevel="1">
+    <row r="256" spans="7:8" outlineLevel="1">
       <c r="G256" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="257" spans="6:12" hidden="1" outlineLevel="1">
+    <row r="257" spans="6:12" outlineLevel="1">
       <c r="G257" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="258" spans="6:12" collapsed="1">
+    <row r="258" spans="6:12">
       <c r="F258" s="1" t="s">
         <v>52</v>
       </c>
@@ -4400,117 +4405,117 @@
         <v>146</v>
       </c>
     </row>
-    <row r="280" spans="3:12" hidden="1" outlineLevel="1">
+    <row r="280" spans="3:12" outlineLevel="1">
       <c r="E280" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="281" spans="3:12" hidden="1" outlineLevel="1">
+    <row r="281" spans="3:12" outlineLevel="1">
       <c r="E281" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="282" spans="3:12" hidden="1" outlineLevel="1">
+    <row r="282" spans="3:12" outlineLevel="1">
       <c r="E282" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="283" spans="3:12" hidden="1" outlineLevel="1">
+    <row r="283" spans="3:12" outlineLevel="1">
       <c r="E283" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="284" spans="3:12" hidden="1" outlineLevel="1">
+    <row r="284" spans="3:12" outlineLevel="1">
       <c r="E284" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="285" spans="3:12" hidden="1" outlineLevel="1">
+    <row r="285" spans="3:12" outlineLevel="1">
       <c r="E285" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="286" spans="3:12" hidden="1" outlineLevel="1">
+    <row r="286" spans="3:12" outlineLevel="1">
       <c r="E286" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="287" spans="3:12" hidden="1" outlineLevel="1">
+    <row r="287" spans="3:12" outlineLevel="1">
       <c r="E287" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="288" spans="3:12" hidden="1" outlineLevel="1">
+    <row r="288" spans="3:12" outlineLevel="1">
       <c r="E288" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="289" spans="4:6" hidden="1" outlineLevel="1">
+    <row r="289" spans="4:6" outlineLevel="1">
       <c r="E289" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="290" spans="4:6" hidden="1" outlineLevel="1">
+    <row r="290" spans="4:6" outlineLevel="1">
       <c r="E290" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="291" spans="4:6" hidden="1" outlineLevel="1">
+    <row r="291" spans="4:6" outlineLevel="1">
       <c r="F291" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="292" spans="4:6" hidden="1" outlineLevel="1">
+    <row r="292" spans="4:6" outlineLevel="1">
       <c r="F292" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="293" spans="4:6" hidden="1" outlineLevel="1">
+    <row r="293" spans="4:6" outlineLevel="1">
       <c r="F293" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="294" spans="4:6" hidden="1" outlineLevel="1">
+    <row r="294" spans="4:6" outlineLevel="1">
       <c r="F294" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="295" spans="4:6" hidden="1" outlineLevel="1">
+    <row r="295" spans="4:6" outlineLevel="1">
       <c r="F295" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="296" spans="4:6" hidden="1" outlineLevel="1">
+    <row r="296" spans="4:6" outlineLevel="1">
       <c r="F296" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="297" spans="4:6" hidden="1" outlineLevel="1">
+    <row r="297" spans="4:6" outlineLevel="1">
       <c r="F297" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="298" spans="4:6" hidden="1" outlineLevel="1">
+    <row r="298" spans="4:6" outlineLevel="1">
       <c r="F298" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="299" spans="4:6" hidden="1" outlineLevel="1">
+    <row r="299" spans="4:6" outlineLevel="1">
       <c r="E299" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="300" spans="4:6" hidden="1" outlineLevel="1">
+    <row r="300" spans="4:6" outlineLevel="1">
       <c r="F300" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="301" spans="4:6" hidden="1" outlineLevel="1">
+    <row r="301" spans="4:6" outlineLevel="1">
       <c r="F301" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="302" spans="4:6" collapsed="1">
+    <row r="302" spans="4:6">
       <c r="D302" s="1" t="s">
         <v>29</v>
       </c>
@@ -5183,122 +5188,122 @@
       </c>
       <c r="L347" s="2"/>
     </row>
-    <row r="348" spans="6:13" hidden="1" outlineLevel="1">
+    <row r="348" spans="6:13" outlineLevel="1">
       <c r="G348" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="349" spans="6:13" hidden="1" outlineLevel="1">
+    <row r="349" spans="6:13" outlineLevel="1">
       <c r="G349" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="350" spans="6:13" hidden="1" outlineLevel="1">
+    <row r="350" spans="6:13" outlineLevel="1">
       <c r="G350" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="351" spans="6:13" hidden="1" outlineLevel="1">
+    <row r="351" spans="6:13" outlineLevel="1">
       <c r="G351" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="352" spans="6:13" hidden="1" outlineLevel="1">
+    <row r="352" spans="6:13" outlineLevel="1">
       <c r="G352" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="353" spans="7:8" hidden="1" outlineLevel="1">
+    <row r="353" spans="7:8" outlineLevel="1">
       <c r="G353" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="354" spans="7:8" hidden="1" outlineLevel="1">
+    <row r="354" spans="7:8" outlineLevel="1">
       <c r="G354" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="355" spans="7:8" hidden="1" outlineLevel="1">
+    <row r="355" spans="7:8" outlineLevel="1">
       <c r="G355" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="356" spans="7:8" hidden="1" outlineLevel="1">
+    <row r="356" spans="7:8" outlineLevel="1">
       <c r="G356" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="357" spans="7:8" hidden="1" outlineLevel="1">
+    <row r="357" spans="7:8" outlineLevel="1">
       <c r="G357" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="358" spans="7:8" hidden="1" outlineLevel="1">
+    <row r="358" spans="7:8" outlineLevel="1">
       <c r="H358" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="359" spans="7:8" hidden="1" outlineLevel="1">
+    <row r="359" spans="7:8" outlineLevel="1">
       <c r="H359" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="360" spans="7:8" hidden="1" outlineLevel="1">
+    <row r="360" spans="7:8" outlineLevel="1">
       <c r="G360" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="361" spans="7:8" hidden="1" outlineLevel="1">
+    <row r="361" spans="7:8" outlineLevel="1">
       <c r="H361" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="362" spans="7:8" hidden="1" outlineLevel="1">
+    <row r="362" spans="7:8" outlineLevel="1">
       <c r="H362" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="363" spans="7:8" hidden="1" outlineLevel="1">
+    <row r="363" spans="7:8" outlineLevel="1">
       <c r="G363" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="364" spans="7:8" hidden="1" outlineLevel="1">
+    <row r="364" spans="7:8" outlineLevel="1">
       <c r="G364" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="365" spans="7:8" hidden="1" outlineLevel="1">
+    <row r="365" spans="7:8" outlineLevel="1">
       <c r="G365" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="366" spans="7:8" hidden="1" outlineLevel="1">
+    <row r="366" spans="7:8" outlineLevel="1">
       <c r="G366" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="367" spans="7:8" hidden="1" outlineLevel="1">
+    <row r="367" spans="7:8" outlineLevel="1">
       <c r="G367" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="368" spans="7:8" hidden="1" outlineLevel="1">
+    <row r="368" spans="7:8" outlineLevel="1">
       <c r="G368" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="369" spans="6:12" hidden="1" outlineLevel="1">
+    <row r="369" spans="6:12" outlineLevel="1">
       <c r="G369" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="370" spans="6:12" hidden="1" outlineLevel="1">
+    <row r="370" spans="6:12" outlineLevel="1">
       <c r="G370" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="371" spans="6:12" collapsed="1">
+    <row r="371" spans="6:12">
       <c r="F371" s="1" t="s">
         <v>52</v>
       </c>

--- a/Documentation.xlsx
+++ b/Documentation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinzimmermann/Github/refractive-JSON/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15138AD-5744-D145-BE9A-310ADCF555DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C00A85-C23A-E848-8095-2441FB511623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{97470A89-5A9D-474B-83A0-7CF02DF1D5C9}"/>
+    <workbookView xWindow="1620" yWindow="500" windowWidth="51200" windowHeight="26880" xr2:uid="{97470A89-5A9D-474B-83A0-7CF02DF1D5C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="236">
   <si>
     <t>{</t>
   </si>
@@ -301,9 +301,6 @@
   </si>
   <si>
     <t>Δ</t>
-  </si>
-  <si>
-    <t>Haag-Streit</t>
   </si>
   <si>
     <t>Hostname</t>
@@ -685,9 +682,6 @@
     <t>convergence:{</t>
   </si>
   <si>
-    <t>null, com1, api, mqtt, nfc, lora,…</t>
-  </si>
-  <si>
     <t>hostName</t>
   </si>
   <si>
@@ -784,9 +778,6 @@
     <t>0.00</t>
   </si>
   <si>
-    <t>We are waiting for the return of Haag-Streit in order to clearly define which units and measurement methods the phoropter must be able to receive and transmit</t>
-  </si>
-  <si>
     <t>31.5</t>
   </si>
   <si>
@@ -830,6 +821,12 @@
   </si>
   <si>
     <t>15:45:10</t>
+  </si>
+  <si>
+    <t>null, UART:COM1, MQTT:topic1, NFC, API,…</t>
+  </si>
+  <si>
+    <t>Nidek</t>
   </si>
 </sst>
 </file>
@@ -936,7 +933,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -994,6 +991,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1310,8 +1308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35CFF79E-0D8B-AF4F-8800-07737C044728}">
   <dimension ref="A1:Q410"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A355" zoomScale="137" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
+      <selection activeCell="M123" sqref="M123:M125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1"/>
@@ -1349,7 +1347,7 @@
         <v>81</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1367,17 +1365,17 @@
         <v>2</v>
       </c>
       <c r="N4" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="O4" s="22" t="s">
         <v>138</v>
-      </c>
-      <c r="O4" s="22" t="s">
-        <v>139</v>
       </c>
       <c r="P4" s="22"/>
       <c r="Q4" s="22"/>
     </row>
     <row r="5" spans="1:17">
       <c r="C5" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>84</v>
@@ -1392,7 +1390,7 @@
         <v>83</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
@@ -1414,7 +1412,7 @@
         <v>88</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
@@ -1424,7 +1422,7 @@
         <v>4</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>87</v>
@@ -1438,7 +1436,7 @@
         <v>5</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>87</v>
@@ -1446,8 +1444,8 @@
       <c r="K9" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>188</v>
+      <c r="L9" s="25" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="34">
@@ -1455,7 +1453,7 @@
         <v>6</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>87</v>
@@ -1463,11 +1461,11 @@
       <c r="K10" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>188</v>
+      <c r="L10" s="25" t="s">
+        <v>234</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1504,24 +1502,24 @@
         <v>88</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>89</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="E16" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L16" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="17" spans="5:13">
@@ -1529,16 +1527,16 @@
         <v>12</v>
       </c>
       <c r="I17" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L17" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="18" spans="5:13">
@@ -1546,7 +1544,7 @@
         <v>13</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>87</v>
@@ -1561,7 +1559,7 @@
         <v>14</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>87</v>
@@ -1576,7 +1574,7 @@
         <v>75</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>87</v>
@@ -1586,7 +1584,7 @@
       </c>
       <c r="L20" s="3"/>
       <c r="M20" s="18" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="5:13">
@@ -1594,7 +1592,7 @@
         <v>15</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>87</v>
@@ -1609,7 +1607,7 @@
         <v>16</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>87</v>
@@ -1618,7 +1616,7 @@
         <v>83</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="5:13">
@@ -1626,7 +1624,7 @@
         <v>17</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>87</v>
@@ -1635,7 +1633,7 @@
         <v>83</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="5:13">
@@ -1643,7 +1641,7 @@
         <v>76</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>87</v>
@@ -1652,7 +1650,7 @@
         <v>88</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="5:13">
@@ -1660,10 +1658,10 @@
         <v>18</v>
       </c>
       <c r="I25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>88</v>
@@ -1675,10 +1673,10 @@
         <v>19</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>88</v>
@@ -1692,7 +1690,7 @@
         <v>20</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>87</v>
@@ -1701,7 +1699,7 @@
         <v>88</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="5:13">
@@ -1709,7 +1707,7 @@
         <v>21</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>87</v>
@@ -1718,7 +1716,7 @@
         <v>88</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="5:13">
@@ -1726,7 +1724,7 @@
         <v>22</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>87</v>
@@ -1735,7 +1733,7 @@
         <v>88</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="5:13">
@@ -1743,7 +1741,7 @@
         <v>23</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>87</v>
@@ -1752,7 +1750,7 @@
         <v>88</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="5:13">
@@ -1760,7 +1758,7 @@
         <v>24</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>87</v>
@@ -1769,7 +1767,7 @@
         <v>88</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="5:13">
@@ -1777,10 +1775,10 @@
         <v>25</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>88</v>
@@ -1794,7 +1792,7 @@
         <v>26</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>87</v>
@@ -1803,7 +1801,7 @@
         <v>88</v>
       </c>
       <c r="L33" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="4:13">
@@ -1811,7 +1809,7 @@
         <v>27</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="3" t="s">
@@ -1824,10 +1822,10 @@
         <v>19</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>88</v>
@@ -1841,7 +1839,7 @@
         <v>28</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>87</v>
@@ -1850,7 +1848,7 @@
         <v>88</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="4:13">
@@ -1873,7 +1871,7 @@
         <v>31</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>87</v>
@@ -1882,10 +1880,10 @@
         <v>83</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="4:13">
@@ -1893,16 +1891,16 @@
         <v>32</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="42" spans="4:13">
@@ -1915,7 +1913,7 @@
         <v>31</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>87</v>
@@ -1924,10 +1922,10 @@
         <v>83</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="44" spans="4:13">
@@ -1935,13 +1933,13 @@
         <v>32</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L44" s="3">
         <v>1</v>
@@ -1952,7 +1950,7 @@
         <v>34</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J45" s="2"/>
       <c r="K45" s="3" t="s">
@@ -1965,7 +1963,7 @@
         <v>31</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>87</v>
@@ -1974,7 +1972,7 @@
         <v>88</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="47" spans="4:13">
@@ -1982,7 +1980,7 @@
         <v>32</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>19</v>
@@ -1997,7 +1995,7 @@
         <v>35</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J48" s="2"/>
       <c r="K48" s="3" t="s">
@@ -2010,7 +2008,7 @@
         <v>31</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>87</v>
@@ -2019,7 +2017,7 @@
         <v>88</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="50" spans="5:13">
@@ -2027,7 +2025,7 @@
         <v>32</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>19</v>
@@ -2047,7 +2045,7 @@
         <v>31</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>87</v>
@@ -2056,10 +2054,10 @@
         <v>83</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="53" spans="5:13">
@@ -2067,7 +2065,7 @@
         <v>32</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>19</v>
@@ -2082,7 +2080,7 @@
         <v>37</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>87</v>
@@ -2091,7 +2089,7 @@
         <v>88</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="55" spans="5:13">
@@ -2104,7 +2102,7 @@
         <v>39</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>82</v>
@@ -2119,7 +2117,7 @@
         <v>40</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>19</v>
@@ -2128,7 +2126,7 @@
         <v>88</v>
       </c>
       <c r="L57" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="58" spans="5:13">
@@ -2136,7 +2134,7 @@
         <v>41</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>19</v>
@@ -2145,7 +2143,7 @@
         <v>88</v>
       </c>
       <c r="L58" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="59" spans="5:13">
@@ -2153,7 +2151,7 @@
         <v>42</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>19</v>
@@ -2162,7 +2160,7 @@
         <v>88</v>
       </c>
       <c r="L59" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="60" spans="5:13">
@@ -2170,7 +2168,7 @@
         <v>43</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>19</v>
@@ -2179,7 +2177,7 @@
         <v>88</v>
       </c>
       <c r="L60" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="61" spans="5:13">
@@ -2187,7 +2185,7 @@
         <v>44</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>87</v>
@@ -2202,7 +2200,7 @@
         <v>45</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>87</v>
@@ -2217,7 +2215,7 @@
         <v>46</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>87</v>
@@ -2232,7 +2230,7 @@
         <v>47</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>87</v>
@@ -2247,7 +2245,7 @@
         <v>48</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>87</v>
@@ -2262,7 +2260,7 @@
         <v>49</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>87</v>
@@ -2277,19 +2275,19 @@
         <v>50</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L67" s="17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="68" spans="6:13">
@@ -2297,7 +2295,7 @@
         <v>51</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>82</v>
@@ -2378,7 +2376,7 @@
         <v>52</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>82</v>
@@ -2393,7 +2391,7 @@
         <v>44</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J81" s="2" t="s">
         <v>87</v>
@@ -2408,7 +2406,7 @@
         <v>45</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>87</v>
@@ -2423,7 +2421,7 @@
         <v>46</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>87</v>
@@ -2438,7 +2436,7 @@
         <v>47</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>87</v>
@@ -2453,7 +2451,7 @@
         <v>48</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>87</v>
@@ -2468,7 +2466,7 @@
         <v>49</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J86" s="2" t="s">
         <v>87</v>
@@ -2483,19 +2481,19 @@
         <v>53</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J87" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L87" s="17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="88" spans="3:13">
@@ -2503,7 +2501,7 @@
         <v>54</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J88" s="2" t="s">
         <v>19</v>
@@ -2512,10 +2510,10 @@
         <v>88</v>
       </c>
       <c r="L88" s="17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="90" spans="3:13">
@@ -2528,7 +2526,7 @@
         <v>9</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="92" spans="3:13" outlineLevel="1">
@@ -2661,7 +2659,7 @@
         <v>31</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J117" s="2" t="s">
         <v>87</v>
@@ -2670,10 +2668,10 @@
         <v>83</v>
       </c>
       <c r="L117" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="118" spans="4:13">
@@ -2681,16 +2679,16 @@
         <v>32</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J118" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K118" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L118" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="119" spans="4:13">
@@ -2703,19 +2701,19 @@
         <v>31</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J120" s="2" t="s">
         <v>87</v>
       </c>
       <c r="K120" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L120" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M120" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="121" spans="4:13">
@@ -2723,13 +2721,13 @@
         <v>32</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K121" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L121" s="3">
         <v>1</v>
@@ -2745,36 +2743,34 @@
         <v>57</v>
       </c>
       <c r="I123" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J123" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K123" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="L123" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="J123" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K123" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="L123" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="M123" s="23" t="s">
-        <v>221</v>
-      </c>
+      <c r="M123" s="23"/>
     </row>
     <row r="124" spans="4:13">
       <c r="G124" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J124" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K124" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L124" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="M124" s="23"/>
     </row>
@@ -2783,16 +2779,16 @@
         <v>58</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J125" s="2" t="s">
         <v>87</v>
       </c>
       <c r="K125" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L125" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M125" s="23"/>
     </row>
@@ -2811,7 +2807,7 @@
         <v>40</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J128" s="2" t="s">
         <v>19</v>
@@ -2820,7 +2816,7 @@
         <v>88</v>
       </c>
       <c r="L128" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="129" spans="6:13">
@@ -2828,7 +2824,7 @@
         <v>41</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J129" s="2" t="s">
         <v>19</v>
@@ -2837,7 +2833,7 @@
         <v>88</v>
       </c>
       <c r="L129" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="130" spans="6:13">
@@ -2845,7 +2841,7 @@
         <v>42</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J130" s="2" t="s">
         <v>19</v>
@@ -2854,7 +2850,7 @@
         <v>88</v>
       </c>
       <c r="L130" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="131" spans="6:13">
@@ -2862,13 +2858,13 @@
         <v>59</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J131" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K131" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L131" s="6">
         <v>-3.5</v>
@@ -2879,16 +2875,16 @@
         <v>60</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J132" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K132" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L132" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="133" spans="6:13">
@@ -2896,16 +2892,16 @@
         <v>61</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J133" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K133" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L133" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="134" spans="6:13">
@@ -2913,16 +2909,16 @@
         <v>62</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J134" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K134" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L134" s="12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="135" spans="6:13">
@@ -2930,21 +2926,21 @@
         <v>63</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J135" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K135" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L135" s="12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="136" spans="6:13">
       <c r="G136" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I136" s="13"/>
       <c r="J136" s="13"/>
@@ -2956,16 +2952,16 @@
         <v>67</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J137" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K137" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L137" s="12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="138" spans="6:13">
@@ -2973,22 +2969,22 @@
         <v>68</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J138" s="8"/>
       <c r="K138" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L138" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M138" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="139" spans="6:13">
       <c r="G139" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I139" s="13"/>
       <c r="J139" s="13"/>
@@ -3000,16 +2996,16 @@
         <v>67</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J140" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K140" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L140" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="141" spans="6:13">
@@ -3017,19 +3013,19 @@
         <v>68</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J141" s="15" t="s">
         <v>87</v>
       </c>
       <c r="K141" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L141" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="M141" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="142" spans="6:13">
@@ -3037,16 +3033,16 @@
         <v>50</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J142" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K142" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L142" s="17" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="143" spans="6:13">
@@ -3054,7 +3050,7 @@
         <v>51</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J143" s="13"/>
       <c r="K143" s="14"/>
@@ -3065,13 +3061,13 @@
         <v>40</v>
       </c>
       <c r="I144" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J144" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="J144" s="8" t="s">
-        <v>134</v>
-      </c>
       <c r="K144" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L144" s="5">
         <v>31.5</v>
@@ -3167,16 +3163,16 @@
         <v>53</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J162" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K162" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L162" s="17" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="163" spans="3:12">
@@ -3184,16 +3180,16 @@
         <v>70</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J163" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K163" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L163" s="17" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="165" spans="3:12">
@@ -3206,7 +3202,7 @@
         <v>9</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="167" spans="3:12" outlineLevel="1">
@@ -3339,7 +3335,7 @@
         <v>31</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J192" s="2" t="s">
         <v>87</v>
@@ -3348,10 +3344,10 @@
         <v>83</v>
       </c>
       <c r="L192" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M192" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="193" spans="6:13">
@@ -3359,16 +3355,16 @@
         <v>32</v>
       </c>
       <c r="I193" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J193" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K193" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L193" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="194" spans="6:13">
@@ -3381,19 +3377,19 @@
         <v>31</v>
       </c>
       <c r="I195" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J195" s="2" t="s">
         <v>87</v>
       </c>
       <c r="K195" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L195" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M195" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="196" spans="6:13">
@@ -3401,13 +3397,13 @@
         <v>32</v>
       </c>
       <c r="I196" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J196" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K196" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L196" s="3">
         <v>1</v>
@@ -3418,7 +3414,7 @@
         <v>34</v>
       </c>
       <c r="I197" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J197" s="2"/>
       <c r="K197" s="3" t="s">
@@ -3431,7 +3427,7 @@
         <v>31</v>
       </c>
       <c r="I198" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J198" s="2" t="s">
         <v>87</v>
@@ -3440,7 +3436,7 @@
         <v>88</v>
       </c>
       <c r="L198" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="199" spans="6:13">
@@ -3448,7 +3444,7 @@
         <v>32</v>
       </c>
       <c r="I199" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J199" s="2" t="s">
         <v>19</v>
@@ -3463,7 +3459,7 @@
         <v>35</v>
       </c>
       <c r="I200" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J200" s="2"/>
       <c r="K200" s="3" t="s">
@@ -3476,7 +3472,7 @@
         <v>31</v>
       </c>
       <c r="I201" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J201" s="2" t="s">
         <v>87</v>
@@ -3485,7 +3481,7 @@
         <v>88</v>
       </c>
       <c r="L201" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="202" spans="6:13">
@@ -3493,7 +3489,7 @@
         <v>32</v>
       </c>
       <c r="I202" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J202" s="2" t="s">
         <v>19</v>
@@ -3513,36 +3509,34 @@
         <v>57</v>
       </c>
       <c r="I204" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J204" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K204" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="L204" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="J204" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K204" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="L204" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="M204" s="23" t="s">
-        <v>221</v>
-      </c>
+      <c r="M204" s="23"/>
     </row>
     <row r="205" spans="6:13">
       <c r="G205" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I205" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J205" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K205" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L205" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="M205" s="23"/>
     </row>
@@ -3551,16 +3545,16 @@
         <v>58</v>
       </c>
       <c r="I206" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J206" s="2" t="s">
         <v>87</v>
       </c>
       <c r="K206" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L206" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M206" s="23"/>
     </row>
@@ -3574,7 +3568,7 @@
         <v>31</v>
       </c>
       <c r="I208" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="J208" s="2" t="s">
         <v>87</v>
@@ -3583,10 +3577,10 @@
         <v>83</v>
       </c>
       <c r="L208" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M208" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="209" spans="5:13">
@@ -3594,7 +3588,7 @@
         <v>32</v>
       </c>
       <c r="I209" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J209" s="2" t="s">
         <v>19</v>
@@ -3609,7 +3603,7 @@
         <v>37</v>
       </c>
       <c r="I210" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J210" s="2" t="s">
         <v>87</v>
@@ -3618,7 +3612,7 @@
         <v>88</v>
       </c>
       <c r="L210" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="211" spans="5:13">
@@ -3631,7 +3625,7 @@
         <v>39</v>
       </c>
       <c r="I212" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J212" s="2" t="s">
         <v>82</v>
@@ -3646,7 +3640,7 @@
         <v>40</v>
       </c>
       <c r="I213" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J213" s="2" t="s">
         <v>19</v>
@@ -3655,7 +3649,7 @@
         <v>88</v>
       </c>
       <c r="L213" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="214" spans="5:13">
@@ -3663,7 +3657,7 @@
         <v>41</v>
       </c>
       <c r="I214" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J214" s="2" t="s">
         <v>19</v>
@@ -3672,7 +3666,7 @@
         <v>88</v>
       </c>
       <c r="L214" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="215" spans="5:13">
@@ -3680,7 +3674,7 @@
         <v>42</v>
       </c>
       <c r="I215" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J215" s="2" t="s">
         <v>19</v>
@@ -3689,7 +3683,7 @@
         <v>88</v>
       </c>
       <c r="L215" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="216" spans="5:13">
@@ -3697,16 +3691,16 @@
         <v>60</v>
       </c>
       <c r="I216" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J216" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K216" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L216" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="217" spans="5:13">
@@ -3714,16 +3708,16 @@
         <v>61</v>
       </c>
       <c r="I217" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J217" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K217" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L217" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="218" spans="5:13">
@@ -3731,16 +3725,16 @@
         <v>62</v>
       </c>
       <c r="I218" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J218" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K218" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L218" s="12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="219" spans="5:13">
@@ -3748,21 +3742,21 @@
         <v>63</v>
       </c>
       <c r="I219" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J219" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K219" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L219" s="12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="220" spans="5:13">
       <c r="G220" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I220" s="13"/>
       <c r="J220" s="13"/>
@@ -3774,16 +3768,16 @@
         <v>67</v>
       </c>
       <c r="I221" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J221" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K221" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L221" s="12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="222" spans="5:13">
@@ -3791,22 +3785,22 @@
         <v>68</v>
       </c>
       <c r="I222" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J222" s="8"/>
       <c r="K222" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L222" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M222" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="223" spans="5:13">
       <c r="G223" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I223" s="13"/>
       <c r="J223" s="13"/>
@@ -3818,16 +3812,16 @@
         <v>67</v>
       </c>
       <c r="I224" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J224" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K224" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L224" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="225" spans="6:13">
@@ -3835,19 +3829,19 @@
         <v>68</v>
       </c>
       <c r="I225" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J225" s="15" t="s">
         <v>87</v>
       </c>
       <c r="K225" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L225" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="M225" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="226" spans="6:13">
@@ -3855,7 +3849,7 @@
         <v>43</v>
       </c>
       <c r="I226" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J226" s="2" t="s">
         <v>19</v>
@@ -3864,7 +3858,7 @@
         <v>88</v>
       </c>
       <c r="L226" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="227" spans="6:13">
@@ -3872,7 +3866,7 @@
         <v>44</v>
       </c>
       <c r="I227" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J227" s="2" t="s">
         <v>87</v>
@@ -3887,7 +3881,7 @@
         <v>45</v>
       </c>
       <c r="I228" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J228" s="2" t="s">
         <v>87</v>
@@ -3902,7 +3896,7 @@
         <v>46</v>
       </c>
       <c r="I229" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J229" s="2" t="s">
         <v>87</v>
@@ -3917,7 +3911,7 @@
         <v>47</v>
       </c>
       <c r="I230" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J230" s="2" t="s">
         <v>87</v>
@@ -3932,7 +3926,7 @@
         <v>48</v>
       </c>
       <c r="I231" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J231" s="2" t="s">
         <v>87</v>
@@ -3947,7 +3941,7 @@
         <v>49</v>
       </c>
       <c r="I232" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J232" s="2" t="s">
         <v>87</v>
@@ -3962,19 +3956,19 @@
         <v>53</v>
       </c>
       <c r="I233" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J233" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K233" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L233" s="17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M233" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="234" spans="6:13">
@@ -3982,7 +3976,7 @@
         <v>51</v>
       </c>
       <c r="I234" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J234" s="2" t="s">
         <v>82</v>
@@ -4112,7 +4106,7 @@
         <v>52</v>
       </c>
       <c r="I258" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J258" s="2" t="s">
         <v>82</v>
@@ -4124,7 +4118,7 @@
     </row>
     <row r="259" spans="6:12">
       <c r="G259" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I259" s="2"/>
       <c r="J259" s="2"/>
@@ -4133,56 +4127,56 @@
     </row>
     <row r="260" spans="6:12">
       <c r="H260" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I260" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J260" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K260" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="J260" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K260" s="3" t="s">
+      <c r="L260" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="L260" s="2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="261" spans="6:12">
       <c r="H261" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I261" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J261" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K261" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L261" s="2"/>
     </row>
     <row r="262" spans="6:12">
       <c r="H262" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I262" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="J262" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K262" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="L262" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="J262" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K262" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="L262" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="263" spans="6:12">
       <c r="G263" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I263" s="2"/>
       <c r="J263" s="2"/>
@@ -4191,51 +4185,51 @@
     </row>
     <row r="264" spans="6:12">
       <c r="H264" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I264" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J264" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K264" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="J264" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K264" s="3" t="s">
+      <c r="L264" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="L264" s="2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="265" spans="6:12">
       <c r="H265" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I265" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J265" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K265" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L265" s="2"/>
     </row>
     <row r="266" spans="6:12">
       <c r="H266" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I266" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="J266" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K266" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="L266" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="J266" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K266" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="L266" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="267" spans="6:12">
@@ -4243,13 +4237,13 @@
         <v>73</v>
       </c>
       <c r="I267" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J267" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K267" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L267" s="2"/>
     </row>
@@ -4258,13 +4252,13 @@
         <v>74</v>
       </c>
       <c r="I268" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J268" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K268" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L268" s="2"/>
     </row>
@@ -4273,7 +4267,7 @@
         <v>44</v>
       </c>
       <c r="I269" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J269" s="2" t="s">
         <v>87</v>
@@ -4288,7 +4282,7 @@
         <v>45</v>
       </c>
       <c r="I270" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J270" s="2" t="s">
         <v>87</v>
@@ -4303,7 +4297,7 @@
         <v>46</v>
       </c>
       <c r="I271" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J271" s="2" t="s">
         <v>87</v>
@@ -4318,7 +4312,7 @@
         <v>47</v>
       </c>
       <c r="I272" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J272" s="2" t="s">
         <v>87</v>
@@ -4333,7 +4327,7 @@
         <v>48</v>
       </c>
       <c r="I273" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J273" s="2" t="s">
         <v>87</v>
@@ -4348,7 +4342,7 @@
         <v>49</v>
       </c>
       <c r="I274" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J274" s="2" t="s">
         <v>87</v>
@@ -4363,16 +4357,16 @@
         <v>53</v>
       </c>
       <c r="I275" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J275" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K275" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L275" s="17" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="276" spans="3:12">
@@ -4380,7 +4374,7 @@
         <v>54</v>
       </c>
       <c r="I276" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J276" s="2" t="s">
         <v>19</v>
@@ -4389,7 +4383,7 @@
         <v>88</v>
       </c>
       <c r="L276" s="17" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="278" spans="3:12">
@@ -4402,7 +4396,7 @@
         <v>9</v>
       </c>
       <c r="I279" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="280" spans="3:12" outlineLevel="1">
@@ -4535,7 +4529,7 @@
         <v>31</v>
       </c>
       <c r="I305" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J305" s="2" t="s">
         <v>87</v>
@@ -4544,10 +4538,10 @@
         <v>83</v>
       </c>
       <c r="L305" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M305" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="306" spans="6:13">
@@ -4555,16 +4549,16 @@
         <v>32</v>
       </c>
       <c r="I306" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J306" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K306" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L306" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="307" spans="6:13">
@@ -4577,19 +4571,19 @@
         <v>31</v>
       </c>
       <c r="I308" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J308" s="2" t="s">
         <v>87</v>
       </c>
       <c r="K308" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L308" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M308" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="309" spans="6:13">
@@ -4597,13 +4591,13 @@
         <v>32</v>
       </c>
       <c r="I309" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J309" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K309" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L309" s="3">
         <v>1</v>
@@ -4614,7 +4608,7 @@
         <v>34</v>
       </c>
       <c r="I310" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J310" s="2"/>
       <c r="K310" s="3" t="s">
@@ -4627,7 +4621,7 @@
         <v>31</v>
       </c>
       <c r="I311" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J311" s="2" t="s">
         <v>87</v>
@@ -4636,7 +4630,7 @@
         <v>88</v>
       </c>
       <c r="L311" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="312" spans="6:13">
@@ -4644,7 +4638,7 @@
         <v>32</v>
       </c>
       <c r="I312" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J312" s="2" t="s">
         <v>19</v>
@@ -4659,7 +4653,7 @@
         <v>35</v>
       </c>
       <c r="I313" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J313" s="2"/>
       <c r="K313" s="3" t="s">
@@ -4672,7 +4666,7 @@
         <v>31</v>
       </c>
       <c r="I314" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J314" s="2" t="s">
         <v>87</v>
@@ -4681,7 +4675,7 @@
         <v>88</v>
       </c>
       <c r="L314" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="315" spans="6:13">
@@ -4689,7 +4683,7 @@
         <v>32</v>
       </c>
       <c r="I315" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J315" s="2" t="s">
         <v>19</v>
@@ -4709,36 +4703,34 @@
         <v>57</v>
       </c>
       <c r="I317" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J317" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K317" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="L317" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="J317" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K317" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="L317" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="M317" s="23" t="s">
-        <v>221</v>
-      </c>
+      <c r="M317" s="23"/>
     </row>
     <row r="318" spans="6:13">
       <c r="G318" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I318" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J318" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K318" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L318" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="M318" s="23"/>
     </row>
@@ -4747,16 +4739,16 @@
         <v>58</v>
       </c>
       <c r="I319" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J319" s="2" t="s">
         <v>87</v>
       </c>
       <c r="K319" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L319" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M319" s="23"/>
     </row>
@@ -4770,7 +4762,7 @@
         <v>31</v>
       </c>
       <c r="I321" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="J321" s="2" t="s">
         <v>87</v>
@@ -4779,10 +4771,10 @@
         <v>83</v>
       </c>
       <c r="L321" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M321" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="322" spans="5:13">
@@ -4790,7 +4782,7 @@
         <v>32</v>
       </c>
       <c r="I322" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J322" s="2" t="s">
         <v>19</v>
@@ -4805,7 +4797,7 @@
         <v>37</v>
       </c>
       <c r="I323" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J323" s="2" t="s">
         <v>87</v>
@@ -4814,7 +4806,7 @@
         <v>88</v>
       </c>
       <c r="L323" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="324" spans="5:13">
@@ -4827,7 +4819,7 @@
         <v>39</v>
       </c>
       <c r="I325" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J325" s="2" t="s">
         <v>82</v>
@@ -4842,7 +4834,7 @@
         <v>40</v>
       </c>
       <c r="I326" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J326" s="2" t="s">
         <v>19</v>
@@ -4851,7 +4843,7 @@
         <v>88</v>
       </c>
       <c r="L326" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="327" spans="5:13">
@@ -4859,7 +4851,7 @@
         <v>41</v>
       </c>
       <c r="I327" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J327" s="2" t="s">
         <v>19</v>
@@ -4868,7 +4860,7 @@
         <v>88</v>
       </c>
       <c r="L327" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="328" spans="5:13">
@@ -4876,7 +4868,7 @@
         <v>42</v>
       </c>
       <c r="I328" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J328" s="2" t="s">
         <v>19</v>
@@ -4885,7 +4877,7 @@
         <v>88</v>
       </c>
       <c r="L328" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="329" spans="5:13">
@@ -4893,16 +4885,16 @@
         <v>60</v>
       </c>
       <c r="I329" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J329" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K329" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L329" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="330" spans="5:13">
@@ -4910,16 +4902,16 @@
         <v>61</v>
       </c>
       <c r="I330" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J330" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K330" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L330" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="331" spans="5:13">
@@ -4927,16 +4919,16 @@
         <v>62</v>
       </c>
       <c r="I331" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J331" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K331" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L331" s="12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="332" spans="5:13">
@@ -4944,21 +4936,21 @@
         <v>63</v>
       </c>
       <c r="I332" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J332" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K332" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L332" s="12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="333" spans="5:13">
       <c r="G333" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I333" s="13"/>
       <c r="J333" s="13"/>
@@ -4970,16 +4962,16 @@
         <v>67</v>
       </c>
       <c r="I334" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J334" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K334" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L334" s="12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="335" spans="5:13">
@@ -4987,22 +4979,22 @@
         <v>68</v>
       </c>
       <c r="I335" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J335" s="8"/>
       <c r="K335" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L335" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M335" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="336" spans="5:13">
       <c r="G336" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I336" s="13"/>
       <c r="J336" s="13"/>
@@ -5014,16 +5006,16 @@
         <v>67</v>
       </c>
       <c r="I337" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J337" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K337" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L337" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="338" spans="6:13">
@@ -5031,19 +5023,19 @@
         <v>68</v>
       </c>
       <c r="I338" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J338" s="15" t="s">
         <v>87</v>
       </c>
       <c r="K338" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L338" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="M338" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="339" spans="6:13">
@@ -5051,7 +5043,7 @@
         <v>43</v>
       </c>
       <c r="I339" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J339" s="2" t="s">
         <v>19</v>
@@ -5060,7 +5052,7 @@
         <v>88</v>
       </c>
       <c r="L339" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="340" spans="6:13">
@@ -5068,7 +5060,7 @@
         <v>44</v>
       </c>
       <c r="I340" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J340" s="2" t="s">
         <v>87</v>
@@ -5083,7 +5075,7 @@
         <v>45</v>
       </c>
       <c r="I341" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J341" s="2" t="s">
         <v>87</v>
@@ -5098,7 +5090,7 @@
         <v>46</v>
       </c>
       <c r="I342" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J342" s="2" t="s">
         <v>87</v>
@@ -5113,7 +5105,7 @@
         <v>47</v>
       </c>
       <c r="I343" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J343" s="2" t="s">
         <v>87</v>
@@ -5128,7 +5120,7 @@
         <v>48</v>
       </c>
       <c r="I344" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J344" s="2" t="s">
         <v>87</v>
@@ -5143,7 +5135,7 @@
         <v>49</v>
       </c>
       <c r="I345" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J345" s="2" t="s">
         <v>87</v>
@@ -5158,19 +5150,19 @@
         <v>53</v>
       </c>
       <c r="I346" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J346" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K346" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L346" s="17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M346" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="347" spans="6:13">
@@ -5178,7 +5170,7 @@
         <v>51</v>
       </c>
       <c r="I347" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J347" s="2" t="s">
         <v>82</v>
@@ -5308,7 +5300,7 @@
         <v>52</v>
       </c>
       <c r="I371" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J371" s="2" t="s">
         <v>82</v>
@@ -5320,7 +5312,7 @@
     </row>
     <row r="372" spans="6:12">
       <c r="G372" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I372" s="2"/>
       <c r="J372" s="2"/>
@@ -5329,56 +5321,56 @@
     </row>
     <row r="373" spans="6:12">
       <c r="H373" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I373" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J373" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K373" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="J373" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K373" s="3" t="s">
+      <c r="L373" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="L373" s="2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="374" spans="6:12">
       <c r="H374" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I374" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J374" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K374" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L374" s="2"/>
     </row>
     <row r="375" spans="6:12">
       <c r="H375" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I375" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="J375" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K375" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="L375" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="J375" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K375" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="L375" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="376" spans="6:12">
       <c r="G376" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I376" s="2"/>
       <c r="J376" s="2"/>
@@ -5387,51 +5379,51 @@
     </row>
     <row r="377" spans="6:12">
       <c r="H377" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I377" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J377" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K377" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="J377" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K377" s="3" t="s">
+      <c r="L377" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="L377" s="2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="378" spans="6:12">
       <c r="H378" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I378" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J378" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K378" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L378" s="2"/>
     </row>
     <row r="379" spans="6:12">
       <c r="H379" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I379" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="J379" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K379" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="L379" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="J379" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K379" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="L379" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="380" spans="6:12">
@@ -5439,13 +5431,13 @@
         <v>73</v>
       </c>
       <c r="I380" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J380" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K380" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L380" s="2"/>
     </row>
@@ -5454,13 +5446,13 @@
         <v>74</v>
       </c>
       <c r="I381" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J381" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K381" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L381" s="2"/>
     </row>
@@ -5469,7 +5461,7 @@
         <v>44</v>
       </c>
       <c r="I382" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J382" s="2" t="s">
         <v>87</v>
@@ -5484,7 +5476,7 @@
         <v>45</v>
       </c>
       <c r="I383" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J383" s="2" t="s">
         <v>87</v>
@@ -5499,7 +5491,7 @@
         <v>46</v>
       </c>
       <c r="I384" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J384" s="2" t="s">
         <v>87</v>
@@ -5514,7 +5506,7 @@
         <v>47</v>
       </c>
       <c r="I385" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J385" s="2" t="s">
         <v>87</v>
@@ -5529,7 +5521,7 @@
         <v>48</v>
       </c>
       <c r="I386" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J386" s="2" t="s">
         <v>87</v>
@@ -5544,7 +5536,7 @@
         <v>49</v>
       </c>
       <c r="I387" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J387" s="2" t="s">
         <v>87</v>
@@ -5559,16 +5551,16 @@
         <v>53</v>
       </c>
       <c r="I388" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J388" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K388" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L388" s="17" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="389" spans="3:12">
@@ -5576,7 +5568,7 @@
         <v>54</v>
       </c>
       <c r="I389" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J389" s="2" t="s">
         <v>19</v>
@@ -5585,7 +5577,7 @@
         <v>88</v>
       </c>
       <c r="L389" s="17" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="390" spans="3:12">
@@ -5596,10 +5588,10 @@
     </row>
     <row r="392" spans="3:12" ht="46" customHeight="1">
       <c r="C392" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I392" s="24" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J392" s="24"/>
       <c r="K392" s="24"/>
@@ -5615,7 +5607,7 @@
         <v>75</v>
       </c>
       <c r="I394" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J394" s="2" t="s">
         <v>87</v>
@@ -5630,7 +5622,7 @@
         <v>15</v>
       </c>
       <c r="I395" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J395" s="2" t="s">
         <v>87</v>
@@ -5645,7 +5637,7 @@
         <v>16</v>
       </c>
       <c r="I396" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J396" s="2" t="s">
         <v>87</v>
@@ -5654,7 +5646,7 @@
         <v>83</v>
       </c>
       <c r="L396" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="397" spans="3:12">
@@ -5662,7 +5654,7 @@
         <v>17</v>
       </c>
       <c r="I397" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J397" s="2" t="s">
         <v>87</v>
@@ -5671,7 +5663,7 @@
         <v>83</v>
       </c>
       <c r="L397" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="398" spans="3:12">
@@ -5679,7 +5671,7 @@
         <v>76</v>
       </c>
       <c r="I398" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J398" s="2" t="s">
         <v>87</v>
@@ -5688,7 +5680,7 @@
         <v>88</v>
       </c>
       <c r="L398" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="399" spans="3:12">
@@ -5696,10 +5688,10 @@
         <v>18</v>
       </c>
       <c r="I399" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J399" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="J399" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="K399" s="3" t="s">
         <v>88</v>
@@ -5711,10 +5703,10 @@
         <v>19</v>
       </c>
       <c r="I400" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J400" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K400" s="3" t="s">
         <v>88</v>
@@ -5728,7 +5720,7 @@
         <v>20</v>
       </c>
       <c r="I401" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J401" s="2" t="s">
         <v>87</v>
@@ -5737,7 +5729,7 @@
         <v>88</v>
       </c>
       <c r="L401" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="402" spans="5:12">
@@ -5745,7 +5737,7 @@
         <v>21</v>
       </c>
       <c r="I402" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J402" s="2" t="s">
         <v>87</v>
@@ -5754,7 +5746,7 @@
         <v>88</v>
       </c>
       <c r="L402" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="403" spans="5:12">
@@ -5762,7 +5754,7 @@
         <v>22</v>
       </c>
       <c r="I403" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J403" s="2" t="s">
         <v>87</v>
@@ -5771,7 +5763,7 @@
         <v>88</v>
       </c>
       <c r="L403" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="404" spans="5:12">
@@ -5779,7 +5771,7 @@
         <v>23</v>
       </c>
       <c r="I404" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J404" s="2" t="s">
         <v>87</v>
@@ -5788,7 +5780,7 @@
         <v>88</v>
       </c>
       <c r="L404" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="405" spans="5:12">
@@ -5796,7 +5788,7 @@
         <v>24</v>
       </c>
       <c r="I405" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J405" s="2" t="s">
         <v>87</v>
@@ -5805,7 +5797,7 @@
         <v>88</v>
       </c>
       <c r="L405" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="406" spans="5:12">
@@ -5813,10 +5805,10 @@
         <v>25</v>
       </c>
       <c r="I406" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J406" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K406" s="3" t="s">
         <v>88</v>
@@ -5830,7 +5822,7 @@
         <v>26</v>
       </c>
       <c r="I407" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J407" s="2" t="s">
         <v>87</v>
@@ -5839,7 +5831,7 @@
         <v>88</v>
       </c>
       <c r="L407" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="408" spans="5:12">
@@ -5847,7 +5839,7 @@
         <v>27</v>
       </c>
       <c r="I408" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J408" s="2"/>
       <c r="K408" s="3" t="s">
@@ -5860,10 +5852,10 @@
         <v>19</v>
       </c>
       <c r="I409" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J409" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K409" s="3" t="s">
         <v>88</v>
@@ -5877,7 +5869,7 @@
         <v>28</v>
       </c>
       <c r="I410" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J410" s="2" t="s">
         <v>87</v>
@@ -5886,7 +5878,7 @@
         <v>88</v>
       </c>
       <c r="L410" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
